--- a/Beamline_elements.xlsx
+++ b/Beamline_elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NielsB\cernbox\Hawaii University\Beam dynamics\FEL_sim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NielsB\cernbox\Hawaii University\Beam dynamics\FELsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED83790-314D-4F57-885D-AABA909798F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FAFAE6F-3F0E-4A97-B48C-E0629B98CFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3612" yWindow="300" windowWidth="25944" windowHeight="15372" xr2:uid="{4C82D9F0-9D94-4EC2-AD9E-40D58C931DEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="34776" windowHeight="21096" xr2:uid="{4C82D9F0-9D94-4EC2-AD9E-40D58C931DEF}"/>
   </bookViews>
   <sheets>
     <sheet name="pysheet_" sheetId="2" r:id="rId1"/>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033554DD-3897-4359-B7DF-3FC088E3C719}">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2241,7 +2241,7 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>M14 &amp; "."  &amp; N14 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C14), C14, F14), "000")</f>
-        <v>DC1.QPC.021</v>
+        <v>DC1.QPF.021</v>
       </c>
       <c r="B14" s="16">
         <f>D12+Sheet1!B7</f>
@@ -2272,7 +2272,7 @@
         <v>250</v>
       </c>
       <c r="N14" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -2416,7 +2416,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>M19 &amp; "."  &amp; N19 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C19), C19, F19), "000")</f>
-        <v>DC2.QPF.028</v>
+        <v>DC2.QPD.028</v>
       </c>
       <c r="B19" s="16">
         <f>D16+Sheet1!B9</f>
@@ -2447,13 +2447,13 @@
         <v>251</v>
       </c>
       <c r="N19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>M20 &amp; "."  &amp; N20 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C20), C20, F20), "000")</f>
-        <v>DC2.QPD.029</v>
+        <v>DC2.QPF.029</v>
       </c>
       <c r="B20" s="16">
         <f>D19+Sheet1!B10</f>
@@ -2484,13 +2484,13 @@
         <v>251</v>
       </c>
       <c r="N20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>M21 &amp; "."  &amp; N21 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C21), C21, F21), "000")</f>
-        <v>DC2.QPF.030</v>
+        <v>DC2.QPD.030</v>
       </c>
       <c r="B21" s="16">
         <f>D20+Sheet1!B11</f>
@@ -2521,7 +2521,7 @@
         <v>251</v>
       </c>
       <c r="N21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -2574,7 +2574,7 @@
         <v>3.2979100000000008</v>
       </c>
       <c r="F23" s="20">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G23">
         <v>4.0640000000000003E-2</v>
@@ -2610,7 +2610,7 @@
         <v>3.3385500000000006</v>
       </c>
       <c r="F24" s="20">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G24">
         <v>4.0640000000000003E-2</v>
@@ -2649,7 +2649,7 @@
         <v>3.3485500000000004</v>
       </c>
       <c r="F25" s="20">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G25">
         <v>4.0640000000000003E-2</v>
@@ -2670,7 +2670,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>DC2.QPC.036</v>
+        <v>DC2.QPF.036</v>
       </c>
       <c r="B26" s="16">
         <f>D24+Sheet1!B14</f>
@@ -2701,7 +2701,7 @@
         <v>251</v>
       </c>
       <c r="N26" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2722,7 +2722,7 @@
         <v>3.8593100000000011</v>
       </c>
       <c r="F27" s="20">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G27">
         <v>4.0640000000000003E-2</v>
@@ -2758,7 +2758,7 @@
         <v>3.8999500000000009</v>
       </c>
       <c r="F28" s="20">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G28">
         <v>4.0640000000000003E-2</v>
@@ -2797,7 +2797,7 @@
         <v>3.9099500000000007</v>
       </c>
       <c r="F29" s="20">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G29">
         <v>4.0640000000000003E-2</v>
@@ -2886,7 +2886,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="str">
         <f>M32 &amp; "."  &amp; N32 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C32), C32, F32), "000")</f>
-        <v>DC2.QPF.042</v>
+        <v>DC2.QPD.042</v>
       </c>
       <c r="B32" s="16">
         <f>D28+Sheet1!B16</f>
@@ -2917,13 +2917,13 @@
         <v>251</v>
       </c>
       <c r="N32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="str">
         <f>M33 &amp; "."  &amp; N33 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C33), C33, F33), "000")</f>
-        <v>DC2.QPD.043</v>
+        <v>DC2.QPF.043</v>
       </c>
       <c r="B33" s="16">
         <f>D32+Sheet1!B17</f>
@@ -2954,13 +2954,13 @@
         <v>251</v>
       </c>
       <c r="N33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="str">
         <f>M34 &amp; "."  &amp; N34 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C34), C34, F34), "000")</f>
-        <v>DC2.QPF.045</v>
+        <v>DC2.QPD.045</v>
       </c>
       <c r="B34" s="16">
         <f>D33+Sheet1!B18</f>
@@ -2991,7 +2991,7 @@
         <v>251</v>
       </c>
       <c r="N34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -3026,7 +3026,7 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="str">
         <f>M36 &amp; "."  &amp; N36 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C36), C36, F36), "000")</f>
-        <v>DC3.QPF.050</v>
+        <v>DC3.QPD.050</v>
       </c>
       <c r="B36" s="16">
         <f>D34+Sheet1!B19</f>
@@ -3057,13 +3057,13 @@
         <v>252</v>
       </c>
       <c r="N36" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="str">
         <f>M37 &amp; "."  &amp; N37 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C37), C37, F37), "000")</f>
-        <v>DC3.QPD.051</v>
+        <v>DC3.QPF.051</v>
       </c>
       <c r="B37" s="16">
         <f>D36+Sheet1!B20</f>
@@ -3094,13 +3094,13 @@
         <v>252</v>
       </c>
       <c r="N37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="str">
         <f>M38 &amp; "."  &amp; N38 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C38), C38, F38), "000")</f>
-        <v>DC3.QPF.053</v>
+        <v>DC3.QPD.053</v>
       </c>
       <c r="B38" s="16">
         <f>D37+Sheet1!B21</f>
@@ -3131,7 +3131,7 @@
         <v>252</v>
       </c>
       <c r="N38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -3301,7 +3301,7 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="str">
         <f>M44 &amp; "."  &amp; N44 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C44), C44, F44), "000")</f>
-        <v>DC3.QPC.059</v>
+        <v>DC3.QPF.059</v>
       </c>
       <c r="B44" s="16">
         <f>D41+Sheet1!B24</f>
@@ -3332,7 +3332,7 @@
         <v>252</v>
       </c>
       <c r="N44" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3538,7 +3538,7 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="str">
         <f>M51 &amp; "."  &amp; N51 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C51), C51, F51), "000")</f>
-        <v>DC3.QPF.064</v>
+        <v>DC3.QPD.064</v>
       </c>
       <c r="B51" s="16">
         <f>D47+Sheet1!B26</f>
@@ -3569,13 +3569,13 @@
         <v>252</v>
       </c>
       <c r="N51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="str">
         <f>M52 &amp; "."  &amp; N52 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C52), C52, F52), "000")</f>
-        <v>DC3.QPD.066</v>
+        <v>DC3.QPF.066</v>
       </c>
       <c r="B52" s="16">
         <f>D51+Sheet1!B27</f>
@@ -3606,7 +3606,7 @@
         <v>252</v>
       </c>
       <c r="N52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -3832,7 +3832,7 @@
         <v>7.4145199999999969</v>
       </c>
       <c r="E60">
-        <v>2.2557535263548631</v>
+        <v>2.4870081662954718E-2</v>
       </c>
       <c r="F60" s="20"/>
       <c r="J60" s="7" t="s">
@@ -3869,7 +3869,7 @@
         <v>7.5588199999999963</v>
       </c>
       <c r="E61">
-        <v>1.6718634001484785</v>
+        <v>1E-3</v>
       </c>
       <c r="F61" s="20"/>
       <c r="J61" s="19" t="s">
@@ -3938,7 +3938,7 @@
         <v>7.8509199999999959</v>
       </c>
       <c r="F63" s="20">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G63">
         <v>4.0640000000000003E-2</v>
@@ -3974,7 +3974,7 @@
         <v>7.8915599999999957</v>
       </c>
       <c r="F64" s="20">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G64">
         <v>4.0640000000000003E-2</v>
@@ -4013,7 +4013,7 @@
         <v>7.9015599999999955</v>
       </c>
       <c r="F65" s="20">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G65">
         <v>4.0640000000000003E-2</v>
@@ -4070,7 +4070,7 @@
         <v>8.1963899999999956</v>
       </c>
       <c r="E67">
-        <v>2.7097253155159615</v>
+        <v>4.4914625092798817</v>
       </c>
       <c r="F67" s="20"/>
       <c r="J67" s="7" t="s">
@@ -4086,7 +4086,7 @@
         <v>253</v>
       </c>
       <c r="N67" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -4125,7 +4125,7 @@
         <v>8.4123199999999958</v>
       </c>
       <c r="F69" s="20">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G69">
         <v>4.0640000000000003E-2</v>
@@ -4161,7 +4161,7 @@
         <v>8.4529599999999956</v>
       </c>
       <c r="F70" s="20">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G70">
         <v>4.0640000000000003E-2</v>
@@ -4200,7 +4200,7 @@
         <v>8.4629599999999954</v>
       </c>
       <c r="F71" s="20">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G71">
         <v>4.0640000000000003E-2</v>
@@ -4252,7 +4252,7 @@
         <v>253</v>
       </c>
       <c r="N72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -4289,7 +4289,7 @@
         <v>253</v>
       </c>
       <c r="N73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -4326,7 +4326,7 @@
         <v>253</v>
       </c>
       <c r="N74" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -4596,7 +4596,7 @@
         <v>9.7177929999999968</v>
       </c>
       <c r="E83">
-        <v>0.77691165553080932</v>
+        <v>3.8166035634743878</v>
       </c>
       <c r="F83" s="20"/>
       <c r="J83" s="7" t="s">
@@ -4610,7 +4610,7 @@
         <v>254</v>
       </c>
       <c r="N83" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -4781,7 +4781,7 @@
         <v>254</v>
       </c>
       <c r="N88" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -4964,13 +4964,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC6263B-129C-4012-8C81-A56CA3901853}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8095,7 +8096,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9810,7 +9811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C826FC-82B6-4AF9-95D8-27CD617DC0AA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>

--- a/Beamline_elements.xlsx
+++ b/Beamline_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NielsB\cernbox\Hawaii University\Beam dynamics\FELsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FAFAE6F-3F0E-4A97-B48C-E0629B98CFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF57E20-CD6D-439F-AD44-8A8E64D9DC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="34776" windowHeight="21096" xr2:uid="{4C82D9F0-9D94-4EC2-AD9E-40D58C931DEF}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="25920" windowHeight="15360" xr2:uid="{4C82D9F0-9D94-4EC2-AD9E-40D58C931DEF}"/>
   </bookViews>
   <sheets>
     <sheet name="pysheet_" sheetId="2" r:id="rId1"/>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033554DD-3897-4359-B7DF-3FC088E3C719}">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1910,7 +1910,7 @@
         <v>0.44767500000000005</v>
       </c>
       <c r="E3">
-        <v>0.91685226429101718</v>
+        <v>0.88571930929915599</v>
       </c>
       <c r="F3" s="20"/>
       <c r="J3" s="7" t="s">
@@ -1967,7 +1967,7 @@
         <v>0.73342499999999999</v>
       </c>
       <c r="E5">
-        <v>1.0764662212323683</v>
+        <v>1.0528901226284999</v>
       </c>
       <c r="F5" s="20"/>
       <c r="J5" s="7" t="s">
@@ -8095,8 +8095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690C5098-DD13-4632-A393-CDBA5D4508EB}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Beamline_elements.xlsx
+++ b/Beamline_elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NielsB\cernbox\Hawaii University\Beam dynamics\FELsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF57E20-CD6D-439F-AD44-8A8E64D9DC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671CB04F-7346-4577-A427-C5BBE5067470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="25920" windowHeight="15360" xr2:uid="{4C82D9F0-9D94-4EC2-AD9E-40D58C931DEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="34776" windowHeight="21096" xr2:uid="{4C82D9F0-9D94-4EC2-AD9E-40D58C931DEF}"/>
   </bookViews>
   <sheets>
     <sheet name="pysheet_" sheetId="2" r:id="rId1"/>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033554DD-3897-4359-B7DF-3FC088E3C719}">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4964,8 +4964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC6263B-129C-4012-8C81-A56CA3901853}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Beamline_elements.xlsx
+++ b/Beamline_elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NielsB\cernbox\Hawaii University\Beam dynamics\FELsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671CB04F-7346-4577-A427-C5BBE5067470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F7FB9E-4F8A-4842-9B38-4310E7113E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="34776" windowHeight="21096" xr2:uid="{4C82D9F0-9D94-4EC2-AD9E-40D58C931DEF}"/>
   </bookViews>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033554DD-3897-4359-B7DF-3FC088E3C719}">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4781,7 +4781,7 @@
         <v>254</v>
       </c>
       <c r="N88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -4964,8 +4964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC6263B-129C-4012-8C81-A56CA3901853}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8096,7 +8096,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Beamline_elements.xlsx
+++ b/Beamline_elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NielsB\cernbox\Hawaii University\Beam dynamics\FELsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F7FB9E-4F8A-4842-9B38-4310E7113E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A843A748-485F-48B0-8CC7-1207E1295E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="34776" windowHeight="21096" xr2:uid="{4C82D9F0-9D94-4EC2-AD9E-40D58C931DEF}"/>
+    <workbookView xWindow="8016" yWindow="5616" windowWidth="25920" windowHeight="15360" xr2:uid="{4C82D9F0-9D94-4EC2-AD9E-40D58C931DEF}"/>
   </bookViews>
   <sheets>
     <sheet name="pysheet_" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="346">
   <si>
     <t>Channel #</t>
   </si>
@@ -1068,6 +1068,15 @@
   </si>
   <si>
     <t>k_g_integ (T/A/m)</t>
+  </si>
+  <si>
+    <t>Fringe Field Enge coefficients</t>
+  </si>
+  <si>
+    <t>Pole gap (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56.49, -50.79, 19.32, -3.621,  0.3315,  -0.01193</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1385,6 +1394,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1812,3147 +1842,4466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033554DD-3897-4359-B7DF-3FC088E3C719}">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:P124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146:F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="49" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="49" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="49"/>
+    <col min="6" max="6" width="15.77734375" style="49" customWidth="1"/>
+    <col min="7" max="7" width="15" style="49" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="49" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="49" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="43.88671875" style="49" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="49" customWidth="1"/>
+    <col min="14" max="16" width="8.88671875" style="49"/>
     <col min="17" max="17" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="49">
         <v>0</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="str">
-        <f>M3 &amp; "."  &amp; N3 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C3), C3, F3), "000")</f>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="str">
+        <f>O3 &amp; "."  &amp; P3 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C3), C3, F3), "000")</f>
         <v>LIN.QPF.004</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="50">
         <f>Sheet1!B3</f>
         <v>0.35877500000000001</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="50">
         <f>B3+Sheet1!$E$3/2</f>
         <v>0.403225</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="50">
         <f>B3+Sheet1!$E$3</f>
         <v>0.44767500000000005</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="49">
         <v>0.88571930929915599</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="J3" s="7" t="s">
+      <c r="F3" s="50"/>
+      <c r="J3" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="12">
+      <c r="M3" s="51">
         <v>20</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="48"/>
+      <c r="B4" s="50">
         <v>0.44767500000000005</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="50">
         <v>0.44767500000000005</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="50">
         <v>0.44767500000000005</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="J4" s="7" t="s">
+      <c r="F4" s="50"/>
+      <c r="L4" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="51"/>
+      <c r="O4" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" s="49" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="str">
-        <f>M5 &amp; "."  &amp; N5 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C5), C5, F5), "000")</f>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="str">
+        <f>O5 &amp; "."  &amp; P5 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C5), C5, F5), "000")</f>
         <v>LIN.QPD.007</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="50">
         <f>D3+Sheet1!B4</f>
         <v>0.64452500000000001</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="50">
         <f>B5+Sheet1!$E$3/2</f>
         <v>0.688975</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="50">
         <f>B5+Sheet1!$E$3</f>
         <v>0.73342499999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="49">
         <v>1.0528901226284999</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="J5" s="7" t="s">
+      <c r="F5" s="50"/>
+      <c r="J5" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="12">
+      <c r="M5" s="51">
         <v>21</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="O5" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="str">
-        <f>M6 &amp; "."  &amp; N6 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C6), C6, F6), "000")</f>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="str">
+        <f>O6 &amp; "."  &amp; P6 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C6), C6, F6), "000")</f>
         <v>LIN.STV.007</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="50">
         <v>0.73342499999999999</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="50">
         <v>0.73342499999999999</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="50">
         <v>0.73342499999999999</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="J6" s="7" t="s">
+      <c r="F6" s="50"/>
+      <c r="L6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="12">
+      <c r="M6" s="51">
         <v>22</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="O6" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" s="49" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="str">
-        <f>M7 &amp; "."  &amp; N7 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C7), C7, F7), "000")</f>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="str">
+        <f>O7 &amp; "."  &amp; P7 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C7), C7, F7), "000")</f>
         <v>LIN.SPC.007</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="50">
         <v>0.73342499999999999</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="50">
         <v>0.73342499999999999</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="50">
         <v>0.73342499999999999</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="J7" s="7" t="s">
+      <c r="F7" s="50"/>
+      <c r="L7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="12">
+      <c r="M7" s="51">
         <v>23</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="O7" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" s="49" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="50">
         <v>0.73342499999999999</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="50">
         <v>0.73342499999999999</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="50">
         <v>0.73342499999999999</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="str">
-        <f>M9 &amp; "."  &amp; N9 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C9), C9, F9), "000")</f>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="str">
+        <f>O9 &amp; "."  &amp; P9 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C9), C9, F9), "000")</f>
         <v>LIN.STV.007</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="50">
         <v>0.73342499999999999</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="50">
         <v>0.73342499999999999</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="50">
         <v>0.73342499999999999</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="J9" s="7" t="s">
+      <c r="F9" s="50"/>
+      <c r="L9" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="12">
+      <c r="M9" s="51">
         <v>24</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="O9" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" s="49" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="str">
-        <f>M10 &amp; "."  &amp; N10 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C10), C10, F10), "000")</f>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="str">
+        <f>O10 &amp; "."  &amp; P10 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C10), C10, F10), "000")</f>
         <v>DC1.OTR.016</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="50">
         <f>D5+Sheet1!B5</f>
         <v>1.6328640000000001</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="50">
         <f>B10</f>
         <v>1.6328640000000001</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="50">
         <f>C10</f>
         <v>1.6328640000000001</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="J10" s="7" t="s">
+      <c r="F10" s="50"/>
+      <c r="L10" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" t="s">
+      <c r="M10" s="51"/>
+      <c r="N10" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="O10" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" s="49" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="str">
-        <f t="shared" ref="A11:A13" si="0">M11 &amp; "."  &amp; N11 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C11), C11, F11), "000")</f>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="str">
+        <f>O11 &amp; "."  &amp; P11 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C11), C11, F11), "000")</f>
         <v>DC1.DPW.017</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="50">
         <f>B12-I11</f>
         <v>1.697921</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="50">
         <f>B12-I11/2</f>
         <v>1.7029210000000001</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="50">
         <f>B12</f>
         <v>1.707921</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="49">
         <v>1.5</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="49">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="49">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="49">
         <v>0.01</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="J11" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O11" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="str">
-        <f t="shared" si="0"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="str">
+        <f>O12 &amp; "."  &amp; P12 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C12), C12, F12), "000")</f>
         <v>DC1.DPH.018</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="50">
         <f>B10+Sheet1!B6</f>
         <v>1.707921</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="50">
         <f>B12+Sheet1!F12/2</f>
         <v>1.7523710000000001</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="50">
         <f>B12+Sheet1!F12</f>
         <v>1.796821</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="49">
         <v>1.5</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="49">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="L12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="12">
+      <c r="M12" s="51">
         <v>26</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="O12" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="str">
-        <f t="shared" si="0"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="str">
+        <f>O13 &amp; "."  &amp; P13 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C13), C13, F13), "000")</f>
         <v>DC1.DPW.018</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="50">
         <f>D12</f>
         <v>1.796821</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="50">
         <f>D12+I13/2</f>
         <v>1.8018209999999999</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="50">
         <f>D12+I13</f>
         <v>1.806821</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="49">
         <v>1.5</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="49">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="49">
         <v>1.5</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="49">
         <v>0.01</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="J13" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O13" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
-        <f>M14 &amp; "."  &amp; N14 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C14), C14, F14), "000")</f>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="str">
+        <f>O14 &amp; "."  &amp; P14 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C14), C14, F14), "000")</f>
         <v>DC1.QPF.021</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="50">
         <f>D12+Sheet1!B7</f>
         <v>2.0330409999999999</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="50">
         <f>B14+Sheet1!$E$3/2</f>
         <v>2.0774909999999998</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="50">
         <f>B14++Sheet1!$E$3</f>
         <v>2.1219410000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="49">
         <v>3.8166035634743878</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="J14" s="7" t="s">
+      <c r="F14" s="50"/>
+      <c r="J14" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L14" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="12">
+      <c r="M14" s="51">
         <v>28</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="O14" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
-        <f t="shared" ref="A15:A17" si="1">M15 &amp; "."  &amp; N15 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C15), C15, F15), "000")</f>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="str">
+        <f>O15 &amp; "."  &amp; P15 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C15), C15, F15), "000")</f>
         <v>DC1.DPW.024</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="50">
         <f>B16-I15</f>
         <v>2.3481610000000002</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="50">
         <f>C16-I15/2</f>
         <v>2.3976109999999999</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="50">
         <f>B16</f>
         <v>2.358161</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="49">
         <v>1.5</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="49">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="49">
         <v>0.75</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="49">
         <v>0.01</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="J15" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O15" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="str">
-        <f t="shared" si="1"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="str">
+        <f>O16 &amp; "."  &amp; P16 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C16), C16, F16), "000")</f>
         <v>DC1.DPH.024</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="50">
         <f>D14+Sheet1!B8</f>
         <v>2.358161</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="50">
         <f>B16+Sheet1!F13/2</f>
         <v>2.4026109999999998</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="50">
         <f>B16+Sheet1!F13</f>
         <v>2.4470610000000002</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="49">
         <v>1.5</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="49">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="L16" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="12">
+      <c r="M16" s="51">
         <v>26</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="O16" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="str">
-        <f t="shared" si="1"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="str">
+        <f>O17 &amp; "."  &amp; P17 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C17), C17, F17), "000")</f>
         <v>DC1.DPW.025</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="50">
         <f>D16</f>
         <v>2.4470610000000002</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="50">
         <f>D16+I17/2</f>
         <v>2.452061</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="50">
         <f>D16+I17</f>
         <v>2.4570609999999999</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="49">
         <v>1.5</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="49">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="49">
         <v>0.75</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="49">
         <v>0.01</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="J17" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O17" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
+      <c r="B18" s="50">
         <v>2.4570609999999999</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="50">
         <v>2.4570609999999999</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="50">
         <f>D17+I18</f>
         <v>2.4570609999999999</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="J18" s="7" t="s">
+      <c r="F18" s="50"/>
+      <c r="L18" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" t="s">
+      <c r="M18" s="51"/>
+      <c r="N18" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="O18" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" s="49" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="str">
-        <f>M19 &amp; "."  &amp; N19 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C19), C19, F19), "000")</f>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="str">
+        <f>O19 &amp; "."  &amp; P19 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C19), C19, F19), "000")</f>
         <v>DC2.QPD.028</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="50">
         <f>D16+Sheet1!B9</f>
         <v>2.7353510000000001</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="50">
         <f>B19+Sheet1!$E$3/2</f>
         <v>2.779801</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="50">
         <f>B19++Sheet1!$E$3</f>
         <v>2.8242510000000003</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="49">
         <v>2.5798069784706756</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="J19" s="7" t="s">
+      <c r="F19" s="50"/>
+      <c r="J19" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L19" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="12">
+      <c r="M19" s="51">
         <v>29</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="O19" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="str">
-        <f>M20 &amp; "."  &amp; N20 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C20), C20, F20), "000")</f>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="str">
+        <f>O20 &amp; "."  &amp; P20 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C20), C20, F20), "000")</f>
         <v>DC2.QPF.029</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="50">
         <f>D19+Sheet1!B10</f>
         <v>2.8674310000000003</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="50">
         <f>B20+Sheet1!$E$3/2</f>
         <v>2.9118810000000002</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="50">
         <f>B20++Sheet1!$E$3</f>
         <v>2.9563310000000005</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="49">
         <v>4.5657015590200452</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="J20" s="7" t="s">
+      <c r="F20" s="50"/>
+      <c r="J20" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L20" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="12">
+      <c r="M20" s="51">
         <v>30</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="O20" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="str">
-        <f>M21 &amp; "."  &amp; N21 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C21), C21, F21), "000")</f>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="str">
+        <f>O21 &amp; "."  &amp; P21 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C21), C21, F21), "000")</f>
         <v>DC2.QPD.030</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="50">
         <f>D20+Sheet1!B11</f>
         <v>2.9995110000000005</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="50">
         <f>B21+Sheet1!$E$3/2</f>
         <v>3.0439610000000004</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="50">
         <f>B21++Sheet1!$E$3</f>
         <v>3.0884110000000007</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="49">
         <v>2.5798069784706756</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="J21" s="7" t="s">
+      <c r="F21" s="50"/>
+      <c r="J21" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L21" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K21" s="12">
+      <c r="M21" s="51">
         <v>31</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="O21" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="str">
-        <f>M22 &amp; "."  &amp; N22 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C22), C22, F22), "000")</f>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="48" t="str">
+        <f>O22 &amp; "."  &amp; P22 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C22), C22, F22), "000")</f>
         <v>DC2.OTR.032</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="50">
         <f>D21+Sheet1!B12</f>
         <v>3.2187890000000006</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="50">
         <f>B22</f>
         <v>3.2187890000000006</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="50">
         <f>B22</f>
         <v>3.2187890000000006</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="J22" s="7" t="s">
+      <c r="F22" s="50"/>
+      <c r="L22" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" t="s">
+      <c r="M22" s="51"/>
+      <c r="N22" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="O22" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" s="49" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="str">
-        <f t="shared" ref="A23:A29" si="2">M23 &amp; "."  &amp; N23 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C23), C23, F23), "000")</f>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="str">
+        <f>O23 &amp; "."  &amp; P23 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C23), C23, F23), "000")</f>
         <v>DC2.DPW.033</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="50">
         <f>B24-I23</f>
         <v>3.287910000000001</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="50">
         <f>B24-I23/2</f>
         <v>3.2929100000000009</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="50">
         <f>B24</f>
         <v>3.2979100000000008</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="50">
         <v>-4</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="49">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="49">
         <v>0.01</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="J23" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O23" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="str">
+        <f>O24 &amp; "."  &amp; P24 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C24), C24, F24), "000")</f>
         <v>DC2.DPH.033</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="50">
         <f>D22+Sheet1!B13</f>
         <v>3.2979100000000008</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="50">
         <f>B24+Sheet1!F14/2</f>
         <v>3.3182300000000007</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="50">
         <f>B24+Sheet1!F14</f>
         <v>3.3385500000000006</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="50">
         <v>-4</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="L24" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="12">
+      <c r="M24" s="51">
         <v>32</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="O24" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="48" t="str">
+        <f>O25 &amp; "."  &amp; P25 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C25), C25, F25), "000")</f>
         <v>DC2.DPW.033</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="50">
         <f>D24</f>
         <v>3.3385500000000006</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="50">
         <f>D24+I25/2</f>
         <v>3.3435500000000005</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="50">
         <f>D24+I25</f>
         <v>3.3485500000000004</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="50">
         <v>-4</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="49">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="49">
         <v>0.01</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="J25" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O25" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="48" t="str">
+        <f>O26 &amp; "."  &amp; P26 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C26), C26, F26), "000")</f>
         <v>DC2.QPF.036</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="50">
         <f>D24+Sheet1!B14</f>
         <v>3.5544800000000008</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="50">
         <f>B26+Sheet1!$E$3/2</f>
         <v>3.5989300000000006</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="50">
         <f>B26+Sheet1!$E$3</f>
         <v>3.643380000000001</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="49">
         <v>4.4914625092798817</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="J26" s="7" t="s">
+      <c r="F26" s="50"/>
+      <c r="J26" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L26" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="12">
+      <c r="M26" s="51">
         <v>34</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N26" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="O26" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="str">
+        <f>O27 &amp; "."  &amp; P27 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C27), C27, F27), "000")</f>
         <v>DC2.DPW.039</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="50">
         <f>B28-I27</f>
         <v>3.8493100000000013</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="50">
         <f>B28-I27/2</f>
         <v>3.8543100000000012</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="50">
         <f>B28</f>
         <v>3.8593100000000011</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="50">
         <v>-4</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="49">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="49">
         <v>0.01</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="J27" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O27" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="48" t="str">
+        <f>O28 &amp; "."  &amp; P28 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C28), C28, F28), "000")</f>
         <v>DC2.DPH.039</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="50">
         <f>D26+Sheet1!B15</f>
         <v>3.8593100000000011</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="50">
         <f>B28+Sheet1!F15/2</f>
         <v>3.879630000000001</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="50">
         <f>B28+Sheet1!F15</f>
         <v>3.8999500000000009</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="50">
         <v>-4</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="L28" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="12">
+      <c r="M28" s="51">
         <v>32</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="O28" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N28" t="s">
+      <c r="P28" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="str">
-        <f t="shared" si="2"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="str">
+        <f>O29 &amp; "."  &amp; P29 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C29), C29, F29), "000")</f>
         <v>DC2.DPW.039</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="50">
         <f>D28</f>
         <v>3.8999500000000009</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="50">
         <f>D28+I29/2</f>
         <v>3.9049500000000008</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="50">
         <f>D28+I29</f>
         <v>3.9099500000000007</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="50">
         <v>-4</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="49">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="49">
         <v>0.01</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="J29" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O29" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="str">
-        <f>M30 &amp; "."  &amp; N30 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C30), C30, F30), "000")</f>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="48" t="str">
+        <f>O30 &amp; "."  &amp; P30 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C30), C30, F30), "000")</f>
         <v>DC2.STV.039</v>
       </c>
-      <c r="B30" s="16">
-        <f t="shared" ref="B30:C31" si="3">$D$29</f>
+      <c r="B30" s="50">
+        <f t="shared" ref="B30:C31" si="0">$D$29</f>
         <v>3.9099500000000007</v>
       </c>
-      <c r="C30" s="16">
-        <f t="shared" si="3"/>
+      <c r="C30" s="50">
+        <f t="shared" si="0"/>
         <v>3.9099500000000007</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="50">
         <f>$D$29</f>
         <v>3.9099500000000007</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="J30" s="7" t="s">
+      <c r="F30" s="50"/>
+      <c r="L30" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K30" s="12">
+      <c r="M30" s="51">
         <v>35</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N30" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="O30" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" s="49" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="str">
-        <f>M31 &amp; "."  &amp; N31 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C31), C31, F31), "000")</f>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="48" t="str">
+        <f>O31 &amp; "."  &amp; P31 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C31), C31, F31), "000")</f>
         <v>DC2.STH.039</v>
       </c>
-      <c r="B31" s="16">
-        <f t="shared" si="3"/>
+      <c r="B31" s="50">
+        <f t="shared" si="0"/>
         <v>3.9099500000000007</v>
       </c>
-      <c r="C31" s="16">
-        <f t="shared" si="3"/>
+      <c r="C31" s="50">
+        <f t="shared" si="0"/>
         <v>3.9099500000000007</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="50">
         <f>$D$29</f>
         <v>3.9099500000000007</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="J31" s="7" t="s">
+      <c r="F31" s="50"/>
+      <c r="L31" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K31" s="12">
+      <c r="M31" s="51">
         <v>36</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="O31" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" s="49" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="str">
-        <f>M32 &amp; "."  &amp; N32 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C32), C32, F32), "000")</f>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="48" t="str">
+        <f>O32 &amp; "."  &amp; P32 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C32), C32, F32), "000")</f>
         <v>DC2.QPD.042</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="50">
         <f>D28+Sheet1!B16</f>
         <v>4.1518670000000011</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="50">
         <f>B32+Sheet1!$E$3/2</f>
         <v>4.1963170000000014</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="50">
         <f>B32++Sheet1!$E$3</f>
         <v>4.2407670000000008</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="49">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="J32" s="7" t="s">
+      <c r="F32" s="50"/>
+      <c r="J32" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L32" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="12">
+      <c r="M32" s="51">
         <v>37</v>
       </c>
-      <c r="L32" t="s">
+      <c r="N32" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="O32" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="str">
-        <f>M33 &amp; "."  &amp; N33 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C33), C33, F33), "000")</f>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="48" t="str">
+        <f>O33 &amp; "."  &amp; P33 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C33), C33, F33), "000")</f>
         <v>DC2.QPF.043</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="50">
         <f>D32+Sheet1!B17</f>
         <v>4.2915670000000006</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="50">
         <f>B33+Sheet1!$E$3/2</f>
         <v>4.3360170000000009</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="50">
         <f>B33++Sheet1!$E$3</f>
         <v>4.3804670000000003</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="49">
         <v>3.0809205642167781</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="J33" s="7" t="s">
+      <c r="F33" s="50"/>
+      <c r="J33" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L33" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K33" s="12">
+      <c r="M33" s="51">
         <v>38</v>
       </c>
-      <c r="L33" t="s">
+      <c r="N33" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="O33" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="str">
-        <f>M34 &amp; "."  &amp; N34 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C34), C34, F34), "000")</f>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="48" t="str">
+        <f>O34 &amp; "."  &amp; P34 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C34), C34, F34), "000")</f>
         <v>DC2.QPD.045</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="50">
         <f>D33+Sheet1!B18</f>
         <v>4.4312670000000001</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="50">
         <f>B34+Sheet1!$E$3/2</f>
         <v>4.4757170000000004</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="50">
         <f>B34++Sheet1!$E$3</f>
         <v>4.5201669999999998</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="49">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="J34" s="7" t="s">
+      <c r="F34" s="50"/>
+      <c r="J34" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L34" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K34" s="12">
+      <c r="M34" s="51">
         <v>39</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N34" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="O34" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="48"/>
+      <c r="B35" s="50">
         <f>$D$34</f>
         <v>4.5201669999999998</v>
       </c>
-      <c r="C35" s="16">
-        <f t="shared" ref="C35:D35" si="4">$D$34</f>
+      <c r="C35" s="50">
+        <f t="shared" ref="C35:D35" si="1">$D$34</f>
         <v>4.5201669999999998</v>
       </c>
-      <c r="D35" s="16">
-        <f t="shared" si="4"/>
+      <c r="D35" s="50">
+        <f t="shared" si="1"/>
         <v>4.5201669999999998</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="J35" s="7" t="s">
+      <c r="F35" s="50"/>
+      <c r="L35" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" t="s">
+      <c r="M35" s="51"/>
+      <c r="N35" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="O35" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" s="49" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="str">
-        <f>M36 &amp; "."  &amp; N36 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C36), C36, F36), "000")</f>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="str">
+        <f>O36 &amp; "."  &amp; P36 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C36), C36, F36), "000")</f>
         <v>DC3.QPD.050</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="50">
         <f>D34+Sheet1!B19</f>
         <v>4.9351269999999996</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="50">
         <f>B36+Sheet1!$E$3/2</f>
         <v>4.9795769999999999</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="50">
         <f>B36++Sheet1!$E$3</f>
         <v>5.0240269999999994</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="49">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="J36" s="7" t="s">
+      <c r="F36" s="50"/>
+      <c r="J36" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L36" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K36" s="12">
+      <c r="M36" s="51">
         <v>40</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="O36" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="str">
-        <f>M37 &amp; "."  &amp; N37 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C37), C37, F37), "000")</f>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="str">
+        <f>O37 &amp; "."  &amp; P37 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C37), C37, F37), "000")</f>
         <v>DC3.QPF.051</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="50">
         <f>D36+Sheet1!B20</f>
         <v>5.0748269999999991</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="50">
         <f>B37+Sheet1!$E$3/2</f>
         <v>5.1192769999999994</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="50">
         <f>B37++Sheet1!$E$3</f>
         <v>5.1637269999999988</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="49">
         <v>3.0809205642167781</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="J37" s="7" t="s">
+      <c r="F37" s="50"/>
+      <c r="J37" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L37" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K37" s="12">
+      <c r="M37" s="51">
         <v>41</v>
       </c>
-      <c r="L37" t="s">
+      <c r="N37" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="O37" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N37" t="s">
+      <c r="P37" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="str">
-        <f>M38 &amp; "."  &amp; N38 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C38), C38, F38), "000")</f>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="48" t="str">
+        <f>O38 &amp; "."  &amp; P38 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C38), C38, F38), "000")</f>
         <v>DC3.QPD.053</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="50">
         <f>D37+Sheet1!B21</f>
         <v>5.2145269999999986</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="50">
         <f>B38+Sheet1!$E$3/2</f>
         <v>5.2589769999999989</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="50">
         <f>B38++Sheet1!$E$3</f>
         <v>5.3034269999999983</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="49">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="J38" s="7" t="s">
+      <c r="F38" s="50"/>
+      <c r="J38" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L38" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K38" s="12">
+      <c r="M38" s="51">
         <v>42</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="O38" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="str">
-        <f>M39 &amp; "."  &amp; N39 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C39), C39, F39), "000")</f>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="48" t="str">
+        <f>O39 &amp; "."  &amp; P39 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C39), C39, F39), "000")</f>
         <v>DC3.OTR.055</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="50">
         <f>D38+Sheet1!B22</f>
         <v>5.498498999999998</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="50">
         <f>B39</f>
         <v>5.498498999999998</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="50">
         <f>B39</f>
         <v>5.498498999999998</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="J39" s="7" t="s">
+      <c r="F39" s="50"/>
+      <c r="L39" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="K39" s="12"/>
-      <c r="L39" t="s">
+      <c r="M39" s="51"/>
+      <c r="N39" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="O39" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" s="49" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="str">
-        <f t="shared" ref="A40:A42" si="5">M40 &amp; "."  &amp; N40 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C40), C40, F40), "000")</f>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="48" t="str">
+        <f>O40 &amp; "."  &amp; P40 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C40), C40, F40), "000")</f>
         <v>DC3.DPW.056</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="50">
         <f>B41-I40</f>
         <v>5.5644449999999983</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="50">
         <f>B41-I40/2</f>
         <v>5.5694449999999982</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="50">
         <f>B41</f>
         <v>5.5744449999999981</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="50">
         <v>5</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="49">
         <v>2.536</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="49">
         <v>0.01</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="J40" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O40" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N40" t="s">
+      <c r="P40" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="str">
-        <f t="shared" si="5"/>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="48" t="str">
+        <f>O41 &amp; "."  &amp; P41 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C41), C41, F41), "000")</f>
         <v>DC3.DPH.056</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="50">
         <f>D39+Sheet1!B23</f>
         <v>5.5744449999999981</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="50">
         <f>B41+Sheet1!F16/2</f>
         <v>5.594764999999998</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="50">
         <f>B41+Sheet1!F16</f>
         <v>5.6150849999999979</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="50">
         <v>5</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="L41" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="12">
+      <c r="M41" s="51">
         <v>45</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="O41" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N41" t="s">
+      <c r="P41" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="str">
-        <f t="shared" si="5"/>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="48" t="str">
+        <f>O42 &amp; "."  &amp; P42 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C42), C42, F42), "000")</f>
         <v>DC3.DPW.056</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="50">
         <f>D41</f>
         <v>5.6150849999999979</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="50">
         <f>D41+I42/2</f>
         <v>5.6200849999999978</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="50">
         <f>D41+I42</f>
         <v>5.6250849999999977</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="50">
         <v>5</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="49">
         <v>2.536</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="49">
         <v>0.01</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="J42" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O42" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N42" t="s">
+      <c r="P42" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="48"/>
+      <c r="B43" s="50">
         <f>$D$42</f>
         <v>5.6250849999999977</v>
       </c>
-      <c r="C43" s="16">
-        <f t="shared" ref="C43:D43" si="6">$D$42</f>
+      <c r="C43" s="50">
+        <f t="shared" ref="C43:D43" si="2">$D$42</f>
         <v>5.6250849999999977</v>
       </c>
-      <c r="D43" s="16">
-        <f t="shared" si="6"/>
+      <c r="D43" s="50">
+        <f t="shared" si="2"/>
         <v>5.6250849999999977</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="J43" s="7" t="s">
+      <c r="F43" s="50"/>
+      <c r="L43" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="M43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="str">
-        <f>M44 &amp; "."  &amp; N44 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C44), C44, F44), "000")</f>
+      <c r="M43" s="51"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="48" t="str">
+        <f>O44 &amp; "."  &amp; P44 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C44), C44, F44), "000")</f>
         <v>DC3.QPF.059</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="50">
         <f>D41+Sheet1!B24</f>
         <v>5.8309849999999983</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="50">
         <f>B44+Sheet1!$E$3/2</f>
         <v>5.8754349999999986</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="50">
         <f>B44+Sheet1!$E$3</f>
         <v>5.9198849999999981</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="49">
         <v>4.4907201187824803</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="J44" s="7" t="s">
+      <c r="F44" s="50"/>
+      <c r="J44" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L44" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="12">
+      <c r="M44" s="51">
         <v>47</v>
       </c>
-      <c r="L44" t="s">
+      <c r="N44" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="O44" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N44" t="s">
+      <c r="P44" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="48"/>
+      <c r="B45" s="50">
         <f>$D$44</f>
         <v>5.9198849999999981</v>
       </c>
-      <c r="C45" s="16">
-        <f t="shared" ref="C45:D45" si="7">$D$44</f>
+      <c r="C45" s="50">
+        <f t="shared" ref="C45:D45" si="3">$D$44</f>
         <v>5.9198849999999981</v>
       </c>
-      <c r="D45" s="16">
-        <f t="shared" si="7"/>
+      <c r="D45" s="50">
+        <f t="shared" si="3"/>
         <v>5.9198849999999981</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="J45" s="7" t="s">
+      <c r="F45" s="50"/>
+      <c r="L45" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="K45" s="12"/>
-      <c r="M45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="str">
-        <f t="shared" ref="A46:A48" si="8">M46 &amp; "."  &amp; N46 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C46), C46, F46), "000")</f>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="48" t="str">
+        <f>O46 &amp; "."  &amp; P46 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C46), C46, F46), "000")</f>
         <v>DC3.DPW.061</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="50">
         <f>B47-I46</f>
         <v>6.1257849999999987</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="50">
         <f>B47-I46/2</f>
         <v>6.1307849999999986</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="50">
         <f>B47</f>
         <v>6.1357849999999985</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="50">
         <v>5</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="49">
         <v>2.536</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="49">
         <v>0.01</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="J46" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O46" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N46" t="s">
+      <c r="P46" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="str">
-        <f t="shared" si="8"/>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="48" t="str">
+        <f>O47 &amp; "."  &amp; P47 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C47), C47, F47), "000")</f>
         <v>DC3.DPH.062</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="50">
         <f>D44+Sheet1!B25</f>
         <v>6.1357849999999985</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="50">
         <f>B47+Sheet1!F17/2</f>
         <v>6.1561049999999984</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="50">
         <f>B47+Sheet1!F17</f>
         <v>6.1764249999999983</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="50">
         <v>5</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="L47" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="12">
+      <c r="M47" s="51">
         <v>45</v>
       </c>
-      <c r="L47" t="s">
+      <c r="N47" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="M47" s="7" t="s">
+      <c r="O47" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N47" t="s">
+      <c r="P47" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="str">
-        <f t="shared" si="8"/>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="48" t="str">
+        <f>O48 &amp; "."  &amp; P48 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C48), C48, F48), "000")</f>
         <v>DC3.DPW.062</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="50">
         <f>D47</f>
         <v>6.1764249999999983</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="50">
         <f>D47+I48/2</f>
         <v>6.1814249999999982</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="50">
         <f>D47+I48</f>
         <v>6.1864249999999981</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="50">
         <v>5</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="49">
         <v>2.536</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="49">
         <v>0.01</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="J48" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O48" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N48" t="s">
+      <c r="P48" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="str">
-        <f>M49 &amp; "."  &amp; N49 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C49), C49, F49), "000")</f>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="48" t="str">
+        <f>O49 &amp; "."  &amp; P49 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C49), C49, F49), "000")</f>
         <v>DC3.STV.062</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="50">
         <f>$D$48</f>
         <v>6.1864249999999981</v>
       </c>
-      <c r="C49" s="16">
-        <f t="shared" ref="C49:D50" si="9">$D$48</f>
+      <c r="C49" s="50">
+        <f t="shared" ref="C49:D50" si="4">$D$48</f>
         <v>6.1864249999999981</v>
       </c>
-      <c r="D49" s="16">
-        <f t="shared" si="9"/>
+      <c r="D49" s="50">
+        <f t="shared" si="4"/>
         <v>6.1864249999999981</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="J49" s="7" t="s">
+      <c r="F49" s="50"/>
+      <c r="L49" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K49" s="12">
+      <c r="M49" s="51">
         <v>43</v>
       </c>
-      <c r="L49" t="s">
+      <c r="N49" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="M49" s="7" t="s">
+      <c r="O49" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N49" t="s">
+      <c r="P49" s="49" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="str">
-        <f>M50 &amp; "."  &amp; N50 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C50), C50, F50), "000")</f>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="48" t="str">
+        <f>O50 &amp; "."  &amp; P50 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C50), C50, F50), "000")</f>
         <v>DC3.STH.062</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="50">
         <f>$D$48</f>
         <v>6.1864249999999981</v>
       </c>
-      <c r="C50" s="16">
-        <f t="shared" si="9"/>
+      <c r="C50" s="50">
+        <f t="shared" si="4"/>
         <v>6.1864249999999981</v>
       </c>
-      <c r="D50" s="16">
-        <f t="shared" si="9"/>
+      <c r="D50" s="50">
+        <f t="shared" si="4"/>
         <v>6.1864249999999981</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="J50" s="7" t="s">
+      <c r="F50" s="50"/>
+      <c r="J50" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L50" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K50" s="12">
+      <c r="M50" s="51">
         <v>44</v>
       </c>
-      <c r="L50" t="s">
+      <c r="N50" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="M50" s="7" t="s">
+      <c r="O50" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N50" t="s">
+      <c r="P50" s="49" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="str">
-        <f>M51 &amp; "."  &amp; N51 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C51), C51, F51), "000")</f>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="48" t="str">
+        <f>O51 &amp; "."  &amp; P51 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C51), C51, F51), "000")</f>
         <v>DC3.QPD.064</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="50">
         <f>D47+Sheet1!B26</f>
         <v>6.3694649999999982</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="50">
         <f>B51+Sheet1!$E$3/2</f>
         <v>6.4139149999999985</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="50">
         <f>B51+Sheet1!$E$3</f>
         <v>6.4583649999999979</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="49">
         <v>2.2557535263548631</v>
       </c>
-      <c r="F51" s="20"/>
-      <c r="J51" s="7" t="s">
+      <c r="F51" s="50"/>
+      <c r="J51" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L51" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K51" s="12">
+      <c r="M51" s="51">
         <v>48</v>
       </c>
-      <c r="L51" t="s">
+      <c r="N51" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="M51" s="7" t="s">
+      <c r="O51" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N51" t="s">
+      <c r="P51" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="str">
-        <f>M52 &amp; "."  &amp; N52 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C52), C52, F52), "000")</f>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="48" t="str">
+        <f>O52 &amp; "."  &amp; P52 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C52), C52, F52), "000")</f>
         <v>DC3.QPF.066</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="50">
         <f>D51+Sheet1!B27</f>
         <v>6.5577549999999976</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="50">
         <f>B52+Sheet1!$E$3/2</f>
         <v>6.6022049999999979</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="50">
         <f>B52+Sheet1!$E$3</f>
         <v>6.6466549999999973</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="49">
         <v>1.6718634001484785</v>
       </c>
-      <c r="F52" s="20"/>
-      <c r="J52" s="7" t="s">
+      <c r="F52" s="50"/>
+      <c r="L52" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K52" s="12">
+      <c r="M52" s="51">
         <v>49</v>
       </c>
-      <c r="L52" t="s">
+      <c r="N52" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="O52" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="N52" t="s">
+      <c r="P52" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="48"/>
+      <c r="B53" s="50">
         <f ca="1">$B$55</f>
         <v>7.110128999999997</v>
       </c>
-      <c r="C53" s="16">
-        <f t="shared" ref="C53:D59" ca="1" si="10">$B$55</f>
+      <c r="C53" s="50">
+        <f t="shared" ref="C53:D59" ca="1" si="5">$B$55</f>
         <v>7.110128999999997</v>
       </c>
-      <c r="D53" s="16">
-        <f t="shared" ca="1" si="10"/>
+      <c r="D53" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="J53" s="7" t="s">
+      <c r="F53" s="50"/>
+      <c r="L53" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="K53" s="12"/>
-      <c r="L53" t="s">
+      <c r="M53" s="51"/>
+      <c r="N53" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="O53" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="N53" t="s">
+      <c r="P53" s="49" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="48"/>
+      <c r="B54" s="50">
         <f ca="1">$B$55</f>
         <v>7.110128999999997</v>
       </c>
-      <c r="C54" s="16">
-        <f t="shared" ca="1" si="10"/>
+      <c r="C54" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="D54" s="16">
-        <f t="shared" ca="1" si="10"/>
+      <c r="D54" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="J54" s="7" t="s">
+      <c r="F54" s="50"/>
+      <c r="L54" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="K54" s="12"/>
-      <c r="L54" t="s">
+      <c r="M54" s="51"/>
+      <c r="N54" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="O54" s="49" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="str">
-        <f ca="1">M55 &amp; "."  &amp; N55 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C55), C55, F55), "000")</f>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="48" t="str">
+        <f ca="1">O55 &amp; "."  &amp; P55 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C55), C55, F55), "000")</f>
         <v>IPC.XRS.071</v>
       </c>
-      <c r="B55" s="16">
-        <f t="shared" ref="B55:B59" ca="1" si="11">$B$55</f>
+      <c r="B55" s="50">
+        <f t="shared" ref="B55:B59" ca="1" si="6">$B$55</f>
         <v>7.110128999999997</v>
       </c>
-      <c r="C55" s="16">
-        <f t="shared" ca="1" si="10"/>
+      <c r="C55" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="D55" s="16">
-        <f t="shared" ca="1" si="10"/>
+      <c r="D55" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="J55" s="7" t="s">
+      <c r="F55" s="50"/>
+      <c r="L55" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="K55" s="12"/>
-      <c r="L55" t="s">
+      <c r="M55" s="51"/>
+      <c r="N55" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="O55" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="N55" t="s">
+      <c r="P55" s="49" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="16">
-        <f t="shared" ca="1" si="11"/>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="48"/>
+      <c r="B56" s="50">
+        <f t="shared" ca="1" si="6"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="C56" s="16">
-        <f t="shared" ca="1" si="10"/>
+      <c r="C56" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="D56" s="16">
-        <f t="shared" ca="1" si="10"/>
+      <c r="D56" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F56" s="20"/>
-      <c r="J56" s="7" t="s">
+      <c r="F56" s="50"/>
+      <c r="L56" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="K56" s="12"/>
-      <c r="L56" t="s">
+      <c r="M56" s="51"/>
+      <c r="N56" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="O56" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="N56" t="s">
+      <c r="P56" s="49" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="16">
-        <f t="shared" ca="1" si="11"/>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="48"/>
+      <c r="B57" s="50">
+        <f t="shared" ca="1" si="6"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="C57" s="16">
-        <f t="shared" ca="1" si="10"/>
+      <c r="C57" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="D57" s="16">
-        <f t="shared" ca="1" si="10"/>
+      <c r="D57" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="J57" s="7" t="s">
+      <c r="F57" s="50"/>
+      <c r="L57" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="K57" s="12"/>
-      <c r="L57" t="s">
+      <c r="M57" s="51"/>
+      <c r="N57" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="M57" s="7" t="s">
+      <c r="O57" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="N57" t="s">
+      <c r="P57" s="49" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="16">
-        <f t="shared" ca="1" si="11"/>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="48"/>
+      <c r="B58" s="50">
+        <f t="shared" ca="1" si="6"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="C58" s="16">
-        <f t="shared" ca="1" si="10"/>
+      <c r="C58" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="D58" s="16">
-        <f t="shared" ca="1" si="10"/>
+      <c r="D58" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F58" s="20"/>
-      <c r="J58" s="7" t="s">
+      <c r="F58" s="50"/>
+      <c r="L58" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="K58" s="12"/>
-      <c r="L58" t="s">
+      <c r="M58" s="51"/>
+      <c r="N58" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="M58" s="7" t="s">
+      <c r="O58" s="49" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="str">
-        <f t="shared" ref="A59:A65" ca="1" si="12">M59 &amp; "."  &amp; N59 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C59), C59, F59), "000")</f>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="48" t="str">
+        <f ca="1">O59 &amp; "."  &amp; P59 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C59), C59, F59), "000")</f>
         <v>DC4.STV.000</v>
       </c>
-      <c r="B59" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="B59" s="50">
+        <f t="shared" ca="1" si="6"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="C59" s="16">
-        <f t="shared" ca="1" si="10"/>
+      <c r="C59" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="D59" s="16">
-        <f t="shared" ca="1" si="10"/>
+      <c r="D59" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F59" s="20"/>
-      <c r="J59" s="19" t="s">
+      <c r="F59" s="50"/>
+      <c r="L59" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K59" s="23">
+      <c r="M59" s="53">
         <v>51</v>
       </c>
-      <c r="L59" s="18" t="s">
+      <c r="N59" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="M59" s="7" t="s">
+      <c r="O59" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N59" t="s">
+      <c r="P59" s="49" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="48" t="str">
+        <f ca="1">O60 &amp; "."  &amp; P60 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C60), C60, F60), "000")</f>
         <v>DC4.QPF.074</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="50">
         <f ca="1">D55+Sheet1!B29</f>
         <v>7.3256199999999971</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="50">
         <f ca="1">B60+Sheet1!$E$3/2</f>
         <v>7.3700699999999975</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="50">
         <f ca="1">B60+Sheet1!$E$3</f>
         <v>7.4145199999999969</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="49">
         <v>2.4870081662954718E-2</v>
       </c>
-      <c r="F60" s="20"/>
-      <c r="J60" s="7" t="s">
+      <c r="F60" s="50"/>
+      <c r="J60" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L60" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K60" s="23">
+      <c r="M60" s="53">
         <v>50</v>
       </c>
-      <c r="L60" t="s">
+      <c r="N60" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="O60" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N60" t="s">
+      <c r="P60" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="48" t="str">
+        <f ca="1">O61 &amp; "."  &amp; P61 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C61), C61, F61), "000")</f>
         <v>DC4.QPD.075</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="50">
         <f ca="1">D60+Sheet1!B30</f>
         <v>7.4699199999999966</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="50">
         <f ca="1">B61+Sheet1!$E$3/2</f>
         <v>7.5143699999999969</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="50">
         <f ca="1">B61+Sheet1!$E$3</f>
         <v>7.5588199999999963</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="49">
         <v>1E-3</v>
       </c>
-      <c r="F61" s="20"/>
-      <c r="J61" s="19" t="s">
+      <c r="F61" s="50"/>
+      <c r="J61" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L61" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="K61" s="23">
+      <c r="M61" s="53">
         <v>59</v>
       </c>
-      <c r="L61" s="18" t="s">
+      <c r="N61" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="M61" s="7" t="s">
+      <c r="O61" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N61" t="s">
+      <c r="P61" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="48" t="str">
+        <f ca="1">O62 &amp; "."  &amp; P62 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C62), C62, F62), "000")</f>
         <v>DC4.OTR.078</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="50">
         <f ca="1">D61+Sheet1!B31</f>
         <v>7.773068999999996</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="50">
         <f ca="1">B62</f>
         <v>7.773068999999996</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="50">
         <f ca="1">B62</f>
         <v>7.773068999999996</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="J62" s="7" t="s">
+      <c r="F62" s="50"/>
+      <c r="L62" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="K62" s="12"/>
-      <c r="L62" t="s">
+      <c r="M62" s="51"/>
+      <c r="N62" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="M62" s="7" t="s">
+      <c r="O62" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N62" t="s">
+      <c r="P62" s="49" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="48" t="str">
+        <f ca="1">O63 &amp; "."  &amp; P63 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C63), C63, F63), "000")</f>
         <v>DC4.DPW.078</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="50">
         <f ca="1">B64-I63</f>
         <v>7.8409199999999961</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="50">
         <f ca="1">B64-I63/2</f>
         <v>7.845919999999996</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="50">
         <f ca="1">B64</f>
         <v>7.8509199999999959</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="50">
         <v>-4</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="49">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="49">
         <v>0.01</v>
       </c>
-      <c r="M63" s="7" t="s">
+      <c r="J63" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O63" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N63" t="s">
+      <c r="P63" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="48" t="str">
+        <f ca="1">O64 &amp; "."  &amp; P64 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C64), C64, F64), "000")</f>
         <v>DC4.DPH.079</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="50">
         <f ca="1">D62+Sheet1!B32</f>
         <v>7.8509199999999959</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="50">
         <f ca="1">B64+Sheet1!F18/2</f>
         <v>7.8712399999999958</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="50">
         <f ca="1">B64+Sheet1!F18</f>
         <v>7.8915599999999957</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="50">
         <v>-4</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="L64" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="12">
+      <c r="M64" s="51">
         <v>52</v>
       </c>
-      <c r="L64" t="s">
+      <c r="N64" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="M64" s="7" t="s">
+      <c r="O64" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N64" t="s">
+      <c r="P64" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="48" t="str">
+        <f ca="1">O65 &amp; "."  &amp; P65 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C65), C65, F65), "000")</f>
         <v>DC4.DPW.079</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="50">
         <f ca="1">D64</f>
         <v>7.8915599999999957</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="50">
         <f ca="1">D64+I65/2</f>
         <v>7.8965599999999956</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="50">
         <f ca="1">D64+I65</f>
         <v>7.9015599999999955</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="50">
         <v>-4</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="49">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="49">
         <v>0.01</v>
       </c>
-      <c r="M65" s="7" t="s">
+      <c r="J65" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O65" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N65" t="s">
+      <c r="P65" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="48"/>
+      <c r="B66" s="50">
         <f ca="1">B65+G66</f>
         <v>7.9015599999999955</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="50">
         <f ca="1">C65+H66</f>
         <v>7.9015599999999955</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66" s="50">
         <f ca="1">D65+I66</f>
         <v>7.9015599999999955</v>
       </c>
-      <c r="F66" s="20"/>
-      <c r="J66" s="7" t="s">
+      <c r="F66" s="50"/>
+      <c r="L66" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="K66" s="12"/>
-      <c r="M66" s="7"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="str">
-        <f ca="1">M67 &amp; "."  &amp; N67 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C67), C67, F67), "000")</f>
+      <c r="M66" s="51"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="48" t="str">
+        <f ca="1">O67 &amp; "."  &amp; P67 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C67), C67, F67), "000")</f>
         <v>DC4.QPF.082</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="50">
         <f ca="1">D64+Sheet1!B33</f>
         <v>8.107489999999995</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="50">
         <f ca="1">B67+Sheet1!$E$3/2</f>
         <v>8.1519399999999944</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="50">
         <f ca="1">B67+Sheet1!$E$3</f>
         <v>8.1963899999999956</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="49">
         <v>4.4914625092798817</v>
       </c>
-      <c r="F67" s="20"/>
-      <c r="J67" s="7" t="s">
+      <c r="F67" s="50"/>
+      <c r="J67" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L67" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K67" s="12">
+      <c r="M67" s="51">
         <v>53</v>
       </c>
-      <c r="L67" t="s">
+      <c r="N67" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="M67" s="7" t="s">
+      <c r="O67" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N67" t="s">
+      <c r="P67" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="48"/>
+      <c r="B68" s="50">
         <v>8.1963899999999956</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="50">
         <v>8.1963899999999956</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="50">
         <v>8.1963899999999956</v>
       </c>
-      <c r="F68" s="20"/>
-      <c r="J68" s="7" t="s">
+      <c r="F68" s="50"/>
+      <c r="L68" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="K68" s="12"/>
-      <c r="M68" s="7"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="str">
-        <f t="shared" ref="A69:A74" ca="1" si="13">M69 &amp; "."  &amp; N69 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C69), C69, F69), "000")</f>
+      <c r="M68" s="51"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="48" t="str">
+        <f ca="1">O69 &amp; "."  &amp; P69 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C69), C69, F69), "000")</f>
         <v>DC4.DPW.084</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="50">
         <f ca="1">B70-I69</f>
         <v>8.402319999999996</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="50">
         <f ca="1">B70-I69/2</f>
         <v>8.407319999999995</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="50">
         <f ca="1">B70</f>
         <v>8.4123199999999958</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="50">
         <v>-4</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="49">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="49">
         <v>0.01</v>
       </c>
-      <c r="M69" s="7" t="s">
+      <c r="J69" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O69" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N69" t="s">
+      <c r="P69" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="48" t="str">
+        <f ca="1">O70 &amp; "."  &amp; P70 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C70), C70, F70), "000")</f>
         <v>DC4.DPH.084</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="50">
         <f ca="1">D67+Sheet1!B34</f>
         <v>8.4123199999999958</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="50">
         <f ca="1">B70+Sheet1!F19/2</f>
         <v>8.4326399999999957</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="50">
         <f ca="1">B70+Sheet1!F19</f>
         <v>8.4529599999999956</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="50">
         <v>-4</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="L70" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="K70" s="12">
+      <c r="M70" s="51">
         <v>52</v>
       </c>
-      <c r="L70" t="s">
+      <c r="N70" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="M70" s="7" t="s">
+      <c r="O70" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N70" t="s">
+      <c r="P70" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="48" t="str">
+        <f ca="1">O71 &amp; "."  &amp; P71 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C71), C71, F71), "000")</f>
         <v>DC4.DPW.085</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="50">
         <f ca="1">D70</f>
         <v>8.4529599999999956</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="50">
         <f ca="1">D70+I71/2</f>
         <v>8.4579599999999964</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="50">
         <f ca="1">D70+I71</f>
         <v>8.4629599999999954</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F71" s="50">
         <v>-4</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="49">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="49">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="49">
         <v>0.01</v>
       </c>
-      <c r="M71" s="7" t="s">
+      <c r="J71" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O71" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N71" t="s">
+      <c r="P71" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="48" t="str">
+        <f ca="1">O72 &amp; "."  &amp; P72 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C72), C72, F72), "000")</f>
         <v>DC4.QPF.087</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="50">
         <f ca="1">D70+Sheet1!B35</f>
         <v>8.6076859999999957</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="50">
         <f ca="1">B72+Sheet1!$E$3/2</f>
         <v>8.6521359999999952</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="50">
         <f ca="1">B72+Sheet1!$E$3</f>
         <v>8.6965859999999964</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="49">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F72" s="20"/>
-      <c r="J72" s="7" t="s">
+      <c r="F72" s="50"/>
+      <c r="J72" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L72" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K72" s="12">
+      <c r="M72" s="51">
         <v>56</v>
       </c>
-      <c r="L72" t="s">
+      <c r="N72" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="M72" s="7" t="s">
+      <c r="O72" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N72" t="s">
+      <c r="P72" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="48" t="str">
+        <f ca="1">O73 &amp; "."  &amp; P73 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C73), C73, F73), "000")</f>
         <v>DC4.QPD.088</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="50">
         <f ca="1">D72+Sheet1!B36</f>
         <v>8.7327809999999957</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="50">
         <f ca="1">B73+Sheet1!$E$3/2</f>
         <v>8.7772309999999951</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="50">
         <f ca="1">B73+Sheet1!$E$3</f>
         <v>8.8216809999999963</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="49">
         <v>3.5</v>
       </c>
-      <c r="F73" s="20"/>
-      <c r="J73" s="7" t="s">
+      <c r="F73" s="50"/>
+      <c r="J73" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L73" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K73" s="12">
+      <c r="M73" s="51">
         <v>57</v>
       </c>
-      <c r="L73" t="s">
+      <c r="N73" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="M73" s="7" t="s">
+      <c r="O73" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N73" t="s">
+      <c r="P73" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="48" t="str">
+        <f ca="1">O74 &amp; "."  &amp; P74 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C74), C74, F74), "000")</f>
         <v>DC4.QPF.089</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="50">
         <f ca="1">D73+Sheet1!B37</f>
         <v>8.8578759999999956</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="50">
         <f ca="1">B74+Sheet1!$E$3/2</f>
         <v>8.9023259999999951</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="50">
         <f ca="1">B74+Sheet1!$E$3</f>
         <v>8.9467759999999963</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="49">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F74" s="20"/>
-      <c r="J74" s="7" t="s">
+      <c r="F74" s="50"/>
+      <c r="J74" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L74" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K74" s="12">
+      <c r="M74" s="51">
         <v>58</v>
       </c>
-      <c r="L74" t="s">
+      <c r="N74" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="M74" s="7" t="s">
+      <c r="O74" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N74" t="s">
+      <c r="P74" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="48"/>
+      <c r="B75" s="50">
         <v>8.9467759999999963</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="50">
         <v>8.9467759999999963</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="50">
         <v>8.9467759999999963</v>
       </c>
-      <c r="F75" s="20"/>
-      <c r="J75" s="19" t="s">
+      <c r="F75" s="50"/>
+      <c r="L75" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="K75" s="12"/>
-      <c r="M75" s="7" t="s">
+      <c r="M75" s="51"/>
+      <c r="O75" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N75" t="s">
+      <c r="P75" s="49" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="str">
-        <f>M76 &amp; "."  &amp; N76 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C76), C76, F76), "000")</f>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="48" t="str">
+        <f>O76 &amp; "."  &amp; P76 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C76), C76, F76), "000")</f>
         <v>DC4.STV.089</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="50">
         <v>8.9467759999999963</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C76" s="50">
         <v>8.9467759999999963</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="50">
         <v>8.9467759999999963</v>
       </c>
-      <c r="F76" s="20"/>
-      <c r="J76" s="7" t="s">
+      <c r="F76" s="50"/>
+      <c r="L76" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K76" s="12">
+      <c r="M76" s="51">
         <v>60</v>
       </c>
-      <c r="L76" t="s">
+      <c r="N76" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="M76" s="7" t="s">
+      <c r="O76" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N76" t="s">
+      <c r="P76" s="49" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="48"/>
+      <c r="B77" s="50">
         <v>8.9467759999999963</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C77" s="50">
         <v>8.9467759999999963</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="50">
         <v>8.9467759999999963</v>
       </c>
-      <c r="F77" s="20"/>
-      <c r="J77" s="7" t="s">
+      <c r="F77" s="50"/>
+      <c r="L77" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="K77" s="12"/>
-      <c r="L77" t="s">
+      <c r="M77" s="51"/>
+      <c r="N77" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="M77" s="7" t="s">
+      <c r="O77" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="N77" t="s">
+      <c r="P77" s="49" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="str">
-        <f ca="1">M78 &amp; "."  &amp; N78 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C78), C78, F78), "000")</f>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="48" t="str">
+        <f ca="1">O78 &amp; "."  &amp; P78 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C78), C78, F78), "000")</f>
         <v>DC5.OTR.092</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="50">
         <f ca="1">D74+Sheet1!B38</f>
         <v>9.2223659999999956</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="50">
         <f ca="1">B78</f>
         <v>9.2223659999999956</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D78" s="50">
         <f ca="1">B78</f>
         <v>9.2223659999999956</v>
       </c>
-      <c r="F78" s="20"/>
-      <c r="J78" s="7" t="s">
+      <c r="F78" s="50"/>
+      <c r="L78" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="K78" s="12"/>
-      <c r="L78" t="s">
+      <c r="M78" s="51"/>
+      <c r="N78" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="M78" s="7" t="s">
+      <c r="O78" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N78" t="s">
+      <c r="P78" s="49" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="str">
-        <f ca="1">M79 &amp; "."  &amp; N79 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C79), C79, F79), "000")</f>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="48" t="str">
+        <f ca="1">O79 &amp; "."  &amp; P79 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C79), C79, F79), "000")</f>
         <v>DC5.DPW.093</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="50">
         <f ca="1">B80-I79</f>
         <v>9.2937729999999963</v>
       </c>
-      <c r="C79" s="16">
+      <c r="C79" s="50">
         <f ca="1">B80-I79/2</f>
         <v>9.2987729999999953</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="50">
         <f ca="1">B80</f>
         <v>9.3037729999999961</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F79" s="50">
         <v>1.5</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="49">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="49">
         <v>0.75</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="49">
         <v>0.01</v>
       </c>
-      <c r="M79" s="7" t="s">
+      <c r="J79" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O79" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N79" t="s">
+      <c r="P79" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="str">
-        <f ca="1">M80 &amp; "."  &amp; N80 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C80), C80, F80), "000")</f>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="48" t="str">
+        <f ca="1">O80 &amp; "."  &amp; P80 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C80), C80, F80), "000")</f>
         <v>DC5.DPH.093</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="50">
         <f ca="1">D78+Sheet1!B39</f>
         <v>9.3037729999999961</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C80" s="50">
         <f ca="1">B80+Sheet1!F20/2</f>
         <v>9.3482229999999955</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D80" s="50">
         <f ca="1">B80+Sheet1!F20</f>
         <v>9.3926729999999967</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="50">
         <v>1.5</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="49">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="J80" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="L80" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="K80" s="12">
+      <c r="M80" s="51">
         <v>61</v>
       </c>
-      <c r="L80" t="s">
+      <c r="N80" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="M80" s="7" t="s">
+      <c r="O80" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N80" t="s">
+      <c r="P80" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="str">
-        <f ca="1">M81 &amp; "."  &amp; N81 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C81), C81, F81), "000")</f>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" s="48" t="str">
+        <f ca="1">O81 &amp; "."  &amp; P81 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C81), C81, F81), "000")</f>
         <v>DC5.DPW.094</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="50">
         <f ca="1">D80</f>
         <v>9.3926729999999967</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="50">
         <f ca="1">D80+I81/2</f>
         <v>9.3976729999999975</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D81" s="50">
         <f ca="1">D80+I81</f>
         <v>9.4026729999999965</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F81" s="50">
         <v>1.5</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="49">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="49">
         <v>0.75</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="49">
         <v>0.01</v>
       </c>
-      <c r="M81" t="s">
+      <c r="J81" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O81" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N81" t="s">
+      <c r="P81" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="8"/>
-      <c r="B82" s="16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="48"/>
+      <c r="B82" s="50">
         <f ca="1">B81+G82</f>
         <v>9.4026729999999965</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C82" s="50">
         <f ca="1">C81+H82</f>
         <v>9.4026729999999965</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="50">
         <f ca="1">D81+I82</f>
         <v>9.4026729999999965</v>
       </c>
-      <c r="F82" s="20"/>
-      <c r="J82" s="19" t="s">
+      <c r="F82" s="50"/>
+      <c r="L82" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="K82" s="12"/>
-      <c r="M82" s="7" t="s">
+      <c r="M82" s="51"/>
+      <c r="O82" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N82" t="s">
+      <c r="P82" s="49" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="str">
-        <f ca="1">M83 &amp; "."  &amp; N83 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C83), C83, F83), "000")</f>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="48" t="str">
+        <f ca="1">O83 &amp; "."  &amp; P83 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C83), C83, F83), "000")</f>
         <v>DC5.QPF.097</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="50">
         <f ca="1">D80+Sheet1!B40</f>
         <v>9.6288929999999961</v>
       </c>
-      <c r="C83" s="16">
+      <c r="C83" s="50">
         <f ca="1">B83+Sheet1!$E$3/2</f>
         <v>9.6733429999999956</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83" s="50">
         <f ca="1">B83+Sheet1!$E$3</f>
         <v>9.7177929999999968</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="49">
         <v>3.8166035634743878</v>
       </c>
-      <c r="F83" s="20"/>
-      <c r="J83" s="7" t="s">
+      <c r="F83" s="50"/>
+      <c r="J83" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L83" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="12"/>
-      <c r="L83" t="s">
+      <c r="M83" s="51"/>
+      <c r="N83" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="M83" s="7" t="s">
+      <c r="O83" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N83" t="s">
+      <c r="P83" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="8"/>
-      <c r="B84" s="16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="48"/>
+      <c r="B84" s="50">
         <v>9.7177929999999968</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="50">
         <v>9.7177929999999968</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D84" s="50">
         <v>9.7177929999999968</v>
       </c>
-      <c r="F84" s="20"/>
-      <c r="J84" s="19" t="s">
+      <c r="F84" s="50"/>
+      <c r="L84" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="K84" s="12"/>
-      <c r="M84" s="7" t="s">
+      <c r="M84" s="51"/>
+      <c r="O84" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N84" t="s">
+      <c r="P84" s="49" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="str">
-        <f ca="1">M85 &amp; "."  &amp; N85 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C85), C85, F85), "000")</f>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85" s="48" t="str">
+        <f ca="1">O85 &amp; "."  &amp; P85 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C85), C85, F85), "000")</f>
         <v>DC5.DPW.099</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="50">
         <f ca="1">B86-I85</f>
         <v>9.9440129999999964</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="50">
         <f ca="1">B86-I85/2</f>
         <v>9.9490129999999954</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="50">
         <f ca="1">B86</f>
         <v>9.9540129999999962</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F85" s="50">
         <v>1.5</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="49">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="49">
         <v>1.5</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="49">
         <v>0.01</v>
       </c>
-      <c r="M85" t="s">
+      <c r="J85" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O85" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N85" t="s">
+      <c r="P85" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="str">
-        <f ca="1">M86 &amp; "."  &amp; N86 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C86), C86, F86), "000")</f>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" s="48" t="str">
+        <f ca="1">O86 &amp; "."  &amp; P86 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C86), C86, F86), "000")</f>
         <v>DC5.DPH.100</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="50">
         <f ca="1">D83+Sheet1!B41</f>
         <v>9.9540129999999962</v>
       </c>
-      <c r="C86" s="16">
+      <c r="C86" s="50">
         <f ca="1">B86+Sheet1!F21/2</f>
         <v>9.9984629999999957</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D86" s="50">
         <f ca="1">B86+Sheet1!F21</f>
         <v>10.042912999999997</v>
       </c>
-      <c r="F86" s="20">
+      <c r="F86" s="50">
         <v>1.5</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="49">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="L86" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K86" s="12">
+      <c r="M86" s="51">
         <v>61</v>
       </c>
-      <c r="L86" t="s">
+      <c r="N86" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="M86" s="7" t="s">
+      <c r="O86" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N86" t="s">
+      <c r="P86" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="str">
-        <f ca="1">M87 &amp; "."  &amp; N87 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C87), C87, F87), "000")</f>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A87" s="48" t="str">
+        <f ca="1">O87 &amp; "."  &amp; P87 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C87), C87, F87), "000")</f>
         <v>DC5.DPW.100</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="50">
         <f ca="1">D86</f>
         <v>10.042912999999997</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C87" s="50">
         <f ca="1">D86+I87/2</f>
         <v>10.047912999999998</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D87" s="50">
         <f ca="1">D86+I87</f>
         <v>10.052912999999997</v>
       </c>
-      <c r="F87" s="20">
+      <c r="F87" s="50">
         <v>1.5</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="49">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="49">
         <v>0</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="49">
         <v>0.01</v>
       </c>
-      <c r="M87" t="s">
+      <c r="J87" s="49">
+        <f>0.014478</f>
+        <v>1.4478E-2</v>
+      </c>
+      <c r="O87" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N87" t="s">
+      <c r="P87" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="str">
-        <f ca="1">M88 &amp; "."  &amp; N88 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C88), C88, F88), "000")</f>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88" s="48" t="str">
+        <f ca="1">O88 &amp; "."  &amp; P88 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C88), C88, F88), "000")</f>
         <v>DC5.QPF.103</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="50">
         <f ca="1">D86+Sheet1!B42</f>
         <v>10.212076999999997</v>
       </c>
-      <c r="C88" s="16">
+      <c r="C88" s="50">
         <f ca="1">B88+Sheet1!$E$3/2</f>
         <v>10.256526999999997</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D88" s="50">
         <f ca="1">B88+Sheet1!$E$3</f>
         <v>10.300976999999998</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="49">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F88" s="20"/>
-      <c r="J88" s="7" t="s">
+      <c r="F88" s="50"/>
+      <c r="J88" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L88" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K88" s="12">
+      <c r="M88" s="51">
         <v>62</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="M88" s="7" t="s">
+      <c r="O88" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N88" t="s">
+      <c r="P88" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="str">
-        <f>M89 &amp; "."  &amp; N89 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C89), C89, F89), "000")</f>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89" s="48" t="str">
+        <f>O89 &amp; "."  &amp; P89 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C89), C89, F89), "000")</f>
         <v>DC5.STV.103</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="50">
         <v>10.300976999999998</v>
       </c>
-      <c r="C89" s="16">
+      <c r="C89" s="50">
         <v>10.300976999999998</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="50">
         <v>10.300976999999998</v>
       </c>
-      <c r="F89" s="20"/>
-      <c r="J89" s="7" t="s">
+      <c r="F89" s="50"/>
+      <c r="L89" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K89" s="12">
+      <c r="M89" s="51">
         <v>65</v>
       </c>
-      <c r="L89" t="s">
+      <c r="N89" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="M89" s="7" t="s">
+      <c r="O89" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N89" t="s">
+      <c r="P89" s="49" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="8"/>
-      <c r="B90" s="16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" s="48"/>
+      <c r="B90" s="50">
         <v>10.300976999999998</v>
       </c>
-      <c r="C90" s="16">
+      <c r="C90" s="50">
         <v>10.300976999999998</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D90" s="50">
         <v>10.300976999999998</v>
       </c>
-      <c r="F90" s="20"/>
-      <c r="J90" s="7" t="s">
+      <c r="F90" s="50"/>
+      <c r="L90" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="K90" s="12"/>
-      <c r="L90" t="s">
+      <c r="M90" s="51"/>
+      <c r="N90" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="M90" s="7" t="s">
+      <c r="O90" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N90" t="s">
+      <c r="P90" s="49" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="str">
-        <f ca="1">M91 &amp; "."  &amp; N91 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C91), C91, F91), "000")</f>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="48" t="str">
+        <f ca="1">O91 &amp; "."  &amp; P91 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C91), C91, F91), "000")</f>
         <v>DC5.QPD.107</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="50">
         <f ca="1">D88+Sheet1!B43</f>
         <v>10.609205999999999</v>
       </c>
-      <c r="C91" s="16">
+      <c r="C91" s="50">
         <f ca="1">B91+Sheet1!$E$3/2</f>
         <v>10.653655999999998</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="50">
         <f ca="1">B91+Sheet1!$E$3</f>
         <v>10.698105999999999</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="49">
         <v>3.0809205642167781</v>
       </c>
-      <c r="F91" s="20"/>
-      <c r="J91" s="7" t="s">
+      <c r="F91" s="50"/>
+      <c r="J91" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L91" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K91" s="12">
+      <c r="M91" s="51">
         <v>63</v>
       </c>
-      <c r="L91" t="s">
+      <c r="N91" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="M91" s="7" t="s">
+      <c r="O91" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N91" t="s">
+      <c r="P91" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="str">
-        <f ca="1">M92 &amp; "."  &amp; N92 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C92), C92, F92), "000")</f>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="48" t="str">
+        <f ca="1">O92 &amp; "."  &amp; P92 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C92), C92, F92), "000")</f>
         <v>DC5.QPF.108</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="50">
         <f ca="1">D91+Sheet1!B44</f>
         <v>10.736205999999999</v>
       </c>
-      <c r="C92" s="16">
+      <c r="C92" s="50">
         <f ca="1">B92+Sheet1!$E$3/2</f>
         <v>10.780655999999999</v>
       </c>
-      <c r="D92" s="16">
+      <c r="D92" s="50">
         <f ca="1">B92+Sheet1!$E$3</f>
         <v>10.825106</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="49">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F92" s="20"/>
-      <c r="J92" s="7" t="s">
+      <c r="F92" s="50"/>
+      <c r="J92" s="49">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L92" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K92" s="12">
+      <c r="M92" s="51">
         <v>64</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="M92" s="7" t="s">
+      <c r="O92" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="N92" t="s">
+      <c r="P92" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="8"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="F93" s="20"/>
-      <c r="J93" s="7"/>
-      <c r="M93" s="7"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="8"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="F94" s="20"/>
-      <c r="J94" s="7"/>
-      <c r="M94" s="7"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="8"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="F95" s="20"/>
-      <c r="J95" s="7"/>
-      <c r="M95" s="7"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="25"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="F96" s="22"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="4"/>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="48"/>
+      <c r="B93" s="50">
+        <v>11.005421</v>
+      </c>
+      <c r="C93" s="50">
+        <v>11.005421</v>
+      </c>
+      <c r="D93" s="50">
+        <v>11.005421</v>
+      </c>
+      <c r="F93" s="50"/>
+      <c r="L93" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="O93" s="49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="48" t="str">
+        <f>O94 &amp; "."  &amp; P94 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C94), C94, F94), "000")</f>
+        <v>FC1.DPW.111</v>
+      </c>
+      <c r="B94" s="50">
+        <f>B95-I94</f>
+        <v>11.099409</v>
+      </c>
+      <c r="C94" s="50">
+        <f>B95-I94/2</f>
+        <v>11.104408999999999</v>
+      </c>
+      <c r="D94" s="50">
+        <f>B95</f>
+        <v>11.109408999999999</v>
+      </c>
+      <c r="F94" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="G94" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H94" s="49">
+        <v>0</v>
+      </c>
+      <c r="I94" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J94" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="K94" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O94" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P94" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="48" t="str">
+        <f>O95 &amp; "."  &amp; P95 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C95), C95, F95), "000")</f>
+        <v>FC1.DPH.111</v>
+      </c>
+      <c r="B95" s="50">
+        <v>11.109408999999999</v>
+      </c>
+      <c r="C95" s="50">
+        <v>11.1281035</v>
+      </c>
+      <c r="D95" s="50">
+        <v>11.146797999999999</v>
+      </c>
+      <c r="F95" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="G95" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="J95" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="L95" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="O95" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P95" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="48" t="str">
+        <f>O96 &amp; "."  &amp; P96 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C96), C96, F96), "000")</f>
+        <v>FC1.DPW.112</v>
+      </c>
+      <c r="B96" s="50">
+        <f>D95</f>
+        <v>11.146797999999999</v>
+      </c>
+      <c r="C96" s="50">
+        <f>D95+I96/2</f>
+        <v>11.151797999999999</v>
+      </c>
+      <c r="D96" s="50">
+        <f>D95+I96</f>
+        <v>11.156797999999998</v>
+      </c>
+      <c r="F96" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="G96" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H96" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="I96" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J96" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="O96" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P96" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" s="48" t="str">
+        <f>O97 &amp; "."  &amp; P97 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C97), C97, F97), "000")</f>
+        <v>FC1.DPW.115</v>
+      </c>
+      <c r="B97" s="50">
+        <f>B98-I97</f>
+        <v>11.465961999999999</v>
+      </c>
+      <c r="C97" s="50">
+        <f>B98-I97/2</f>
+        <v>11.470961999999998</v>
+      </c>
+      <c r="D97" s="50">
+        <f>B98</f>
+        <v>11.475961999999999</v>
+      </c>
+      <c r="F97" s="49">
+        <f>-11.25</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G97" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H97" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="I97" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J97" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="K97" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O97" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P97" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" s="48" t="str">
+        <f>O98 &amp; "."  &amp; P98 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C98), C98, F98), "000")</f>
+        <v>FC1.DPH.115</v>
+      </c>
+      <c r="B98" s="50">
+        <v>11.475961999999999</v>
+      </c>
+      <c r="C98" s="50">
+        <v>11.4946565</v>
+      </c>
+      <c r="D98" s="50">
+        <v>11.513350999999998</v>
+      </c>
+      <c r="F98" s="49">
+        <f>-11.25</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G98" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="J98" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="L98" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="O98" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P98" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99" s="48" t="str">
+        <f>O99 &amp; "."  &amp; P99 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C99), C99, F99), "000")</f>
+        <v>FC1.DPW.115</v>
+      </c>
+      <c r="B99" s="50">
+        <f>D98</f>
+        <v>11.513350999999998</v>
+      </c>
+      <c r="C99" s="50">
+        <f>D98+I99/2</f>
+        <v>11.518350999999999</v>
+      </c>
+      <c r="D99" s="50">
+        <f>D98+I99</f>
+        <v>11.523350999999998</v>
+      </c>
+      <c r="F99" s="49">
+        <f>-11.25</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G99" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H99" s="49">
+        <v>0</v>
+      </c>
+      <c r="I99" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J99" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="O99" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P99" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100" s="48" t="str">
+        <f>O100 &amp; "."  &amp; P100 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C100), C100, F100), "000")</f>
+        <v>FC1.OTR.116</v>
+      </c>
+      <c r="B100" s="50">
+        <v>11.608770999999999</v>
+      </c>
+      <c r="C100" s="50">
+        <v>11.608770999999999</v>
+      </c>
+      <c r="D100" s="50">
+        <v>11.608770999999999</v>
+      </c>
+      <c r="F100" s="50"/>
+      <c r="L100" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="O100" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P100" s="49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101" s="48" t="str">
+        <f>O101 &amp; "."  &amp; P101 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C101), C101, F101), "000")</f>
+        <v>FC1.DPW.117</v>
+      </c>
+      <c r="B101" s="50">
+        <f>B102-I101</f>
+        <v>11.694191</v>
+      </c>
+      <c r="C101" s="50">
+        <f>B102-I101/2</f>
+        <v>11.699190999999999</v>
+      </c>
+      <c r="D101" s="50">
+        <f>B102</f>
+        <v>11.704191</v>
+      </c>
+      <c r="F101" s="49">
+        <f>-11.25</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G101" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H101" s="49">
+        <v>0</v>
+      </c>
+      <c r="I101" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J101" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="K101" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O101" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P101" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" s="48" t="str">
+        <f>O102 &amp; "."  &amp; P102 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C102), C102, F102), "000")</f>
+        <v>FC1.DPH.117</v>
+      </c>
+      <c r="B102" s="50">
+        <v>11.704191</v>
+      </c>
+      <c r="C102" s="50">
+        <v>11.7228855</v>
+      </c>
+      <c r="D102" s="50">
+        <v>11.741579999999999</v>
+      </c>
+      <c r="F102" s="49">
+        <f>-11.25</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G102" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="J102" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="L102" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="O102" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P102" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" s="48" t="str">
+        <f>O103 &amp; "."  &amp; P103 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C103), C103, F103), "000")</f>
+        <v>FC1.DPW.117</v>
+      </c>
+      <c r="B103" s="50">
+        <f>D102</f>
+        <v>11.741579999999999</v>
+      </c>
+      <c r="C103" s="50">
+        <f>D102+I103/2</f>
+        <v>11.74658</v>
+      </c>
+      <c r="D103" s="50">
+        <f>D102+I103</f>
+        <v>11.751579999999999</v>
+      </c>
+      <c r="F103" s="49">
+        <f>-11.25</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G103" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H103" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="I103" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J103" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="O103" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P103" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" s="48" t="str">
+        <f>O104 &amp; "."  &amp; P104 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C104), C104, F104), "000")</f>
+        <v>FC1.DPW.121</v>
+      </c>
+      <c r="B104" s="50">
+        <f>B105-I104</f>
+        <v>12.060744</v>
+      </c>
+      <c r="C104" s="50">
+        <f>B105-I104/2</f>
+        <v>12.065743999999999</v>
+      </c>
+      <c r="D104" s="50">
+        <f>B105</f>
+        <v>12.070743999999999</v>
+      </c>
+      <c r="F104" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="G104" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H104" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="I104" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J104" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="K104" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O104" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P104" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="48" t="str">
+        <f>O105 &amp; "."  &amp; P105 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C105), C105, F105), "000")</f>
+        <v>FC1.DPH.121</v>
+      </c>
+      <c r="B105" s="50">
+        <v>12.070743999999999</v>
+      </c>
+      <c r="C105" s="50">
+        <v>12.0894385</v>
+      </c>
+      <c r="D105" s="50">
+        <v>12.108132999999999</v>
+      </c>
+      <c r="F105" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="G105" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="J105" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="L105" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="O105" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P105" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106" s="48" t="str">
+        <f>O106 &amp; "."  &amp; P106 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C106), C106, F106), "000")</f>
+        <v>FC1.DPW.121</v>
+      </c>
+      <c r="B106" s="50">
+        <f>D105</f>
+        <v>12.108132999999999</v>
+      </c>
+      <c r="C106" s="50">
+        <f>D105+I106/2</f>
+        <v>12.113132999999999</v>
+      </c>
+      <c r="D106" s="50">
+        <f>D105+I106</f>
+        <v>12.118132999999998</v>
+      </c>
+      <c r="F106" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="G106" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H106" s="49">
+        <v>0</v>
+      </c>
+      <c r="I106" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J106" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="O106" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P106" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107" s="48" t="str">
+        <f>O107 &amp; "."  &amp; P107 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C107), C107, F107), "000")</f>
+        <v>FEL.OTR.123</v>
+      </c>
+      <c r="B107" s="50">
+        <v>12.319866999999999</v>
+      </c>
+      <c r="C107" s="50">
+        <v>12.319866999999999</v>
+      </c>
+      <c r="D107" s="50">
+        <v>12.319866999999999</v>
+      </c>
+      <c r="L107" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="O107" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="P107" s="49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A108" s="48" t="str">
+        <f>O108 &amp; "."  &amp; P108 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C108), C108, F108), "000")</f>
+        <v>FEL.UND.127</v>
+      </c>
+      <c r="B108" s="50">
+        <v>12.388966999999999</v>
+      </c>
+      <c r="C108" s="50">
+        <v>12.659217</v>
+      </c>
+      <c r="D108" s="50">
+        <v>12.929466999999999</v>
+      </c>
+      <c r="L108" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="O108" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="P108" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A109" s="48" t="str">
+        <f>O109 &amp; "."  &amp; P109 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C109), C109, F109), "000")</f>
+        <v>FEL.OTR.129</v>
+      </c>
+      <c r="B109" s="50">
+        <v>12.929466999999999</v>
+      </c>
+      <c r="C109" s="50">
+        <v>12.929466999999999</v>
+      </c>
+      <c r="D109" s="50">
+        <v>12.929466999999999</v>
+      </c>
+      <c r="L109" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="O109" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="P109" s="49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A110" s="48" t="str">
+        <f>O110 &amp; "."  &amp; P110 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C110), C110, F110), "000")</f>
+        <v>FEL.UND.132</v>
+      </c>
+      <c r="B110" s="50">
+        <v>12.929466999999999</v>
+      </c>
+      <c r="C110" s="50">
+        <v>13.199717</v>
+      </c>
+      <c r="D110" s="50">
+        <v>13.469966999999999</v>
+      </c>
+      <c r="L110" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="O110" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="P110" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A111" s="48" t="str">
+        <f>O111 &amp; "."  &amp; P111 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C111), C111, F111), "000")</f>
+        <v>FEL.OTR.135</v>
+      </c>
+      <c r="B111" s="50">
+        <v>13.539066999999999</v>
+      </c>
+      <c r="C111" s="50">
+        <v>13.539066999999999</v>
+      </c>
+      <c r="D111" s="50">
+        <v>13.539066999999999</v>
+      </c>
+      <c r="L111" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="O111" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="P111" s="49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A112" s="48" t="str">
+        <f>O112 &amp; "."  &amp; P112 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C112), C112, F112), "000")</f>
+        <v>FC2.DPW.137</v>
+      </c>
+      <c r="B112" s="50">
+        <f>B113-I112</f>
+        <v>13.741436999999999</v>
+      </c>
+      <c r="C112" s="50">
+        <f>B113-I112/2</f>
+        <v>13.746436999999998</v>
+      </c>
+      <c r="D112" s="50">
+        <f>B113</f>
+        <v>13.751436999999999</v>
+      </c>
+      <c r="F112" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="G112" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H112" s="49">
+        <v>0</v>
+      </c>
+      <c r="I112" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J112" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="K112" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O112" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P112" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" s="48" t="str">
+        <f>O113 &amp; "."  &amp; P113 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C113), C113, F113), "000")</f>
+        <v>FC2.DPH.138</v>
+      </c>
+      <c r="B113" s="50">
+        <v>13.751436999999999</v>
+      </c>
+      <c r="C113" s="50">
+        <v>13.7701315</v>
+      </c>
+      <c r="D113" s="50">
+        <v>13.788825999999998</v>
+      </c>
+      <c r="F113" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="G113" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="J113" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="L113" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="O113" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P113" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" s="48" t="str">
+        <f>O114 &amp; "."  &amp; P114 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C114), C114, F114), "000")</f>
+        <v>FC2.DPW.138</v>
+      </c>
+      <c r="B114" s="50">
+        <f>D113</f>
+        <v>13.788825999999998</v>
+      </c>
+      <c r="C114" s="50">
+        <f>D113+I114/2</f>
+        <v>13.793825999999999</v>
+      </c>
+      <c r="D114" s="50">
+        <f>D113+I114</f>
+        <v>13.798825999999998</v>
+      </c>
+      <c r="F114" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="G114" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H114" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="I114" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J114" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="O114" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P114" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115" s="48" t="str">
+        <f>O115 &amp; "."  &amp; P115 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C115), C115, F115), "000")</f>
+        <v>FC2.DPW.141</v>
+      </c>
+      <c r="B115" s="50">
+        <f>B116-I115</f>
+        <v>14.107989999999999</v>
+      </c>
+      <c r="C115" s="50">
+        <f>B116-I115/2</f>
+        <v>14.112989999999998</v>
+      </c>
+      <c r="D115" s="50">
+        <f>B116</f>
+        <v>14.117989999999999</v>
+      </c>
+      <c r="F115" s="49">
+        <f>-11.25</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G115" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H115" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="I115" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J115" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="K115" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O115" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P115" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A116" s="48" t="str">
+        <f>O116 &amp; "."  &amp; P116 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C116), C116, F116), "000")</f>
+        <v>FC2.DPH.141</v>
+      </c>
+      <c r="B116" s="50">
+        <v>14.117989999999999</v>
+      </c>
+      <c r="C116" s="50">
+        <v>14.136684499999999</v>
+      </c>
+      <c r="D116" s="50">
+        <v>14.155378999999998</v>
+      </c>
+      <c r="F116" s="49">
+        <f>-11.25</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G116" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="J116" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="L116" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="O116" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P116" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A117" s="48" t="str">
+        <f>O117 &amp; "."  &amp; P117 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C117), C117, F117), "000")</f>
+        <v>FC2.DPW.142</v>
+      </c>
+      <c r="B117" s="50">
+        <f>D116</f>
+        <v>14.155378999999998</v>
+      </c>
+      <c r="C117" s="50">
+        <f>D116+I117/2</f>
+        <v>14.160378999999999</v>
+      </c>
+      <c r="D117" s="50">
+        <f>D116+I117</f>
+        <v>14.165378999999998</v>
+      </c>
+      <c r="F117" s="49">
+        <f>-11.25</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G117" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H117" s="49">
+        <v>0</v>
+      </c>
+      <c r="I117" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J117" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="O117" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P117" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" s="48" t="str">
+        <f>O118 &amp; "."  &amp; P118 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C118), C118, F118), "000")</f>
+        <v>FC2.OTR.143</v>
+      </c>
+      <c r="B118" s="50">
+        <v>14.250798999999999</v>
+      </c>
+      <c r="C118" s="50">
+        <v>14.250798999999999</v>
+      </c>
+      <c r="D118" s="50">
+        <v>14.250798999999999</v>
+      </c>
+      <c r="L118" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="O118" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P118" s="49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" s="48" t="str">
+        <f>O119 &amp; "."  &amp; P119 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C119), C119, F119), "000")</f>
+        <v>FC2.DPW.143</v>
+      </c>
+      <c r="B119" s="50">
+        <f>B120-I119</f>
+        <v>14.336219</v>
+      </c>
+      <c r="C119" s="50">
+        <f>B120-I119/2</f>
+        <v>14.341218999999999</v>
+      </c>
+      <c r="D119" s="50">
+        <f>B120</f>
+        <v>14.346219</v>
+      </c>
+      <c r="F119" s="49">
+        <f>-11.25</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G119" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H119" s="49">
+        <v>0</v>
+      </c>
+      <c r="I119" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J119" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="K119" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O119" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P119" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" s="48" t="str">
+        <f>O120 &amp; "."  &amp; P120 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C120), C120, F120), "000")</f>
+        <v>FC2.DPH.144</v>
+      </c>
+      <c r="B120" s="50">
+        <v>14.346219</v>
+      </c>
+      <c r="C120" s="50">
+        <v>14.3649135</v>
+      </c>
+      <c r="D120" s="50">
+        <v>14.383607999999999</v>
+      </c>
+      <c r="F120" s="49">
+        <f>-11.25</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G120" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="J120" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="L120" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="O120" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P120" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121" s="48" t="str">
+        <f>O121 &amp; "."  &amp; P121 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C121), C121, F121), "000")</f>
+        <v>FC2.DPW.144</v>
+      </c>
+      <c r="B121" s="50">
+        <f>D120</f>
+        <v>14.383607999999999</v>
+      </c>
+      <c r="C121" s="50">
+        <f>D120+I121/2</f>
+        <v>14.388608</v>
+      </c>
+      <c r="D121" s="50">
+        <f>D120+I121</f>
+        <v>14.393607999999999</v>
+      </c>
+      <c r="F121" s="49">
+        <f>-11.25</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G121" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H121" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="I121" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J121" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="O121" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P121" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A122" s="48" t="str">
+        <f>O122 &amp; "."  &amp; P122 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C122), C122, F122), "000")</f>
+        <v>FC2.DPW.147</v>
+      </c>
+      <c r="B122" s="50">
+        <f>B123-I122</f>
+        <v>14.702772</v>
+      </c>
+      <c r="C122" s="50">
+        <f>B123-I122/2</f>
+        <v>14.707771999999999</v>
+      </c>
+      <c r="D122" s="50">
+        <f>B123</f>
+        <v>14.712771999999999</v>
+      </c>
+      <c r="F122" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="G122" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H122" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="I122" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J122" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="K122" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O122" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P122" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123" s="48" t="str">
+        <f>O123 &amp; "."  &amp; P123 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C123), C123, F123), "000")</f>
+        <v>FC2.DPH.147</v>
+      </c>
+      <c r="B123" s="50">
+        <v>14.712771999999999</v>
+      </c>
+      <c r="C123" s="50">
+        <v>14.7314665</v>
+      </c>
+      <c r="D123" s="50">
+        <v>14.750160999999999</v>
+      </c>
+      <c r="F123" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="G123" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="J123" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="L123" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="O123" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P123" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A124" s="48" t="str">
+        <f>O124 &amp; "."  &amp; P124 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C124), C124, F124), "000")</f>
+        <v>FC2.DPW.148</v>
+      </c>
+      <c r="B124" s="50">
+        <f>D123</f>
+        <v>14.750160999999999</v>
+      </c>
+      <c r="C124" s="50">
+        <f>D123+I124/2</f>
+        <v>14.755160999999999</v>
+      </c>
+      <c r="D124" s="50">
+        <f>D123+I124</f>
+        <v>14.760160999999998</v>
+      </c>
+      <c r="F124" s="49">
+        <f>11.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="G124" s="54">
+        <v>3.7388999999999999E-2</v>
+      </c>
+      <c r="H124" s="49">
+        <v>0</v>
+      </c>
+      <c r="I124" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="J124" s="49">
+        <f>0.0127</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="O124" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P124" s="49" t="s">
+        <v>341</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4964,8 +6313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC6263B-129C-4012-8C81-A56CA3901853}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8095,8 +9444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690C5098-DD13-4632-A393-CDBA5D4508EB}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Beamline_elements.xlsx
+++ b/Beamline_elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NielsB\cernbox\Hawaii University\Beam dynamics\FELsim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NielsB\cernbox\Hawaii University\Beam dynamics\UH_FELxBeamDyn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A843A748-485F-48B0-8CC7-1207E1295E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C0832C-3FBD-4F2F-8264-791F7B9E8D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8016" yWindow="5616" windowWidth="25920" windowHeight="15360" xr2:uid="{4C82D9F0-9D94-4EC2-AD9E-40D58C931DEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="34776" windowHeight="21096" xr2:uid="{4C82D9F0-9D94-4EC2-AD9E-40D58C931DEF}"/>
   </bookViews>
   <sheets>
     <sheet name="pysheet_" sheetId="2" r:id="rId1"/>
@@ -1305,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1373,6 +1373,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1394,27 +1404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1844,4462 +1833,4460 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033554DD-3897-4359-B7DF-3FC088E3C719}">
   <dimension ref="A1:P124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146:F156"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="P93" sqref="P93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="49" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="49" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="49"/>
-    <col min="6" max="6" width="15.77734375" style="49" customWidth="1"/>
-    <col min="7" max="7" width="15" style="49" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" style="49" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="49" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="49" customWidth="1"/>
-    <col min="11" max="11" width="43.88671875" style="49" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" style="49" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" style="49" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" style="49"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="43.88671875" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" t="s">
         <v>233</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="str">
+      <c r="A3" s="37" t="str">
         <f>O3 &amp; "."  &amp; P3 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C3), C3, F3), "000")</f>
         <v>LIN.QPF.004</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="16">
         <f>Sheet1!B3</f>
         <v>0.35877500000000001</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="16">
         <f>B3+Sheet1!$E$3/2</f>
         <v>0.403225</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="16">
         <f>B3+Sheet1!$E$3</f>
         <v>0.44767500000000005</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3">
         <v>0.88571930929915599</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="J3" s="49">
+      <c r="F3" s="16"/>
+      <c r="J3">
         <v>2.7E-2</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="12">
         <v>20</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" t="s">
         <v>237</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="50">
+      <c r="A4" s="37"/>
+      <c r="B4" s="16">
         <v>0.44767500000000005</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="16">
         <v>0.44767500000000005</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="16">
         <v>0.44767500000000005</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="L4" s="49" t="s">
+      <c r="F4" s="16"/>
+      <c r="L4" t="s">
         <v>192</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="O4" s="49" t="s">
+      <c r="M4" s="12"/>
+      <c r="O4" t="s">
         <v>237</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="str">
+      <c r="A5" s="37" t="str">
         <f>O5 &amp; "."  &amp; P5 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C5), C5, F5), "000")</f>
         <v>LIN.QPD.007</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="16">
         <f>D3+Sheet1!B4</f>
         <v>0.64452500000000001</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="16">
         <f>B5+Sheet1!$E$3/2</f>
         <v>0.688975</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="16">
         <f>B5+Sheet1!$E$3</f>
         <v>0.73342499999999999</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5">
         <v>1.0528901226284999</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="J5" s="49">
+      <c r="F5" s="16"/>
+      <c r="J5">
         <v>2.7E-2</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="12">
         <v>21</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" t="s">
         <v>164</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" t="s">
         <v>237</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="str">
+      <c r="A6" s="37" t="str">
         <f>O6 &amp; "."  &amp; P6 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C6), C6, F6), "000")</f>
         <v>LIN.STV.007</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="16">
         <v>0.73342499999999999</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="16">
         <v>0.73342499999999999</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="16">
         <v>0.73342499999999999</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="L6" s="49" t="s">
+      <c r="F6" s="16"/>
+      <c r="L6" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="12">
         <v>22</v>
       </c>
-      <c r="N6" s="49" t="s">
+      <c r="N6" t="s">
         <v>178</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" t="s">
         <v>237</v>
       </c>
-      <c r="P6" s="49" t="s">
+      <c r="P6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="str">
+      <c r="A7" s="37" t="str">
         <f>O7 &amp; "."  &amp; P7 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C7), C7, F7), "000")</f>
         <v>LIN.SPC.007</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="16">
         <v>0.73342499999999999</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="16">
         <v>0.73342499999999999</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="16">
         <v>0.73342499999999999</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="L7" s="49" t="s">
+      <c r="F7" s="16"/>
+      <c r="L7" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="12">
         <v>23</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="N7" t="s">
         <v>219</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" t="s">
         <v>237</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="P7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="50">
+      <c r="A8" s="37"/>
+      <c r="B8" s="16">
         <v>0.73342499999999999</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="16">
         <v>0.73342499999999999</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="16">
         <v>0.73342499999999999</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="str">
-        <f>O9 &amp; "."  &amp; P9 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C9), C9, F9), "000")</f>
+      <c r="A9" s="37" t="str">
+        <f t="shared" ref="A9:A17" si="0">O9 &amp; "."  &amp; P9 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C9), C9, F9), "000")</f>
         <v>LIN.STV.007</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="16">
         <v>0.73342499999999999</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="16">
         <v>0.73342499999999999</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="16">
         <v>0.73342499999999999</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="L9" s="49" t="s">
+      <c r="F9" s="16"/>
+      <c r="L9" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="12">
         <v>24</v>
       </c>
-      <c r="N9" s="49" t="s">
+      <c r="N9" t="s">
         <v>179</v>
       </c>
-      <c r="O9" s="49" t="s">
+      <c r="O9" t="s">
         <v>237</v>
       </c>
-      <c r="P9" s="49" t="s">
+      <c r="P9" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="str">
-        <f>O10 &amp; "."  &amp; P10 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C10), C10, F10), "000")</f>
+      <c r="A10" s="37" t="str">
+        <f t="shared" si="0"/>
         <v>DC1.OTR.016</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="16">
         <f>D5+Sheet1!B5</f>
         <v>1.6328640000000001</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="16">
         <f>B10</f>
         <v>1.6328640000000001</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="16">
         <f>C10</f>
         <v>1.6328640000000001</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="L10" s="49" t="s">
+      <c r="F10" s="16"/>
+      <c r="L10" t="s">
         <v>191</v>
       </c>
-      <c r="M10" s="51"/>
-      <c r="N10" s="49" t="s">
+      <c r="M10" s="12"/>
+      <c r="N10" t="s">
         <v>220</v>
       </c>
-      <c r="O10" s="49" t="s">
+      <c r="O10" t="s">
         <v>250</v>
       </c>
-      <c r="P10" s="49" t="s">
+      <c r="P10" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="str">
-        <f>O11 &amp; "."  &amp; P11 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C11), C11, F11), "000")</f>
+      <c r="A11" s="37" t="str">
+        <f t="shared" si="0"/>
         <v>DC1.DPW.017</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="16">
         <f>B12-I11</f>
         <v>1.697921</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="16">
         <f>B12-I11/2</f>
         <v>1.7029210000000001</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="16">
         <f>B12</f>
         <v>1.707921</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11">
         <v>1.5</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11">
         <v>0.01</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O11" s="49" t="s">
+      <c r="O11" t="s">
         <v>250</v>
       </c>
-      <c r="P11" s="49" t="s">
+      <c r="P11" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="str">
-        <f>O12 &amp; "."  &amp; P12 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C12), C12, F12), "000")</f>
+      <c r="A12" s="37" t="str">
+        <f t="shared" si="0"/>
         <v>DC1.DPH.018</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="16">
         <f>B10+Sheet1!B6</f>
         <v>1.707921</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="16">
         <f>B12+Sheet1!F12/2</f>
         <v>1.7523710000000001</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="16">
         <f>B12+Sheet1!F12</f>
         <v>1.796821</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12">
         <v>1.5</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="L12" s="49" t="s">
+      <c r="L12" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="12">
         <v>26</v>
       </c>
-      <c r="N12" s="49" t="s">
+      <c r="N12" t="s">
         <v>332</v>
       </c>
-      <c r="O12" s="49" t="s">
+      <c r="O12" t="s">
         <v>250</v>
       </c>
-      <c r="P12" s="49" t="s">
+      <c r="P12" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="str">
-        <f>O13 &amp; "."  &amp; P13 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C13), C13, F13), "000")</f>
+      <c r="A13" s="37" t="str">
+        <f t="shared" si="0"/>
         <v>DC1.DPW.018</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="16">
         <f>D12</f>
         <v>1.796821</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="16">
         <f>D12+I13/2</f>
         <v>1.8018209999999999</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="16">
         <f>D12+I13</f>
         <v>1.806821</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13">
         <v>1.5</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13">
         <v>1.5</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13">
         <v>0.01</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O13" s="49" t="s">
+      <c r="O13" t="s">
         <v>250</v>
       </c>
-      <c r="P13" s="49" t="s">
+      <c r="P13" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="str">
-        <f>O14 &amp; "."  &amp; P14 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C14), C14, F14), "000")</f>
+      <c r="A14" s="37" t="str">
+        <f t="shared" si="0"/>
         <v>DC1.QPF.021</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="16">
         <f>D12+Sheet1!B7</f>
         <v>2.0330409999999999</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="16">
         <f>B14+Sheet1!$E$3/2</f>
         <v>2.0774909999999998</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="16">
         <f>B14++Sheet1!$E$3</f>
         <v>2.1219410000000001</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14">
         <v>3.8166035634743878</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="J14" s="49">
+      <c r="F14" s="16"/>
+      <c r="J14">
         <v>2.7E-2</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="12">
         <v>28</v>
       </c>
-      <c r="N14" s="49" t="s">
+      <c r="N14" t="s">
         <v>334</v>
       </c>
-      <c r="O14" s="49" t="s">
+      <c r="O14" t="s">
         <v>250</v>
       </c>
-      <c r="P14" s="49" t="s">
+      <c r="P14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="str">
-        <f>O15 &amp; "."  &amp; P15 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C15), C15, F15), "000")</f>
+      <c r="A15" s="37" t="str">
+        <f t="shared" si="0"/>
         <v>DC1.DPW.024</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="16">
         <f>B16-I15</f>
         <v>2.3481610000000002</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="16">
         <f>C16-I15/2</f>
         <v>2.3976109999999999</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="16">
         <f>B16</f>
         <v>2.358161</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15">
         <v>1.5</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15">
         <v>0.75</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15">
         <v>0.01</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J15">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O15" s="49" t="s">
+      <c r="O15" t="s">
         <v>250</v>
       </c>
-      <c r="P15" s="49" t="s">
+      <c r="P15" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="str">
-        <f>O16 &amp; "."  &amp; P16 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C16), C16, F16), "000")</f>
+      <c r="A16" s="37" t="str">
+        <f t="shared" si="0"/>
         <v>DC1.DPH.024</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B16" s="16">
         <f>D14+Sheet1!B8</f>
         <v>2.358161</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="16">
         <f>B16+Sheet1!F13/2</f>
         <v>2.4026109999999998</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="16">
         <f>B16+Sheet1!F13</f>
         <v>2.4470610000000002</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16">
         <v>1.5</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="L16" s="49" t="s">
+      <c r="L16" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="12">
         <v>26</v>
       </c>
-      <c r="N16" s="49" t="s">
+      <c r="N16" t="s">
         <v>335</v>
       </c>
-      <c r="O16" s="49" t="s">
+      <c r="O16" t="s">
         <v>250</v>
       </c>
-      <c r="P16" s="49" t="s">
+      <c r="P16" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="str">
-        <f>O17 &amp; "."  &amp; P17 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C17), C17, F17), "000")</f>
+      <c r="A17" s="37" t="str">
+        <f t="shared" si="0"/>
         <v>DC1.DPW.025</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="16">
         <f>D16</f>
         <v>2.4470610000000002</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="16">
         <f>D16+I17/2</f>
         <v>2.452061</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="16">
         <f>D16+I17</f>
         <v>2.4570609999999999</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17">
         <v>1.5</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17">
         <v>0.75</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17">
         <v>0.01</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O17" s="49" t="s">
+      <c r="O17" t="s">
         <v>250</v>
       </c>
-      <c r="P17" s="49" t="s">
+      <c r="P17" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="50">
+      <c r="A18" s="37"/>
+      <c r="B18" s="16">
         <v>2.4570609999999999</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="16">
         <v>2.4570609999999999</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="16">
         <f>D17+I18</f>
         <v>2.4570609999999999</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="L18" s="49" t="s">
+      <c r="F18" s="16"/>
+      <c r="L18" t="s">
         <v>192</v>
       </c>
-      <c r="M18" s="51"/>
-      <c r="N18" s="49" t="s">
+      <c r="M18" s="12"/>
+      <c r="N18" t="s">
         <v>189</v>
       </c>
-      <c r="O18" s="49" t="s">
+      <c r="O18" t="s">
         <v>250</v>
       </c>
-      <c r="P18" s="49" t="s">
+      <c r="P18" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="str">
-        <f>O19 &amp; "."  &amp; P19 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C19), C19, F19), "000")</f>
+      <c r="A19" s="37" t="str">
+        <f t="shared" ref="A19:A34" si="1">O19 &amp; "."  &amp; P19 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C19), C19, F19), "000")</f>
         <v>DC2.QPD.028</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="16">
         <f>D16+Sheet1!B9</f>
         <v>2.7353510000000001</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="16">
         <f>B19+Sheet1!$E$3/2</f>
         <v>2.779801</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="16">
         <f>B19++Sheet1!$E$3</f>
         <v>2.8242510000000003</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19">
         <v>2.5798069784706756</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="J19" s="49">
+      <c r="F19" s="16"/>
+      <c r="J19">
         <v>2.7E-2</v>
       </c>
-      <c r="L19" s="49" t="s">
+      <c r="L19" t="s">
         <v>1</v>
       </c>
-      <c r="M19" s="51">
+      <c r="M19" s="12">
         <v>29</v>
       </c>
-      <c r="N19" s="49" t="s">
+      <c r="N19" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="49" t="s">
+      <c r="O19" t="s">
         <v>251</v>
       </c>
-      <c r="P19" s="49" t="s">
+      <c r="P19" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="str">
-        <f>O20 &amp; "."  &amp; P20 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C20), C20, F20), "000")</f>
+      <c r="A20" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.QPF.029</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="16">
         <f>D19+Sheet1!B10</f>
         <v>2.8674310000000003</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="16">
         <f>B20+Sheet1!$E$3/2</f>
         <v>2.9118810000000002</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="16">
         <f>B20++Sheet1!$E$3</f>
         <v>2.9563310000000005</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20">
         <v>4.5657015590200452</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="J20" s="49">
+      <c r="F20" s="16"/>
+      <c r="J20">
         <v>2.7E-2</v>
       </c>
-      <c r="L20" s="49" t="s">
+      <c r="L20" t="s">
         <v>1</v>
       </c>
-      <c r="M20" s="51">
+      <c r="M20" s="12">
         <v>30</v>
       </c>
-      <c r="N20" s="49" t="s">
+      <c r="N20" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="49" t="s">
+      <c r="O20" t="s">
         <v>251</v>
       </c>
-      <c r="P20" s="49" t="s">
+      <c r="P20" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="str">
-        <f>O21 &amp; "."  &amp; P21 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C21), C21, F21), "000")</f>
+      <c r="A21" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.QPD.030</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="16">
         <f>D20+Sheet1!B11</f>
         <v>2.9995110000000005</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="16">
         <f>B21+Sheet1!$E$3/2</f>
         <v>3.0439610000000004</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="16">
         <f>B21++Sheet1!$E$3</f>
         <v>3.0884110000000007</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21">
         <v>2.5798069784706756</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="J21" s="49">
+      <c r="F21" s="16"/>
+      <c r="J21">
         <v>2.7E-2</v>
       </c>
-      <c r="L21" s="49" t="s">
+      <c r="L21" t="s">
         <v>1</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="12">
         <v>31</v>
       </c>
-      <c r="N21" s="49" t="s">
+      <c r="N21" t="s">
         <v>165</v>
       </c>
-      <c r="O21" s="49" t="s">
+      <c r="O21" t="s">
         <v>251</v>
       </c>
-      <c r="P21" s="49" t="s">
+      <c r="P21" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="str">
-        <f>O22 &amp; "."  &amp; P22 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C22), C22, F22), "000")</f>
+      <c r="A22" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.OTR.032</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22" s="16">
         <f>D21+Sheet1!B12</f>
         <v>3.2187890000000006</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="16">
         <f>B22</f>
         <v>3.2187890000000006</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="16">
         <f>B22</f>
         <v>3.2187890000000006</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="L22" s="49" t="s">
+      <c r="F22" s="16"/>
+      <c r="L22" t="s">
         <v>191</v>
       </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="49" t="s">
+      <c r="M22" s="12"/>
+      <c r="N22" t="s">
         <v>221</v>
       </c>
-      <c r="O22" s="49" t="s">
+      <c r="O22" t="s">
         <v>251</v>
       </c>
-      <c r="P22" s="49" t="s">
+      <c r="P22" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="str">
-        <f>O23 &amp; "."  &amp; P23 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C23), C23, F23), "000")</f>
+      <c r="A23" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.DPW.033</v>
       </c>
-      <c r="B23" s="50">
+      <c r="B23" s="16">
         <f>B24-I23</f>
         <v>3.287910000000001</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="16">
         <f>B24-I23/2</f>
         <v>3.2929100000000009</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="16">
         <f>B24</f>
         <v>3.2979100000000008</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="16">
         <v>-4</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23">
         <v>0.01</v>
       </c>
-      <c r="J23" s="49">
+      <c r="J23">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O23" s="49" t="s">
+      <c r="O23" t="s">
         <v>251</v>
       </c>
-      <c r="P23" s="49" t="s">
+      <c r="P23" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="str">
-        <f>O24 &amp; "."  &amp; P24 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C24), C24, F24), "000")</f>
+      <c r="A24" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.DPH.033</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="16">
         <f>D22+Sheet1!B13</f>
         <v>3.2979100000000008</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="16">
         <f>B24+Sheet1!F14/2</f>
         <v>3.3182300000000007</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="16">
         <f>B24+Sheet1!F14</f>
         <v>3.3385500000000006</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="16">
         <v>-4</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="J24" s="49">
+      <c r="J24">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="L24" s="49" t="s">
+      <c r="L24" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="51">
+      <c r="M24" s="12">
         <v>32</v>
       </c>
-      <c r="N24" s="49" t="s">
+      <c r="N24" t="s">
         <v>332</v>
       </c>
-      <c r="O24" s="49" t="s">
+      <c r="O24" t="s">
         <v>251</v>
       </c>
-      <c r="P24" s="49" t="s">
+      <c r="P24" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="str">
-        <f>O25 &amp; "."  &amp; P25 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C25), C25, F25), "000")</f>
+      <c r="A25" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.DPW.033</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25" s="16">
         <f>D24</f>
         <v>3.3385500000000006</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="16">
         <f>D24+I25/2</f>
         <v>3.3435500000000005</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="16">
         <f>D24+I25</f>
         <v>3.3485500000000004</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="16">
         <v>-4</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I25">
         <v>0.01</v>
       </c>
-      <c r="J25" s="49">
+      <c r="J25">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O25" s="49" t="s">
+      <c r="O25" t="s">
         <v>251</v>
       </c>
-      <c r="P25" s="49" t="s">
+      <c r="P25" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="str">
-        <f>O26 &amp; "."  &amp; P26 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C26), C26, F26), "000")</f>
+      <c r="A26" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.QPF.036</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="16">
         <f>D24+Sheet1!B14</f>
         <v>3.5544800000000008</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="16">
         <f>B26+Sheet1!$E$3/2</f>
         <v>3.5989300000000006</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="16">
         <f>B26+Sheet1!$E$3</f>
         <v>3.643380000000001</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26">
         <v>4.4914625092798817</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="J26" s="49">
+      <c r="F26" s="16"/>
+      <c r="J26">
         <v>2.7E-2</v>
       </c>
-      <c r="L26" s="49" t="s">
+      <c r="L26" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="51">
+      <c r="M26" s="12">
         <v>34</v>
       </c>
-      <c r="N26" s="49" t="s">
+      <c r="N26" t="s">
         <v>334</v>
       </c>
-      <c r="O26" s="49" t="s">
+      <c r="O26" t="s">
         <v>251</v>
       </c>
-      <c r="P26" s="49" t="s">
+      <c r="P26" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="str">
-        <f>O27 &amp; "."  &amp; P27 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C27), C27, F27), "000")</f>
+      <c r="A27" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.DPW.039</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="16">
         <f>B28-I27</f>
         <v>3.8493100000000013</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="16">
         <f>B28-I27/2</f>
         <v>3.8543100000000012</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="16">
         <f>B28</f>
         <v>3.8593100000000011</v>
       </c>
-      <c r="F27" s="50">
+      <c r="F27" s="16">
         <v>-4</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27">
         <v>0.01</v>
       </c>
-      <c r="J27" s="49">
+      <c r="J27">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O27" s="49" t="s">
+      <c r="O27" t="s">
         <v>251</v>
       </c>
-      <c r="P27" s="49" t="s">
+      <c r="P27" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="str">
-        <f>O28 &amp; "."  &amp; P28 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C28), C28, F28), "000")</f>
+      <c r="A28" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.DPH.039</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="16">
         <f>D26+Sheet1!B15</f>
         <v>3.8593100000000011</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="16">
         <f>B28+Sheet1!F15/2</f>
         <v>3.879630000000001</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="16">
         <f>B28+Sheet1!F15</f>
         <v>3.8999500000000009</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28" s="16">
         <v>-4</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="L28" s="49" t="s">
+      <c r="L28" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="51">
+      <c r="M28" s="12">
         <v>32</v>
       </c>
-      <c r="N28" s="49" t="s">
+      <c r="N28" t="s">
         <v>335</v>
       </c>
-      <c r="O28" s="49" t="s">
+      <c r="O28" t="s">
         <v>251</v>
       </c>
-      <c r="P28" s="49" t="s">
+      <c r="P28" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="48" t="str">
-        <f>O29 &amp; "."  &amp; P29 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C29), C29, F29), "000")</f>
+      <c r="A29" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.DPW.039</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29" s="16">
         <f>D28</f>
         <v>3.8999500000000009</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="16">
         <f>D28+I29/2</f>
         <v>3.9049500000000008</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="16">
         <f>D28+I29</f>
         <v>3.9099500000000007</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="16">
         <v>-4</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29">
         <v>0.01</v>
       </c>
-      <c r="J29" s="49">
+      <c r="J29">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O29" s="49" t="s">
+      <c r="O29" t="s">
         <v>251</v>
       </c>
-      <c r="P29" s="49" t="s">
+      <c r="P29" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="48" t="str">
-        <f>O30 &amp; "."  &amp; P30 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C30), C30, F30), "000")</f>
+      <c r="A30" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.STV.039</v>
       </c>
-      <c r="B30" s="50">
-        <f t="shared" ref="B30:C31" si="0">$D$29</f>
+      <c r="B30" s="16">
+        <f t="shared" ref="B30:C31" si="2">$D$29</f>
         <v>3.9099500000000007</v>
       </c>
-      <c r="C30" s="50">
-        <f t="shared" si="0"/>
+      <c r="C30" s="16">
+        <f t="shared" si="2"/>
         <v>3.9099500000000007</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="16">
         <f>$D$29</f>
         <v>3.9099500000000007</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="L30" s="49" t="s">
+      <c r="F30" s="16"/>
+      <c r="L30" t="s">
         <v>2</v>
       </c>
-      <c r="M30" s="51">
+      <c r="M30" s="12">
         <v>35</v>
       </c>
-      <c r="N30" s="49" t="s">
+      <c r="N30" t="s">
         <v>180</v>
       </c>
-      <c r="O30" s="49" t="s">
+      <c r="O30" t="s">
         <v>251</v>
       </c>
-      <c r="P30" s="49" t="s">
+      <c r="P30" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="48" t="str">
-        <f>O31 &amp; "."  &amp; P31 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C31), C31, F31), "000")</f>
+      <c r="A31" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.STH.039</v>
       </c>
-      <c r="B31" s="50">
-        <f t="shared" si="0"/>
+      <c r="B31" s="16">
+        <f t="shared" si="2"/>
         <v>3.9099500000000007</v>
       </c>
-      <c r="C31" s="50">
-        <f t="shared" si="0"/>
+      <c r="C31" s="16">
+        <f t="shared" si="2"/>
         <v>3.9099500000000007</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="16">
         <f>$D$29</f>
         <v>3.9099500000000007</v>
       </c>
-      <c r="F31" s="50"/>
-      <c r="L31" s="49" t="s">
+      <c r="F31" s="16"/>
+      <c r="L31" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="51">
+      <c r="M31" s="12">
         <v>36</v>
       </c>
-      <c r="N31" s="49" t="s">
+      <c r="N31" t="s">
         <v>181</v>
       </c>
-      <c r="O31" s="49" t="s">
+      <c r="O31" t="s">
         <v>251</v>
       </c>
-      <c r="P31" s="49" t="s">
+      <c r="P31" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="48" t="str">
-        <f>O32 &amp; "."  &amp; P32 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C32), C32, F32), "000")</f>
+      <c r="A32" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.QPD.042</v>
       </c>
-      <c r="B32" s="50">
+      <c r="B32" s="16">
         <f>D28+Sheet1!B16</f>
         <v>4.1518670000000011</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="16">
         <f>B32+Sheet1!$E$3/2</f>
         <v>4.1963170000000014</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="16">
         <f>B32++Sheet1!$E$3</f>
         <v>4.2407670000000008</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F32" s="50"/>
-      <c r="J32" s="49">
+      <c r="F32" s="16"/>
+      <c r="J32">
         <v>2.7E-2</v>
       </c>
-      <c r="L32" s="49" t="s">
+      <c r="L32" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="51">
+      <c r="M32" s="12">
         <v>37</v>
       </c>
-      <c r="N32" s="49" t="s">
+      <c r="N32" t="s">
         <v>27</v>
       </c>
-      <c r="O32" s="49" t="s">
+      <c r="O32" t="s">
         <v>251</v>
       </c>
-      <c r="P32" s="49" t="s">
+      <c r="P32" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="str">
-        <f>O33 &amp; "."  &amp; P33 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C33), C33, F33), "000")</f>
+      <c r="A33" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.QPF.043</v>
       </c>
-      <c r="B33" s="50">
+      <c r="B33" s="16">
         <f>D32+Sheet1!B17</f>
         <v>4.2915670000000006</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="16">
         <f>B33+Sheet1!$E$3/2</f>
         <v>4.3360170000000009</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="16">
         <f>B33++Sheet1!$E$3</f>
         <v>4.3804670000000003</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33">
         <v>3.0809205642167781</v>
       </c>
-      <c r="F33" s="50"/>
-      <c r="J33" s="49">
+      <c r="F33" s="16"/>
+      <c r="J33">
         <v>2.7E-2</v>
       </c>
-      <c r="L33" s="49" t="s">
+      <c r="L33" t="s">
         <v>1</v>
       </c>
-      <c r="M33" s="51">
+      <c r="M33" s="12">
         <v>38</v>
       </c>
-      <c r="N33" s="49" t="s">
+      <c r="N33" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="49" t="s">
+      <c r="O33" t="s">
         <v>251</v>
       </c>
-      <c r="P33" s="49" t="s">
+      <c r="P33" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="str">
-        <f>O34 &amp; "."  &amp; P34 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C34), C34, F34), "000")</f>
+      <c r="A34" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>DC2.QPD.045</v>
       </c>
-      <c r="B34" s="50">
+      <c r="B34" s="16">
         <f>D33+Sheet1!B18</f>
         <v>4.4312670000000001</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="16">
         <f>B34+Sheet1!$E$3/2</f>
         <v>4.4757170000000004</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="16">
         <f>B34++Sheet1!$E$3</f>
         <v>4.5201669999999998</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F34" s="50"/>
-      <c r="J34" s="49">
+      <c r="F34" s="16"/>
+      <c r="J34">
         <v>2.7E-2</v>
       </c>
-      <c r="L34" s="49" t="s">
+      <c r="L34" t="s">
         <v>1</v>
       </c>
-      <c r="M34" s="51">
+      <c r="M34" s="12">
         <v>39</v>
       </c>
-      <c r="N34" s="49" t="s">
+      <c r="N34" t="s">
         <v>29</v>
       </c>
-      <c r="O34" s="49" t="s">
+      <c r="O34" t="s">
         <v>251</v>
       </c>
-      <c r="P34" s="49" t="s">
+      <c r="P34" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="50">
+      <c r="A35" s="37"/>
+      <c r="B35" s="16">
         <f>$D$34</f>
         <v>4.5201669999999998</v>
       </c>
-      <c r="C35" s="50">
-        <f t="shared" ref="C35:D35" si="1">$D$34</f>
+      <c r="C35" s="16">
+        <f t="shared" ref="C35:D35" si="3">$D$34</f>
         <v>4.5201669999999998</v>
       </c>
-      <c r="D35" s="50">
-        <f t="shared" si="1"/>
+      <c r="D35" s="16">
+        <f t="shared" si="3"/>
         <v>4.5201669999999998</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="L35" s="49" t="s">
+      <c r="F35" s="16"/>
+      <c r="L35" t="s">
         <v>192</v>
       </c>
-      <c r="M35" s="51"/>
-      <c r="N35" s="49" t="s">
+      <c r="M35" s="12"/>
+      <c r="N35" t="s">
         <v>193</v>
       </c>
-      <c r="O35" s="49" t="s">
+      <c r="O35" t="s">
         <v>251</v>
       </c>
-      <c r="P35" s="49" t="s">
+      <c r="P35" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="str">
-        <f>O36 &amp; "."  &amp; P36 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C36), C36, F36), "000")</f>
+      <c r="A36" s="37" t="str">
+        <f t="shared" ref="A36:A42" si="4">O36 &amp; "."  &amp; P36 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C36), C36, F36), "000")</f>
         <v>DC3.QPD.050</v>
       </c>
-      <c r="B36" s="50">
+      <c r="B36" s="16">
         <f>D34+Sheet1!B19</f>
         <v>4.9351269999999996</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="16">
         <f>B36+Sheet1!$E$3/2</f>
         <v>4.9795769999999999</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="16">
         <f>B36++Sheet1!$E$3</f>
         <v>5.0240269999999994</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F36" s="50"/>
-      <c r="J36" s="49">
+      <c r="F36" s="16"/>
+      <c r="J36">
         <v>2.7E-2</v>
       </c>
-      <c r="L36" s="49" t="s">
+      <c r="L36" t="s">
         <v>1</v>
       </c>
-      <c r="M36" s="51">
+      <c r="M36" s="12">
         <v>40</v>
       </c>
-      <c r="N36" s="49" t="s">
+      <c r="N36" t="s">
         <v>30</v>
       </c>
-      <c r="O36" s="49" t="s">
+      <c r="O36" t="s">
         <v>252</v>
       </c>
-      <c r="P36" s="49" t="s">
+      <c r="P36" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="str">
-        <f>O37 &amp; "."  &amp; P37 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C37), C37, F37), "000")</f>
+      <c r="A37" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>DC3.QPF.051</v>
       </c>
-      <c r="B37" s="50">
+      <c r="B37" s="16">
         <f>D36+Sheet1!B20</f>
         <v>5.0748269999999991</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="16">
         <f>B37+Sheet1!$E$3/2</f>
         <v>5.1192769999999994</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="16">
         <f>B37++Sheet1!$E$3</f>
         <v>5.1637269999999988</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37">
         <v>3.0809205642167781</v>
       </c>
-      <c r="F37" s="50"/>
-      <c r="J37" s="49">
+      <c r="F37" s="16"/>
+      <c r="J37">
         <v>2.7E-2</v>
       </c>
-      <c r="L37" s="49" t="s">
+      <c r="L37" t="s">
         <v>1</v>
       </c>
-      <c r="M37" s="51">
+      <c r="M37" s="12">
         <v>41</v>
       </c>
-      <c r="N37" s="49" t="s">
+      <c r="N37" t="s">
         <v>31</v>
       </c>
-      <c r="O37" s="49" t="s">
+      <c r="O37" t="s">
         <v>252</v>
       </c>
-      <c r="P37" s="49" t="s">
+      <c r="P37" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="48" t="str">
-        <f>O38 &amp; "."  &amp; P38 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C38), C38, F38), "000")</f>
+      <c r="A38" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>DC3.QPD.053</v>
       </c>
-      <c r="B38" s="50">
+      <c r="B38" s="16">
         <f>D37+Sheet1!B21</f>
         <v>5.2145269999999986</v>
       </c>
-      <c r="C38" s="50">
+      <c r="C38" s="16">
         <f>B38+Sheet1!$E$3/2</f>
         <v>5.2589769999999989</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38" s="16">
         <f>B38++Sheet1!$E$3</f>
         <v>5.3034269999999983</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F38" s="50"/>
-      <c r="J38" s="49">
+      <c r="F38" s="16"/>
+      <c r="J38">
         <v>2.7E-2</v>
       </c>
-      <c r="L38" s="49" t="s">
+      <c r="L38" t="s">
         <v>1</v>
       </c>
-      <c r="M38" s="51">
+      <c r="M38" s="12">
         <v>42</v>
       </c>
-      <c r="N38" s="49" t="s">
+      <c r="N38" t="s">
         <v>32</v>
       </c>
-      <c r="O38" s="49" t="s">
+      <c r="O38" t="s">
         <v>252</v>
       </c>
-      <c r="P38" s="49" t="s">
+      <c r="P38" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="48" t="str">
-        <f>O39 &amp; "."  &amp; P39 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C39), C39, F39), "000")</f>
+      <c r="A39" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>DC3.OTR.055</v>
       </c>
-      <c r="B39" s="50">
+      <c r="B39" s="16">
         <f>D38+Sheet1!B22</f>
         <v>5.498498999999998</v>
       </c>
-      <c r="C39" s="50">
+      <c r="C39" s="16">
         <f>B39</f>
         <v>5.498498999999998</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39" s="16">
         <f>B39</f>
         <v>5.498498999999998</v>
       </c>
-      <c r="F39" s="50"/>
-      <c r="L39" s="49" t="s">
+      <c r="F39" s="16"/>
+      <c r="L39" t="s">
         <v>191</v>
       </c>
-      <c r="M39" s="51"/>
-      <c r="N39" s="49" t="s">
+      <c r="M39" s="12"/>
+      <c r="N39" t="s">
         <v>222</v>
       </c>
-      <c r="O39" s="49" t="s">
+      <c r="O39" t="s">
         <v>252</v>
       </c>
-      <c r="P39" s="49" t="s">
+      <c r="P39" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="48" t="str">
-        <f>O40 &amp; "."  &amp; P40 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C40), C40, F40), "000")</f>
+      <c r="A40" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>DC3.DPW.056</v>
       </c>
-      <c r="B40" s="50">
+      <c r="B40" s="16">
         <f>B41-I40</f>
         <v>5.5644449999999983</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="16">
         <f>B41-I40/2</f>
         <v>5.5694449999999982</v>
       </c>
-      <c r="D40" s="50">
+      <c r="D40" s="16">
         <f>B41</f>
         <v>5.5744449999999981</v>
       </c>
-      <c r="F40" s="50">
+      <c r="F40" s="16">
         <v>5</v>
       </c>
-      <c r="G40" s="49">
+      <c r="G40">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H40" s="49">
+      <c r="H40">
         <v>2.536</v>
       </c>
-      <c r="I40" s="49">
+      <c r="I40">
         <v>0.01</v>
       </c>
-      <c r="J40" s="49">
+      <c r="J40">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O40" s="49" t="s">
+      <c r="O40" t="s">
         <v>252</v>
       </c>
-      <c r="P40" s="49" t="s">
+      <c r="P40" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="48" t="str">
-        <f>O41 &amp; "."  &amp; P41 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C41), C41, F41), "000")</f>
+      <c r="A41" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>DC3.DPH.056</v>
       </c>
-      <c r="B41" s="50">
+      <c r="B41" s="16">
         <f>D39+Sheet1!B23</f>
         <v>5.5744449999999981</v>
       </c>
-      <c r="C41" s="50">
+      <c r="C41" s="16">
         <f>B41+Sheet1!F16/2</f>
         <v>5.594764999999998</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="16">
         <f>B41+Sheet1!F16</f>
         <v>5.6150849999999979</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="16">
         <v>5</v>
       </c>
-      <c r="G41" s="49">
+      <c r="G41">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="J41" s="49">
+      <c r="J41">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="L41" s="49" t="s">
+      <c r="L41" t="s">
         <v>9</v>
       </c>
-      <c r="M41" s="51">
+      <c r="M41" s="12">
         <v>45</v>
       </c>
-      <c r="N41" s="49" t="s">
+      <c r="N41" t="s">
         <v>332</v>
       </c>
-      <c r="O41" s="49" t="s">
+      <c r="O41" t="s">
         <v>252</v>
       </c>
-      <c r="P41" s="49" t="s">
+      <c r="P41" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="48" t="str">
-        <f>O42 &amp; "."  &amp; P42 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C42), C42, F42), "000")</f>
+      <c r="A42" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>DC3.DPW.056</v>
       </c>
-      <c r="B42" s="50">
+      <c r="B42" s="16">
         <f>D41</f>
         <v>5.6150849999999979</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="16">
         <f>D41+I42/2</f>
         <v>5.6200849999999978</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D42" s="16">
         <f>D41+I42</f>
         <v>5.6250849999999977</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="16">
         <v>5</v>
       </c>
-      <c r="G42" s="49">
+      <c r="G42">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H42" s="49">
+      <c r="H42">
         <v>2.536</v>
       </c>
-      <c r="I42" s="49">
+      <c r="I42">
         <v>0.01</v>
       </c>
-      <c r="J42" s="49">
+      <c r="J42">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O42" s="49" t="s">
+      <c r="O42" t="s">
         <v>252</v>
       </c>
-      <c r="P42" s="49" t="s">
+      <c r="P42" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="B43" s="50">
+      <c r="A43" s="37"/>
+      <c r="B43" s="16">
         <f>$D$42</f>
         <v>5.6250849999999977</v>
       </c>
-      <c r="C43" s="50">
-        <f t="shared" ref="C43:D43" si="2">$D$42</f>
+      <c r="C43" s="16">
+        <f t="shared" ref="C43:D43" si="5">$D$42</f>
         <v>5.6250849999999977</v>
       </c>
-      <c r="D43" s="50">
-        <f t="shared" si="2"/>
+      <c r="D43" s="16">
+        <f t="shared" si="5"/>
         <v>5.6250849999999977</v>
       </c>
-      <c r="F43" s="50"/>
-      <c r="L43" s="49" t="s">
+      <c r="F43" s="16"/>
+      <c r="L43" t="s">
         <v>239</v>
       </c>
-      <c r="M43" s="51"/>
+      <c r="M43" s="12"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="48" t="str">
+      <c r="A44" s="37" t="str">
         <f>O44 &amp; "."  &amp; P44 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C44), C44, F44), "000")</f>
         <v>DC3.QPF.059</v>
       </c>
-      <c r="B44" s="50">
+      <c r="B44" s="16">
         <f>D41+Sheet1!B24</f>
         <v>5.8309849999999983</v>
       </c>
-      <c r="C44" s="50">
+      <c r="C44" s="16">
         <f>B44+Sheet1!$E$3/2</f>
         <v>5.8754349999999986</v>
       </c>
-      <c r="D44" s="50">
+      <c r="D44" s="16">
         <f>B44+Sheet1!$E$3</f>
         <v>5.9198849999999981</v>
       </c>
-      <c r="E44" s="49">
+      <c r="E44">
         <v>4.4907201187824803</v>
       </c>
-      <c r="F44" s="50"/>
-      <c r="J44" s="49">
+      <c r="F44" s="16"/>
+      <c r="J44">
         <v>2.7E-2</v>
       </c>
-      <c r="L44" s="49" t="s">
+      <c r="L44" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="51">
+      <c r="M44" s="12">
         <v>47</v>
       </c>
-      <c r="N44" s="49" t="s">
+      <c r="N44" t="s">
         <v>334</v>
       </c>
-      <c r="O44" s="49" t="s">
+      <c r="O44" t="s">
         <v>252</v>
       </c>
-      <c r="P44" s="49" t="s">
+      <c r="P44" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="48"/>
-      <c r="B45" s="50">
+      <c r="A45" s="37"/>
+      <c r="B45" s="16">
         <f>$D$44</f>
         <v>5.9198849999999981</v>
       </c>
-      <c r="C45" s="50">
-        <f t="shared" ref="C45:D45" si="3">$D$44</f>
+      <c r="C45" s="16">
+        <f t="shared" ref="C45:D45" si="6">$D$44</f>
         <v>5.9198849999999981</v>
       </c>
-      <c r="D45" s="50">
-        <f t="shared" si="3"/>
+      <c r="D45" s="16">
+        <f t="shared" si="6"/>
         <v>5.9198849999999981</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="L45" s="49" t="s">
+      <c r="F45" s="16"/>
+      <c r="L45" t="s">
         <v>239</v>
       </c>
-      <c r="M45" s="51"/>
+      <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="48" t="str">
-        <f>O46 &amp; "."  &amp; P46 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C46), C46, F46), "000")</f>
+      <c r="A46" s="37" t="str">
+        <f t="shared" ref="A46:A52" si="7">O46 &amp; "."  &amp; P46 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C46), C46, F46), "000")</f>
         <v>DC3.DPW.061</v>
       </c>
-      <c r="B46" s="50">
+      <c r="B46" s="16">
         <f>B47-I46</f>
         <v>6.1257849999999987</v>
       </c>
-      <c r="C46" s="50">
+      <c r="C46" s="16">
         <f>B47-I46/2</f>
         <v>6.1307849999999986</v>
       </c>
-      <c r="D46" s="50">
+      <c r="D46" s="16">
         <f>B47</f>
         <v>6.1357849999999985</v>
       </c>
-      <c r="F46" s="50">
+      <c r="F46" s="16">
         <v>5</v>
       </c>
-      <c r="G46" s="49">
+      <c r="G46">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H46" s="49">
+      <c r="H46">
         <v>2.536</v>
       </c>
-      <c r="I46" s="49">
+      <c r="I46">
         <v>0.01</v>
       </c>
-      <c r="J46" s="49">
+      <c r="J46">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O46" s="49" t="s">
+      <c r="O46" t="s">
         <v>252</v>
       </c>
-      <c r="P46" s="49" t="s">
+      <c r="P46" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="48" t="str">
-        <f>O47 &amp; "."  &amp; P47 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C47), C47, F47), "000")</f>
+      <c r="A47" s="37" t="str">
+        <f t="shared" si="7"/>
         <v>DC3.DPH.062</v>
       </c>
-      <c r="B47" s="50">
+      <c r="B47" s="16">
         <f>D44+Sheet1!B25</f>
         <v>6.1357849999999985</v>
       </c>
-      <c r="C47" s="50">
+      <c r="C47" s="16">
         <f>B47+Sheet1!F17/2</f>
         <v>6.1561049999999984</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="16">
         <f>B47+Sheet1!F17</f>
         <v>6.1764249999999983</v>
       </c>
-      <c r="F47" s="50">
+      <c r="F47" s="16">
         <v>5</v>
       </c>
-      <c r="G47" s="49">
+      <c r="G47">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="J47" s="49">
+      <c r="J47">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="L47" s="49" t="s">
+      <c r="L47" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="51">
+      <c r="M47" s="12">
         <v>45</v>
       </c>
-      <c r="N47" s="49" t="s">
+      <c r="N47" t="s">
         <v>335</v>
       </c>
-      <c r="O47" s="49" t="s">
+      <c r="O47" t="s">
         <v>252</v>
       </c>
-      <c r="P47" s="49" t="s">
+      <c r="P47" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="48" t="str">
-        <f>O48 &amp; "."  &amp; P48 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C48), C48, F48), "000")</f>
+      <c r="A48" s="37" t="str">
+        <f t="shared" si="7"/>
         <v>DC3.DPW.062</v>
       </c>
-      <c r="B48" s="50">
+      <c r="B48" s="16">
         <f>D47</f>
         <v>6.1764249999999983</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48" s="16">
         <f>D47+I48/2</f>
         <v>6.1814249999999982</v>
       </c>
-      <c r="D48" s="50">
+      <c r="D48" s="16">
         <f>D47+I48</f>
         <v>6.1864249999999981</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F48" s="16">
         <v>5</v>
       </c>
-      <c r="G48" s="49">
+      <c r="G48">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H48" s="49">
+      <c r="H48">
         <v>2.536</v>
       </c>
-      <c r="I48" s="49">
+      <c r="I48">
         <v>0.01</v>
       </c>
-      <c r="J48" s="49">
+      <c r="J48">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O48" s="49" t="s">
+      <c r="O48" t="s">
         <v>252</v>
       </c>
-      <c r="P48" s="49" t="s">
+      <c r="P48" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="48" t="str">
-        <f>O49 &amp; "."  &amp; P49 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C49), C49, F49), "000")</f>
+      <c r="A49" s="37" t="str">
+        <f t="shared" si="7"/>
         <v>DC3.STV.062</v>
       </c>
-      <c r="B49" s="50">
+      <c r="B49" s="16">
         <f>$D$48</f>
         <v>6.1864249999999981</v>
       </c>
-      <c r="C49" s="50">
-        <f t="shared" ref="C49:D50" si="4">$D$48</f>
+      <c r="C49" s="16">
+        <f t="shared" ref="C49:D50" si="8">$D$48</f>
         <v>6.1864249999999981</v>
       </c>
-      <c r="D49" s="50">
-        <f t="shared" si="4"/>
+      <c r="D49" s="16">
+        <f t="shared" si="8"/>
         <v>6.1864249999999981</v>
       </c>
-      <c r="F49" s="50"/>
-      <c r="L49" s="49" t="s">
+      <c r="F49" s="16"/>
+      <c r="L49" t="s">
         <v>2</v>
       </c>
-      <c r="M49" s="51">
+      <c r="M49" s="12">
         <v>43</v>
       </c>
-      <c r="N49" s="49" t="s">
+      <c r="N49" t="s">
         <v>182</v>
       </c>
-      <c r="O49" s="49" t="s">
+      <c r="O49" t="s">
         <v>252</v>
       </c>
-      <c r="P49" s="49" t="s">
+      <c r="P49" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="48" t="str">
-        <f>O50 &amp; "."  &amp; P50 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C50), C50, F50), "000")</f>
+      <c r="A50" s="37" t="str">
+        <f t="shared" si="7"/>
         <v>DC3.STH.062</v>
       </c>
-      <c r="B50" s="50">
+      <c r="B50" s="16">
         <f>$D$48</f>
         <v>6.1864249999999981</v>
       </c>
-      <c r="C50" s="50">
-        <f t="shared" si="4"/>
+      <c r="C50" s="16">
+        <f t="shared" si="8"/>
         <v>6.1864249999999981</v>
       </c>
-      <c r="D50" s="50">
-        <f t="shared" si="4"/>
+      <c r="D50" s="16">
+        <f t="shared" si="8"/>
         <v>6.1864249999999981</v>
       </c>
-      <c r="F50" s="50"/>
-      <c r="J50" s="49">
+      <c r="F50" s="16"/>
+      <c r="J50">
         <v>2.7E-2</v>
       </c>
-      <c r="L50" s="49" t="s">
+      <c r="L50" t="s">
         <v>5</v>
       </c>
-      <c r="M50" s="51">
+      <c r="M50" s="12">
         <v>44</v>
       </c>
-      <c r="N50" s="49" t="s">
+      <c r="N50" t="s">
         <v>183</v>
       </c>
-      <c r="O50" s="49" t="s">
+      <c r="O50" t="s">
         <v>252</v>
       </c>
-      <c r="P50" s="49" t="s">
+      <c r="P50" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="48" t="str">
-        <f>O51 &amp; "."  &amp; P51 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C51), C51, F51), "000")</f>
+      <c r="A51" s="37" t="str">
+        <f t="shared" si="7"/>
         <v>DC3.QPD.064</v>
       </c>
-      <c r="B51" s="50">
+      <c r="B51" s="16">
         <f>D47+Sheet1!B26</f>
         <v>6.3694649999999982</v>
       </c>
-      <c r="C51" s="50">
+      <c r="C51" s="16">
         <f>B51+Sheet1!$E$3/2</f>
         <v>6.4139149999999985</v>
       </c>
-      <c r="D51" s="50">
+      <c r="D51" s="16">
         <f>B51+Sheet1!$E$3</f>
         <v>6.4583649999999979</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E51">
         <v>2.2557535263548631</v>
       </c>
-      <c r="F51" s="50"/>
-      <c r="J51" s="49">
+      <c r="F51" s="16"/>
+      <c r="J51">
         <v>2.7E-2</v>
       </c>
-      <c r="L51" s="49" t="s">
+      <c r="L51" t="s">
         <v>1</v>
       </c>
-      <c r="M51" s="51">
+      <c r="M51" s="12">
         <v>48</v>
       </c>
-      <c r="N51" s="49" t="s">
+      <c r="N51" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="49" t="s">
+      <c r="O51" t="s">
         <v>252</v>
       </c>
-      <c r="P51" s="49" t="s">
+      <c r="P51" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="48" t="str">
-        <f>O52 &amp; "."  &amp; P52 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C52), C52, F52), "000")</f>
+      <c r="A52" s="37" t="str">
+        <f t="shared" si="7"/>
         <v>DC3.QPF.066</v>
       </c>
-      <c r="B52" s="50">
+      <c r="B52" s="16">
         <f>D51+Sheet1!B27</f>
         <v>6.5577549999999976</v>
       </c>
-      <c r="C52" s="50">
+      <c r="C52" s="16">
         <f>B52+Sheet1!$E$3/2</f>
         <v>6.6022049999999979</v>
       </c>
-      <c r="D52" s="50">
+      <c r="D52" s="16">
         <f>B52+Sheet1!$E$3</f>
         <v>6.6466549999999973</v>
       </c>
-      <c r="E52" s="49">
+      <c r="E52">
         <v>1.6718634001484785</v>
       </c>
-      <c r="F52" s="50"/>
-      <c r="L52" s="49" t="s">
+      <c r="F52" s="16"/>
+      <c r="L52" t="s">
         <v>1</v>
       </c>
-      <c r="M52" s="51">
+      <c r="M52" s="12">
         <v>49</v>
       </c>
-      <c r="N52" s="49" t="s">
+      <c r="N52" t="s">
         <v>35</v>
       </c>
-      <c r="O52" s="49" t="s">
+      <c r="O52" t="s">
         <v>252</v>
       </c>
-      <c r="P52" s="49" t="s">
+      <c r="P52" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="48"/>
-      <c r="B53" s="50">
+      <c r="A53" s="37"/>
+      <c r="B53" s="16">
         <f ca="1">$B$55</f>
         <v>7.110128999999997</v>
       </c>
-      <c r="C53" s="50">
-        <f t="shared" ref="C53:D59" ca="1" si="5">$B$55</f>
+      <c r="C53" s="16">
+        <f t="shared" ref="C53:D59" ca="1" si="9">$B$55</f>
         <v>7.110128999999997</v>
       </c>
-      <c r="D53" s="50">
-        <f t="shared" ca="1" si="5"/>
+      <c r="D53" s="16">
+        <f t="shared" ca="1" si="9"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F53" s="50"/>
-      <c r="L53" s="49" t="s">
+      <c r="F53" s="16"/>
+      <c r="L53" t="s">
         <v>192</v>
       </c>
-      <c r="M53" s="51"/>
-      <c r="N53" s="49" t="s">
+      <c r="M53" s="12"/>
+      <c r="N53" t="s">
         <v>194</v>
       </c>
-      <c r="O53" s="49" t="s">
+      <c r="O53" t="s">
         <v>255</v>
       </c>
-      <c r="P53" s="49" t="s">
+      <c r="P53" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="48"/>
-      <c r="B54" s="50">
+      <c r="A54" s="37"/>
+      <c r="B54" s="16">
         <f ca="1">$B$55</f>
         <v>7.110128999999997</v>
       </c>
-      <c r="C54" s="50">
-        <f t="shared" ca="1" si="5"/>
+      <c r="C54" s="16">
+        <f t="shared" ca="1" si="9"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="D54" s="50">
-        <f t="shared" ca="1" si="5"/>
+      <c r="D54" s="16">
+        <f t="shared" ca="1" si="9"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F54" s="50"/>
-      <c r="L54" s="49" t="s">
+      <c r="F54" s="16"/>
+      <c r="L54" t="s">
         <v>225</v>
       </c>
-      <c r="M54" s="51"/>
-      <c r="N54" s="49" t="s">
+      <c r="M54" s="12"/>
+      <c r="N54" t="s">
         <v>227</v>
       </c>
-      <c r="O54" s="49" t="s">
+      <c r="O54" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="48" t="str">
+      <c r="A55" s="37" t="str">
         <f ca="1">O55 &amp; "."  &amp; P55 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C55), C55, F55), "000")</f>
         <v>IPC.XRS.071</v>
       </c>
-      <c r="B55" s="50">
-        <f t="shared" ref="B55:B59" ca="1" si="6">$B$55</f>
+      <c r="B55" s="16">
+        <f t="shared" ref="B55:B59" ca="1" si="10">$B$55</f>
         <v>7.110128999999997</v>
       </c>
-      <c r="C55" s="50">
-        <f t="shared" ca="1" si="5"/>
+      <c r="C55" s="16">
+        <f t="shared" ca="1" si="9"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="D55" s="50">
-        <f t="shared" ca="1" si="5"/>
+      <c r="D55" s="16">
+        <f t="shared" ca="1" si="9"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F55" s="50"/>
-      <c r="L55" s="49" t="s">
+      <c r="F55" s="16"/>
+      <c r="L55" t="s">
         <v>208</v>
       </c>
-      <c r="M55" s="51"/>
-      <c r="N55" s="49" t="s">
+      <c r="M55" s="12"/>
+      <c r="N55" t="s">
         <v>232</v>
       </c>
-      <c r="O55" s="49" t="s">
+      <c r="O55" t="s">
         <v>255</v>
       </c>
-      <c r="P55" s="49" t="s">
+      <c r="P55" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="48"/>
-      <c r="B56" s="50">
-        <f t="shared" ca="1" si="6"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="16">
+        <f t="shared" ca="1" si="10"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="C56" s="50">
-        <f t="shared" ca="1" si="5"/>
+      <c r="C56" s="16">
+        <f t="shared" ca="1" si="9"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="D56" s="50">
-        <f t="shared" ca="1" si="5"/>
+      <c r="D56" s="16">
+        <f t="shared" ca="1" si="9"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F56" s="50"/>
-      <c r="L56" s="49" t="s">
+      <c r="F56" s="16"/>
+      <c r="L56" t="s">
         <v>191</v>
       </c>
-      <c r="M56" s="51"/>
-      <c r="N56" s="49" t="s">
+      <c r="M56" s="12"/>
+      <c r="N56" t="s">
         <v>229</v>
       </c>
-      <c r="O56" s="49" t="s">
+      <c r="O56" t="s">
         <v>255</v>
       </c>
-      <c r="P56" s="49" t="s">
+      <c r="P56" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="48"/>
-      <c r="B57" s="50">
-        <f t="shared" ca="1" si="6"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="16">
+        <f t="shared" ca="1" si="10"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="C57" s="50">
-        <f t="shared" ca="1" si="5"/>
+      <c r="C57" s="16">
+        <f t="shared" ca="1" si="9"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="D57" s="50">
-        <f t="shared" ca="1" si="5"/>
+      <c r="D57" s="16">
+        <f t="shared" ca="1" si="9"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F57" s="50"/>
-      <c r="L57" s="49" t="s">
+      <c r="F57" s="16"/>
+      <c r="L57" t="s">
         <v>230</v>
       </c>
-      <c r="M57" s="51"/>
-      <c r="N57" s="49" t="s">
+      <c r="M57" s="12"/>
+      <c r="N57" t="s">
         <v>231</v>
       </c>
-      <c r="O57" s="49" t="s">
+      <c r="O57" t="s">
         <v>255</v>
       </c>
-      <c r="P57" s="49" t="s">
+      <c r="P57" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="48"/>
-      <c r="B58" s="50">
-        <f t="shared" ca="1" si="6"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="16">
+        <f t="shared" ca="1" si="10"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="C58" s="50">
-        <f t="shared" ca="1" si="5"/>
+      <c r="C58" s="16">
+        <f t="shared" ca="1" si="9"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="D58" s="50">
-        <f t="shared" ca="1" si="5"/>
+      <c r="D58" s="16">
+        <f t="shared" ca="1" si="9"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F58" s="50"/>
-      <c r="L58" s="49" t="s">
+      <c r="F58" s="16"/>
+      <c r="L58" t="s">
         <v>226</v>
       </c>
-      <c r="M58" s="51"/>
-      <c r="N58" s="49" t="s">
+      <c r="M58" s="12"/>
+      <c r="N58" t="s">
         <v>228</v>
       </c>
-      <c r="O58" s="49" t="s">
+      <c r="O58" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="48" t="str">
-        <f ca="1">O59 &amp; "."  &amp; P59 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C59), C59, F59), "000")</f>
+      <c r="A59" s="37" t="str">
+        <f t="shared" ref="A59:A65" ca="1" si="11">O59 &amp; "."  &amp; P59 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C59), C59, F59), "000")</f>
         <v>DC4.STV.000</v>
       </c>
-      <c r="B59" s="50">
-        <f t="shared" ca="1" si="6"/>
+      <c r="B59" s="16">
+        <f t="shared" ca="1" si="10"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="C59" s="50">
-        <f t="shared" ca="1" si="5"/>
+      <c r="C59" s="16">
+        <f t="shared" ca="1" si="9"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="D59" s="50">
-        <f t="shared" ca="1" si="5"/>
+      <c r="D59" s="16">
+        <f t="shared" ca="1" si="9"/>
         <v>7.110128999999997</v>
       </c>
-      <c r="F59" s="50"/>
-      <c r="L59" s="52" t="s">
+      <c r="F59" s="16"/>
+      <c r="L59" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M59" s="53">
+      <c r="M59" s="23">
         <v>51</v>
       </c>
-      <c r="N59" s="52" t="s">
+      <c r="N59" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="O59" s="49" t="s">
+      <c r="O59" t="s">
         <v>253</v>
       </c>
-      <c r="P59" s="49" t="s">
+      <c r="P59" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="48" t="str">
-        <f ca="1">O60 &amp; "."  &amp; P60 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C60), C60, F60), "000")</f>
+      <c r="A60" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>DC4.QPF.074</v>
       </c>
-      <c r="B60" s="50">
+      <c r="B60" s="16">
         <f ca="1">D55+Sheet1!B29</f>
         <v>7.3256199999999971</v>
       </c>
-      <c r="C60" s="50">
+      <c r="C60" s="16">
         <f ca="1">B60+Sheet1!$E$3/2</f>
         <v>7.3700699999999975</v>
       </c>
-      <c r="D60" s="50">
+      <c r="D60" s="16">
         <f ca="1">B60+Sheet1!$E$3</f>
         <v>7.4145199999999969</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60">
         <v>2.4870081662954718E-2</v>
       </c>
-      <c r="F60" s="50"/>
-      <c r="J60" s="49">
+      <c r="F60" s="16"/>
+      <c r="J60">
         <v>2.7E-2</v>
       </c>
-      <c r="L60" s="49" t="s">
+      <c r="L60" t="s">
         <v>1</v>
       </c>
-      <c r="M60" s="53">
+      <c r="M60" s="23">
         <v>50</v>
       </c>
-      <c r="N60" s="49" t="s">
+      <c r="N60" t="s">
         <v>166</v>
       </c>
-      <c r="O60" s="49" t="s">
+      <c r="O60" t="s">
         <v>253</v>
       </c>
-      <c r="P60" s="49" t="s">
+      <c r="P60" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="48" t="str">
-        <f ca="1">O61 &amp; "."  &amp; P61 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C61), C61, F61), "000")</f>
+      <c r="A61" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>DC4.QPD.075</v>
       </c>
-      <c r="B61" s="50">
+      <c r="B61" s="16">
         <f ca="1">D60+Sheet1!B30</f>
         <v>7.4699199999999966</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61" s="16">
         <f ca="1">B61+Sheet1!$E$3/2</f>
         <v>7.5143699999999969</v>
       </c>
-      <c r="D61" s="50">
+      <c r="D61" s="16">
         <f ca="1">B61+Sheet1!$E$3</f>
         <v>7.5588199999999963</v>
       </c>
-      <c r="E61" s="49">
+      <c r="E61">
         <v>1E-3</v>
       </c>
-      <c r="F61" s="50"/>
-      <c r="J61" s="49">
+      <c r="F61" s="16"/>
+      <c r="J61">
         <v>2.7E-2</v>
       </c>
-      <c r="L61" s="52" t="s">
+      <c r="L61" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="M61" s="53">
+      <c r="M61" s="23">
         <v>59</v>
       </c>
-      <c r="N61" s="52" t="s">
+      <c r="N61" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="O61" s="49" t="s">
+      <c r="O61" t="s">
         <v>253</v>
       </c>
-      <c r="P61" s="49" t="s">
+      <c r="P61" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="48" t="str">
-        <f ca="1">O62 &amp; "."  &amp; P62 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C62), C62, F62), "000")</f>
+      <c r="A62" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>DC4.OTR.078</v>
       </c>
-      <c r="B62" s="50">
+      <c r="B62" s="16">
         <f ca="1">D61+Sheet1!B31</f>
         <v>7.773068999999996</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62" s="16">
         <f ca="1">B62</f>
         <v>7.773068999999996</v>
       </c>
-      <c r="D62" s="50">
+      <c r="D62" s="16">
         <f ca="1">B62</f>
         <v>7.773068999999996</v>
       </c>
-      <c r="F62" s="50"/>
-      <c r="L62" s="49" t="s">
+      <c r="F62" s="16"/>
+      <c r="L62" t="s">
         <v>191</v>
       </c>
-      <c r="M62" s="51"/>
-      <c r="N62" s="49" t="s">
+      <c r="M62" s="12"/>
+      <c r="N62" t="s">
         <v>223</v>
       </c>
-      <c r="O62" s="49" t="s">
+      <c r="O62" t="s">
         <v>253</v>
       </c>
-      <c r="P62" s="49" t="s">
+      <c r="P62" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="48" t="str">
-        <f ca="1">O63 &amp; "."  &amp; P63 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C63), C63, F63), "000")</f>
+      <c r="A63" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>DC4.DPW.078</v>
       </c>
-      <c r="B63" s="50">
+      <c r="B63" s="16">
         <f ca="1">B64-I63</f>
         <v>7.8409199999999961</v>
       </c>
-      <c r="C63" s="50">
+      <c r="C63" s="16">
         <f ca="1">B64-I63/2</f>
         <v>7.845919999999996</v>
       </c>
-      <c r="D63" s="50">
+      <c r="D63" s="16">
         <f ca="1">B64</f>
         <v>7.8509199999999959</v>
       </c>
-      <c r="F63" s="50">
+      <c r="F63" s="16">
         <v>-4</v>
       </c>
-      <c r="G63" s="49">
+      <c r="G63">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H63" s="49">
+      <c r="H63">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I63" s="49">
+      <c r="I63">
         <v>0.01</v>
       </c>
-      <c r="J63" s="49">
+      <c r="J63">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O63" s="49" t="s">
+      <c r="O63" t="s">
         <v>253</v>
       </c>
-      <c r="P63" s="49" t="s">
+      <c r="P63" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="48" t="str">
-        <f ca="1">O64 &amp; "."  &amp; P64 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C64), C64, F64), "000")</f>
+      <c r="A64" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>DC4.DPH.079</v>
       </c>
-      <c r="B64" s="50">
+      <c r="B64" s="16">
         <f ca="1">D62+Sheet1!B32</f>
         <v>7.8509199999999959</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64" s="16">
         <f ca="1">B64+Sheet1!F18/2</f>
         <v>7.8712399999999958</v>
       </c>
-      <c r="D64" s="50">
+      <c r="D64" s="16">
         <f ca="1">B64+Sheet1!F18</f>
         <v>7.8915599999999957</v>
       </c>
-      <c r="F64" s="50">
+      <c r="F64" s="16">
         <v>-4</v>
       </c>
-      <c r="G64" s="49">
+      <c r="G64">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="J64" s="49">
+      <c r="J64">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="L64" s="49" t="s">
+      <c r="L64" t="s">
         <v>11</v>
       </c>
-      <c r="M64" s="51">
+      <c r="M64" s="12">
         <v>52</v>
       </c>
-      <c r="N64" s="49" t="s">
+      <c r="N64" t="s">
         <v>332</v>
       </c>
-      <c r="O64" s="49" t="s">
+      <c r="O64" t="s">
         <v>253</v>
       </c>
-      <c r="P64" s="49" t="s">
+      <c r="P64" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A65" s="48" t="str">
-        <f ca="1">O65 &amp; "."  &amp; P65 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C65), C65, F65), "000")</f>
+      <c r="A65" s="37" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>DC4.DPW.079</v>
       </c>
-      <c r="B65" s="50">
+      <c r="B65" s="16">
         <f ca="1">D64</f>
         <v>7.8915599999999957</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="16">
         <f ca="1">D64+I65/2</f>
         <v>7.8965599999999956</v>
       </c>
-      <c r="D65" s="50">
+      <c r="D65" s="16">
         <f ca="1">D64+I65</f>
         <v>7.9015599999999955</v>
       </c>
-      <c r="F65" s="50">
+      <c r="F65" s="16">
         <v>-4</v>
       </c>
-      <c r="G65" s="49">
+      <c r="G65">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H65" s="49">
+      <c r="H65">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I65" s="49">
+      <c r="I65">
         <v>0.01</v>
       </c>
-      <c r="J65" s="49">
+      <c r="J65">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O65" s="49" t="s">
+      <c r="O65" t="s">
         <v>253</v>
       </c>
-      <c r="P65" s="49" t="s">
+      <c r="P65" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66" s="48"/>
-      <c r="B66" s="50">
+      <c r="A66" s="37"/>
+      <c r="B66" s="16">
         <f ca="1">B65+G66</f>
         <v>7.9015599999999955</v>
       </c>
-      <c r="C66" s="50">
+      <c r="C66" s="16">
         <f ca="1">C65+H66</f>
         <v>7.9015599999999955</v>
       </c>
-      <c r="D66" s="50">
+      <c r="D66" s="16">
         <f ca="1">D65+I66</f>
         <v>7.9015599999999955</v>
       </c>
-      <c r="F66" s="50"/>
-      <c r="L66" s="49" t="s">
+      <c r="F66" s="16"/>
+      <c r="L66" t="s">
         <v>239</v>
       </c>
-      <c r="M66" s="51"/>
+      <c r="M66" s="12"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="48" t="str">
+      <c r="A67" s="37" t="str">
         <f ca="1">O67 &amp; "."  &amp; P67 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C67), C67, F67), "000")</f>
         <v>DC4.QPF.082</v>
       </c>
-      <c r="B67" s="50">
+      <c r="B67" s="16">
         <f ca="1">D64+Sheet1!B33</f>
         <v>8.107489999999995</v>
       </c>
-      <c r="C67" s="50">
+      <c r="C67" s="16">
         <f ca="1">B67+Sheet1!$E$3/2</f>
         <v>8.1519399999999944</v>
       </c>
-      <c r="D67" s="50">
+      <c r="D67" s="16">
         <f ca="1">B67+Sheet1!$E$3</f>
         <v>8.1963899999999956</v>
       </c>
-      <c r="E67" s="49">
+      <c r="E67">
         <v>4.4914625092798817</v>
       </c>
-      <c r="F67" s="50"/>
-      <c r="J67" s="49">
+      <c r="F67" s="16"/>
+      <c r="J67">
         <v>2.7E-2</v>
       </c>
-      <c r="L67" s="49" t="s">
+      <c r="L67" t="s">
         <v>4</v>
       </c>
-      <c r="M67" s="51">
+      <c r="M67" s="12">
         <v>53</v>
       </c>
-      <c r="N67" s="49" t="s">
+      <c r="N67" t="s">
         <v>334</v>
       </c>
-      <c r="O67" s="49" t="s">
+      <c r="O67" t="s">
         <v>253</v>
       </c>
-      <c r="P67" s="49" t="s">
+      <c r="P67" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68" s="48"/>
-      <c r="B68" s="50">
+      <c r="A68" s="37"/>
+      <c r="B68" s="16">
         <v>8.1963899999999956</v>
       </c>
-      <c r="C68" s="50">
+      <c r="C68" s="16">
         <v>8.1963899999999956</v>
       </c>
-      <c r="D68" s="50">
+      <c r="D68" s="16">
         <v>8.1963899999999956</v>
       </c>
-      <c r="F68" s="50"/>
-      <c r="L68" s="49" t="s">
+      <c r="F68" s="16"/>
+      <c r="L68" t="s">
         <v>239</v>
       </c>
-      <c r="M68" s="51"/>
+      <c r="M68" s="12"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69" s="48" t="str">
-        <f ca="1">O69 &amp; "."  &amp; P69 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C69), C69, F69), "000")</f>
+      <c r="A69" s="37" t="str">
+        <f t="shared" ref="A69:A74" ca="1" si="12">O69 &amp; "."  &amp; P69 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C69), C69, F69), "000")</f>
         <v>DC4.DPW.084</v>
       </c>
-      <c r="B69" s="50">
+      <c r="B69" s="16">
         <f ca="1">B70-I69</f>
         <v>8.402319999999996</v>
       </c>
-      <c r="C69" s="50">
+      <c r="C69" s="16">
         <f ca="1">B70-I69/2</f>
         <v>8.407319999999995</v>
       </c>
-      <c r="D69" s="50">
+      <c r="D69" s="16">
         <f ca="1">B70</f>
         <v>8.4123199999999958</v>
       </c>
-      <c r="F69" s="50">
+      <c r="F69" s="16">
         <v>-4</v>
       </c>
-      <c r="G69" s="49">
+      <c r="G69">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H69" s="49">
+      <c r="H69">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I69" s="49">
+      <c r="I69">
         <v>0.01</v>
       </c>
-      <c r="J69" s="49">
+      <c r="J69">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O69" s="49" t="s">
+      <c r="O69" t="s">
         <v>253</v>
       </c>
-      <c r="P69" s="49" t="s">
+      <c r="P69" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" s="48" t="str">
-        <f ca="1">O70 &amp; "."  &amp; P70 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C70), C70, F70), "000")</f>
+      <c r="A70" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>DC4.DPH.084</v>
       </c>
-      <c r="B70" s="50">
+      <c r="B70" s="16">
         <f ca="1">D67+Sheet1!B34</f>
         <v>8.4123199999999958</v>
       </c>
-      <c r="C70" s="50">
+      <c r="C70" s="16">
         <f ca="1">B70+Sheet1!F19/2</f>
         <v>8.4326399999999957</v>
       </c>
-      <c r="D70" s="50">
+      <c r="D70" s="16">
         <f ca="1">B70+Sheet1!F19</f>
         <v>8.4529599999999956</v>
       </c>
-      <c r="F70" s="50">
+      <c r="F70" s="16">
         <v>-4</v>
       </c>
-      <c r="G70" s="49">
+      <c r="G70">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="J70" s="49">
+      <c r="J70">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="L70" s="49" t="s">
+      <c r="L70" t="s">
         <v>12</v>
       </c>
-      <c r="M70" s="51">
+      <c r="M70" s="12">
         <v>52</v>
       </c>
-      <c r="N70" s="49" t="s">
+      <c r="N70" t="s">
         <v>335</v>
       </c>
-      <c r="O70" s="49" t="s">
+      <c r="O70" t="s">
         <v>253</v>
       </c>
-      <c r="P70" s="49" t="s">
+      <c r="P70" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" s="48" t="str">
-        <f ca="1">O71 &amp; "."  &amp; P71 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C71), C71, F71), "000")</f>
+      <c r="A71" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>DC4.DPW.085</v>
       </c>
-      <c r="B71" s="50">
+      <c r="B71" s="16">
         <f ca="1">D70</f>
         <v>8.4529599999999956</v>
       </c>
-      <c r="C71" s="50">
+      <c r="C71" s="16">
         <f ca="1">D70+I71/2</f>
         <v>8.4579599999999964</v>
       </c>
-      <c r="D71" s="50">
+      <c r="D71" s="16">
         <f ca="1">D70+I71</f>
         <v>8.4629599999999954</v>
       </c>
-      <c r="F71" s="50">
+      <c r="F71" s="16">
         <v>-4</v>
       </c>
-      <c r="G71" s="49">
+      <c r="G71">
         <v>4.0640000000000003E-2</v>
       </c>
-      <c r="H71" s="49">
+      <c r="H71">
         <v>2.0179999999999998</v>
       </c>
-      <c r="I71" s="49">
+      <c r="I71">
         <v>0.01</v>
       </c>
-      <c r="J71" s="49">
+      <c r="J71">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O71" s="49" t="s">
+      <c r="O71" t="s">
         <v>253</v>
       </c>
-      <c r="P71" s="49" t="s">
+      <c r="P71" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72" s="48" t="str">
-        <f ca="1">O72 &amp; "."  &amp; P72 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C72), C72, F72), "000")</f>
+      <c r="A72" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>DC4.QPF.087</v>
       </c>
-      <c r="B72" s="50">
+      <c r="B72" s="16">
         <f ca="1">D70+Sheet1!B35</f>
         <v>8.6076859999999957</v>
       </c>
-      <c r="C72" s="50">
+      <c r="C72" s="16">
         <f ca="1">B72+Sheet1!$E$3/2</f>
         <v>8.6521359999999952</v>
       </c>
-      <c r="D72" s="50">
+      <c r="D72" s="16">
         <f ca="1">B72+Sheet1!$E$3</f>
         <v>8.6965859999999964</v>
       </c>
-      <c r="E72" s="49">
+      <c r="E72">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F72" s="50"/>
-      <c r="J72" s="49">
+      <c r="F72" s="16"/>
+      <c r="J72">
         <v>2.7E-2</v>
       </c>
-      <c r="L72" s="49" t="s">
+      <c r="L72" t="s">
         <v>1</v>
       </c>
-      <c r="M72" s="51">
+      <c r="M72" s="12">
         <v>56</v>
       </c>
-      <c r="N72" s="49" t="s">
+      <c r="N72" t="s">
         <v>38</v>
       </c>
-      <c r="O72" s="49" t="s">
+      <c r="O72" t="s">
         <v>253</v>
       </c>
-      <c r="P72" s="49" t="s">
+      <c r="P72" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A73" s="48" t="str">
-        <f ca="1">O73 &amp; "."  &amp; P73 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C73), C73, F73), "000")</f>
+      <c r="A73" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>DC4.QPD.088</v>
       </c>
-      <c r="B73" s="50">
+      <c r="B73" s="16">
         <f ca="1">D72+Sheet1!B36</f>
         <v>8.7327809999999957</v>
       </c>
-      <c r="C73" s="50">
+      <c r="C73" s="16">
         <f ca="1">B73+Sheet1!$E$3/2</f>
         <v>8.7772309999999951</v>
       </c>
-      <c r="D73" s="50">
+      <c r="D73" s="16">
         <f ca="1">B73+Sheet1!$E$3</f>
         <v>8.8216809999999963</v>
       </c>
-      <c r="E73" s="49">
+      <c r="E73">
         <v>3.5</v>
       </c>
-      <c r="F73" s="50"/>
-      <c r="J73" s="49">
+      <c r="F73" s="16"/>
+      <c r="J73">
         <v>2.7E-2</v>
       </c>
-      <c r="L73" s="49" t="s">
+      <c r="L73" t="s">
         <v>1</v>
       </c>
-      <c r="M73" s="51">
+      <c r="M73" s="12">
         <v>57</v>
       </c>
-      <c r="N73" s="49" t="s">
+      <c r="N73" t="s">
         <v>39</v>
       </c>
-      <c r="O73" s="49" t="s">
+      <c r="O73" t="s">
         <v>253</v>
       </c>
-      <c r="P73" s="49" t="s">
+      <c r="P73" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74" s="48" t="str">
-        <f ca="1">O74 &amp; "."  &amp; P74 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C74), C74, F74), "000")</f>
+      <c r="A74" s="37" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>DC4.QPF.089</v>
       </c>
-      <c r="B74" s="50">
+      <c r="B74" s="16">
         <f ca="1">D73+Sheet1!B37</f>
         <v>8.8578759999999956</v>
       </c>
-      <c r="C74" s="50">
+      <c r="C74" s="16">
         <f ca="1">B74+Sheet1!$E$3/2</f>
         <v>8.9023259999999951</v>
       </c>
-      <c r="D74" s="50">
+      <c r="D74" s="16">
         <f ca="1">B74+Sheet1!$E$3</f>
         <v>8.9467759999999963</v>
       </c>
-      <c r="E74" s="49">
+      <c r="E74">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F74" s="50"/>
-      <c r="J74" s="49">
+      <c r="F74" s="16"/>
+      <c r="J74">
         <v>2.7E-2</v>
       </c>
-      <c r="L74" s="49" t="s">
+      <c r="L74" t="s">
         <v>1</v>
       </c>
-      <c r="M74" s="51">
+      <c r="M74" s="12">
         <v>58</v>
       </c>
-      <c r="N74" s="49" t="s">
+      <c r="N74" t="s">
         <v>40</v>
       </c>
-      <c r="O74" s="49" t="s">
+      <c r="O74" t="s">
         <v>253</v>
       </c>
-      <c r="P74" s="49" t="s">
+      <c r="P74" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" s="48"/>
-      <c r="B75" s="50">
+      <c r="A75" s="37"/>
+      <c r="B75" s="16">
         <v>8.9467759999999963</v>
       </c>
-      <c r="C75" s="50">
+      <c r="C75" s="16">
         <v>8.9467759999999963</v>
       </c>
-      <c r="D75" s="50">
+      <c r="D75" s="16">
         <v>8.9467759999999963</v>
       </c>
-      <c r="F75" s="50"/>
-      <c r="L75" s="52" t="s">
+      <c r="F75" s="16"/>
+      <c r="L75" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M75" s="51"/>
-      <c r="O75" s="49" t="s">
+      <c r="M75" s="12"/>
+      <c r="O75" t="s">
         <v>253</v>
       </c>
-      <c r="P75" s="49" t="s">
+      <c r="P75" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76" s="48" t="str">
+      <c r="A76" s="37" t="str">
         <f>O76 &amp; "."  &amp; P76 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C76), C76, F76), "000")</f>
         <v>DC4.STV.089</v>
       </c>
-      <c r="B76" s="50">
+      <c r="B76" s="16">
         <v>8.9467759999999963</v>
       </c>
-      <c r="C76" s="50">
+      <c r="C76" s="16">
         <v>8.9467759999999963</v>
       </c>
-      <c r="D76" s="50">
+      <c r="D76" s="16">
         <v>8.9467759999999963</v>
       </c>
-      <c r="F76" s="50"/>
-      <c r="L76" s="49" t="s">
+      <c r="F76" s="16"/>
+      <c r="L76" t="s">
         <v>2</v>
       </c>
-      <c r="M76" s="51">
+      <c r="M76" s="12">
         <v>60</v>
       </c>
-      <c r="N76" s="49" t="s">
+      <c r="N76" t="s">
         <v>185</v>
       </c>
-      <c r="O76" s="49" t="s">
+      <c r="O76" t="s">
         <v>253</v>
       </c>
-      <c r="P76" s="49" t="s">
+      <c r="P76" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" s="48"/>
-      <c r="B77" s="50">
+      <c r="A77" s="37"/>
+      <c r="B77" s="16">
         <v>8.9467759999999963</v>
       </c>
-      <c r="C77" s="50">
+      <c r="C77" s="16">
         <v>8.9467759999999963</v>
       </c>
-      <c r="D77" s="50">
+      <c r="D77" s="16">
         <v>8.9467759999999963</v>
       </c>
-      <c r="F77" s="50"/>
-      <c r="L77" s="49" t="s">
+      <c r="F77" s="16"/>
+      <c r="L77" t="s">
         <v>192</v>
       </c>
-      <c r="M77" s="51"/>
-      <c r="N77" s="49" t="s">
+      <c r="M77" s="12"/>
+      <c r="N77" t="s">
         <v>195</v>
       </c>
-      <c r="O77" s="49" t="s">
+      <c r="O77" t="s">
         <v>253</v>
       </c>
-      <c r="P77" s="49" t="s">
+      <c r="P77" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78" s="48" t="str">
+      <c r="A78" s="37" t="str">
         <f ca="1">O78 &amp; "."  &amp; P78 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C78), C78, F78), "000")</f>
         <v>DC5.OTR.092</v>
       </c>
-      <c r="B78" s="50">
+      <c r="B78" s="16">
         <f ca="1">D74+Sheet1!B38</f>
         <v>9.2223659999999956</v>
       </c>
-      <c r="C78" s="50">
+      <c r="C78" s="16">
         <f ca="1">B78</f>
         <v>9.2223659999999956</v>
       </c>
-      <c r="D78" s="50">
+      <c r="D78" s="16">
         <f ca="1">B78</f>
         <v>9.2223659999999956</v>
       </c>
-      <c r="F78" s="50"/>
-      <c r="L78" s="49" t="s">
+      <c r="F78" s="16"/>
+      <c r="L78" t="s">
         <v>191</v>
       </c>
-      <c r="M78" s="51"/>
-      <c r="N78" s="49" t="s">
+      <c r="M78" s="12"/>
+      <c r="N78" t="s">
         <v>224</v>
       </c>
-      <c r="O78" s="49" t="s">
+      <c r="O78" t="s">
         <v>254</v>
       </c>
-      <c r="P78" s="49" t="s">
+      <c r="P78" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79" s="48" t="str">
+      <c r="A79" s="37" t="str">
         <f ca="1">O79 &amp; "."  &amp; P79 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C79), C79, F79), "000")</f>
         <v>DC5.DPW.093</v>
       </c>
-      <c r="B79" s="50">
+      <c r="B79" s="16">
         <f ca="1">B80-I79</f>
         <v>9.2937729999999963</v>
       </c>
-      <c r="C79" s="50">
+      <c r="C79" s="16">
         <f ca="1">B80-I79/2</f>
         <v>9.2987729999999953</v>
       </c>
-      <c r="D79" s="50">
+      <c r="D79" s="16">
         <f ca="1">B80</f>
         <v>9.3037729999999961</v>
       </c>
-      <c r="F79" s="50">
+      <c r="F79" s="16">
         <v>1.5</v>
       </c>
-      <c r="G79" s="49">
+      <c r="G79">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H79" s="49">
+      <c r="H79">
         <v>0.75</v>
       </c>
-      <c r="I79" s="49">
+      <c r="I79">
         <v>0.01</v>
       </c>
-      <c r="J79" s="49">
+      <c r="J79">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O79" s="49" t="s">
+      <c r="O79" t="s">
         <v>254</v>
       </c>
-      <c r="P79" s="49" t="s">
+      <c r="P79" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" s="48" t="str">
+      <c r="A80" s="37" t="str">
         <f ca="1">O80 &amp; "."  &amp; P80 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C80), C80, F80), "000")</f>
         <v>DC5.DPH.093</v>
       </c>
-      <c r="B80" s="50">
+      <c r="B80" s="16">
         <f ca="1">D78+Sheet1!B39</f>
         <v>9.3037729999999961</v>
       </c>
-      <c r="C80" s="50">
+      <c r="C80" s="16">
         <f ca="1">B80+Sheet1!F20/2</f>
         <v>9.3482229999999955</v>
       </c>
-      <c r="D80" s="50">
+      <c r="D80" s="16">
         <f ca="1">B80+Sheet1!F20</f>
         <v>9.3926729999999967</v>
       </c>
-      <c r="F80" s="50">
+      <c r="F80" s="16">
         <v>1.5</v>
       </c>
-      <c r="G80" s="49">
+      <c r="G80">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="J80" s="49">
+      <c r="J80">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="L80" s="49" t="s">
+      <c r="L80" t="s">
         <v>13</v>
       </c>
-      <c r="M80" s="51">
+      <c r="M80" s="12">
         <v>61</v>
       </c>
-      <c r="N80" s="49" t="s">
+      <c r="N80" t="s">
         <v>332</v>
       </c>
-      <c r="O80" s="49" t="s">
+      <c r="O80" t="s">
         <v>254</v>
       </c>
-      <c r="P80" s="49" t="s">
+      <c r="P80" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81" s="48" t="str">
+      <c r="A81" s="37" t="str">
         <f ca="1">O81 &amp; "."  &amp; P81 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C81), C81, F81), "000")</f>
         <v>DC5.DPW.094</v>
       </c>
-      <c r="B81" s="50">
+      <c r="B81" s="16">
         <f ca="1">D80</f>
         <v>9.3926729999999967</v>
       </c>
-      <c r="C81" s="50">
+      <c r="C81" s="16">
         <f ca="1">D80+I81/2</f>
         <v>9.3976729999999975</v>
       </c>
-      <c r="D81" s="50">
+      <c r="D81" s="16">
         <f ca="1">D80+I81</f>
         <v>9.4026729999999965</v>
       </c>
-      <c r="F81" s="50">
+      <c r="F81" s="16">
         <v>1.5</v>
       </c>
-      <c r="G81" s="49">
+      <c r="G81">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H81" s="49">
+      <c r="H81">
         <v>0.75</v>
       </c>
-      <c r="I81" s="49">
+      <c r="I81">
         <v>0.01</v>
       </c>
-      <c r="J81" s="49">
+      <c r="J81">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O81" s="49" t="s">
+      <c r="O81" t="s">
         <v>254</v>
       </c>
-      <c r="P81" s="49" t="s">
+      <c r="P81" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82" s="48"/>
-      <c r="B82" s="50">
+      <c r="A82" s="37"/>
+      <c r="B82" s="16">
         <f ca="1">B81+G82</f>
         <v>9.4026729999999965</v>
       </c>
-      <c r="C82" s="50">
+      <c r="C82" s="16">
         <f ca="1">C81+H82</f>
         <v>9.4026729999999965</v>
       </c>
-      <c r="D82" s="50">
+      <c r="D82" s="16">
         <f ca="1">D81+I82</f>
         <v>9.4026729999999965</v>
       </c>
-      <c r="F82" s="50"/>
-      <c r="L82" s="52" t="s">
+      <c r="F82" s="16"/>
+      <c r="L82" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M82" s="51"/>
-      <c r="O82" s="49" t="s">
+      <c r="M82" s="12"/>
+      <c r="O82" t="s">
         <v>254</v>
       </c>
-      <c r="P82" s="49" t="s">
+      <c r="P82" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83" s="48" t="str">
+      <c r="A83" s="37" t="str">
         <f ca="1">O83 &amp; "."  &amp; P83 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C83), C83, F83), "000")</f>
         <v>DC5.QPF.097</v>
       </c>
-      <c r="B83" s="50">
+      <c r="B83" s="16">
         <f ca="1">D80+Sheet1!B40</f>
         <v>9.6288929999999961</v>
       </c>
-      <c r="C83" s="50">
+      <c r="C83" s="16">
         <f ca="1">B83+Sheet1!$E$3/2</f>
         <v>9.6733429999999956</v>
       </c>
-      <c r="D83" s="50">
+      <c r="D83" s="16">
         <f ca="1">B83+Sheet1!$E$3</f>
         <v>9.7177929999999968</v>
       </c>
-      <c r="E83" s="49">
+      <c r="E83">
         <v>3.8166035634743878</v>
       </c>
-      <c r="F83" s="50"/>
-      <c r="J83" s="49">
+      <c r="F83" s="16"/>
+      <c r="J83">
         <v>2.7E-2</v>
       </c>
-      <c r="L83" s="49" t="s">
+      <c r="L83" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="51"/>
-      <c r="N83" s="49" t="s">
+      <c r="M83" s="12"/>
+      <c r="N83" t="s">
         <v>334</v>
       </c>
-      <c r="O83" s="49" t="s">
+      <c r="O83" t="s">
         <v>254</v>
       </c>
-      <c r="P83" s="49" t="s">
+      <c r="P83" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" s="48"/>
-      <c r="B84" s="50">
+      <c r="A84" s="37"/>
+      <c r="B84" s="16">
         <v>9.7177929999999968</v>
       </c>
-      <c r="C84" s="50">
+      <c r="C84" s="16">
         <v>9.7177929999999968</v>
       </c>
-      <c r="D84" s="50">
+      <c r="D84" s="16">
         <v>9.7177929999999968</v>
       </c>
-      <c r="F84" s="50"/>
-      <c r="L84" s="52" t="s">
+      <c r="F84" s="16"/>
+      <c r="L84" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M84" s="51"/>
-      <c r="O84" s="49" t="s">
+      <c r="M84" s="12"/>
+      <c r="O84" t="s">
         <v>254</v>
       </c>
-      <c r="P84" s="49" t="s">
+      <c r="P84" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" s="48" t="str">
+      <c r="A85" s="37" t="str">
         <f ca="1">O85 &amp; "."  &amp; P85 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C85), C85, F85), "000")</f>
         <v>DC5.DPW.099</v>
       </c>
-      <c r="B85" s="50">
+      <c r="B85" s="16">
         <f ca="1">B86-I85</f>
         <v>9.9440129999999964</v>
       </c>
-      <c r="C85" s="50">
+      <c r="C85" s="16">
         <f ca="1">B86-I85/2</f>
         <v>9.9490129999999954</v>
       </c>
-      <c r="D85" s="50">
+      <c r="D85" s="16">
         <f ca="1">B86</f>
         <v>9.9540129999999962</v>
       </c>
-      <c r="F85" s="50">
+      <c r="F85" s="16">
         <v>1.5</v>
       </c>
-      <c r="G85" s="49">
+      <c r="G85">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H85" s="49">
+      <c r="H85">
         <v>1.5</v>
       </c>
-      <c r="I85" s="49">
+      <c r="I85">
         <v>0.01</v>
       </c>
-      <c r="J85" s="49">
+      <c r="J85">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O85" s="49" t="s">
+      <c r="O85" t="s">
         <v>254</v>
       </c>
-      <c r="P85" s="49" t="s">
+      <c r="P85" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86" s="48" t="str">
+      <c r="A86" s="37" t="str">
         <f ca="1">O86 &amp; "."  &amp; P86 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C86), C86, F86), "000")</f>
         <v>DC5.DPH.100</v>
       </c>
-      <c r="B86" s="50">
+      <c r="B86" s="16">
         <f ca="1">D83+Sheet1!B41</f>
         <v>9.9540129999999962</v>
       </c>
-      <c r="C86" s="50">
+      <c r="C86" s="16">
         <f ca="1">B86+Sheet1!F21/2</f>
         <v>9.9984629999999957</v>
       </c>
-      <c r="D86" s="50">
+      <c r="D86" s="16">
         <f ca="1">B86+Sheet1!F21</f>
         <v>10.042912999999997</v>
       </c>
-      <c r="F86" s="50">
+      <c r="F86" s="16">
         <v>1.5</v>
       </c>
-      <c r="G86" s="49">
+      <c r="G86">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="J86" s="49">
+      <c r="J86">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="L86" s="49" t="s">
+      <c r="L86" t="s">
         <v>14</v>
       </c>
-      <c r="M86" s="51">
+      <c r="M86" s="12">
         <v>61</v>
       </c>
-      <c r="N86" s="49" t="s">
+      <c r="N86" t="s">
         <v>335</v>
       </c>
-      <c r="O86" s="49" t="s">
+      <c r="O86" t="s">
         <v>254</v>
       </c>
-      <c r="P86" s="49" t="s">
+      <c r="P86" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" s="48" t="str">
+      <c r="A87" s="37" t="str">
         <f ca="1">O87 &amp; "."  &amp; P87 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C87), C87, F87), "000")</f>
         <v>DC5.DPW.100</v>
       </c>
-      <c r="B87" s="50">
+      <c r="B87" s="16">
         <f ca="1">D86</f>
         <v>10.042912999999997</v>
       </c>
-      <c r="C87" s="50">
+      <c r="C87" s="16">
         <f ca="1">D86+I87/2</f>
         <v>10.047912999999998</v>
       </c>
-      <c r="D87" s="50">
+      <c r="D87" s="16">
         <f ca="1">D86+I87</f>
         <v>10.052912999999997</v>
       </c>
-      <c r="F87" s="50">
+      <c r="F87" s="16">
         <v>1.5</v>
       </c>
-      <c r="G87" s="49">
+      <c r="G87">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="H87" s="49">
+      <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87" s="49">
+      <c r="I87">
         <v>0.01</v>
       </c>
-      <c r="J87" s="49">
+      <c r="J87">
         <f>0.014478</f>
         <v>1.4478E-2</v>
       </c>
-      <c r="O87" s="49" t="s">
+      <c r="O87" t="s">
         <v>254</v>
       </c>
-      <c r="P87" s="49" t="s">
+      <c r="P87" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" s="48" t="str">
+      <c r="A88" s="37" t="str">
         <f ca="1">O88 &amp; "."  &amp; P88 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C88), C88, F88), "000")</f>
         <v>DC5.QPF.103</v>
       </c>
-      <c r="B88" s="50">
+      <c r="B88" s="16">
         <f ca="1">D86+Sheet1!B42</f>
         <v>10.212076999999997</v>
       </c>
-      <c r="C88" s="50">
+      <c r="C88" s="16">
         <f ca="1">B88+Sheet1!$E$3/2</f>
         <v>10.256526999999997</v>
       </c>
-      <c r="D88" s="50">
+      <c r="D88" s="16">
         <f ca="1">B88+Sheet1!$E$3</f>
         <v>10.300976999999998</v>
       </c>
-      <c r="E88" s="49">
+      <c r="E88">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F88" s="50"/>
-      <c r="J88" s="49">
+      <c r="F88" s="16"/>
+      <c r="J88">
         <v>2.7E-2</v>
       </c>
-      <c r="L88" s="49" t="s">
+      <c r="L88" t="s">
         <v>1</v>
       </c>
-      <c r="M88" s="51">
+      <c r="M88" s="12">
         <v>62</v>
       </c>
-      <c r="N88" s="49" t="s">
+      <c r="N88" t="s">
         <v>42</v>
       </c>
-      <c r="O88" s="49" t="s">
+      <c r="O88" t="s">
         <v>254</v>
       </c>
-      <c r="P88" s="49" t="s">
-        <v>248</v>
+      <c r="P88" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89" s="48" t="str">
+      <c r="A89" s="37" t="str">
         <f>O89 &amp; "."  &amp; P89 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C89), C89, F89), "000")</f>
         <v>DC5.STV.103</v>
       </c>
-      <c r="B89" s="50">
+      <c r="B89" s="16">
         <v>10.300976999999998</v>
       </c>
-      <c r="C89" s="50">
+      <c r="C89" s="16">
         <v>10.300976999999998</v>
       </c>
-      <c r="D89" s="50">
+      <c r="D89" s="16">
         <v>10.300976999999998</v>
       </c>
-      <c r="F89" s="50"/>
-      <c r="L89" s="49" t="s">
+      <c r="F89" s="16"/>
+      <c r="L89" t="s">
         <v>2</v>
       </c>
-      <c r="M89" s="51">
+      <c r="M89" s="12">
         <v>65</v>
       </c>
-      <c r="N89" s="49" t="s">
+      <c r="N89" t="s">
         <v>186</v>
       </c>
-      <c r="O89" s="49" t="s">
+      <c r="O89" t="s">
         <v>254</v>
       </c>
-      <c r="P89" s="49" t="s">
+      <c r="P89" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90" s="48"/>
-      <c r="B90" s="50">
+      <c r="A90" s="37"/>
+      <c r="B90" s="16">
         <v>10.300976999999998</v>
       </c>
-      <c r="C90" s="50">
+      <c r="C90" s="16">
         <v>10.300976999999998</v>
       </c>
-      <c r="D90" s="50">
+      <c r="D90" s="16">
         <v>10.300976999999998</v>
       </c>
-      <c r="F90" s="50"/>
-      <c r="L90" s="49" t="s">
+      <c r="F90" s="16"/>
+      <c r="L90" t="s">
         <v>192</v>
       </c>
-      <c r="M90" s="51"/>
-      <c r="N90" s="49" t="s">
+      <c r="M90" s="12"/>
+      <c r="N90" t="s">
         <v>196</v>
       </c>
-      <c r="O90" s="49" t="s">
+      <c r="O90" t="s">
         <v>254</v>
       </c>
-      <c r="P90" s="49" t="s">
+      <c r="P90" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91" s="48" t="str">
+      <c r="A91" s="37" t="str">
         <f ca="1">O91 &amp; "."  &amp; P91 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C91), C91, F91), "000")</f>
         <v>DC5.QPD.107</v>
       </c>
-      <c r="B91" s="50">
+      <c r="B91" s="16">
         <f ca="1">D88+Sheet1!B43</f>
         <v>10.609205999999999</v>
       </c>
-      <c r="C91" s="50">
+      <c r="C91" s="16">
         <f ca="1">B91+Sheet1!$E$3/2</f>
         <v>10.653655999999998</v>
       </c>
-      <c r="D91" s="50">
+      <c r="D91" s="16">
         <f ca="1">B91+Sheet1!$E$3</f>
         <v>10.698105999999999</v>
       </c>
-      <c r="E91" s="49">
+      <c r="E91">
         <v>3.0809205642167781</v>
       </c>
-      <c r="F91" s="50"/>
-      <c r="J91" s="49">
+      <c r="F91" s="16"/>
+      <c r="J91">
         <v>2.7E-2</v>
       </c>
-      <c r="L91" s="49" t="s">
+      <c r="L91" t="s">
         <v>1</v>
       </c>
-      <c r="M91" s="51">
+      <c r="M91" s="12">
         <v>63</v>
       </c>
-      <c r="N91" s="49" t="s">
+      <c r="N91" t="s">
         <v>43</v>
       </c>
-      <c r="O91" s="49" t="s">
+      <c r="O91" t="s">
         <v>254</v>
       </c>
-      <c r="P91" s="49" t="s">
-        <v>249</v>
+      <c r="P91" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A92" s="48" t="str">
+      <c r="A92" s="37" t="str">
         <f ca="1">O92 &amp; "."  &amp; P92 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C92), C92, F92), "000")</f>
         <v>DC5.QPF.108</v>
       </c>
-      <c r="B92" s="50">
+      <c r="B92" s="16">
         <f ca="1">D91+Sheet1!B44</f>
         <v>10.736205999999999</v>
       </c>
-      <c r="C92" s="50">
+      <c r="C92" s="16">
         <f ca="1">B92+Sheet1!$E$3/2</f>
         <v>10.780655999999999</v>
       </c>
-      <c r="D92" s="50">
+      <c r="D92" s="16">
         <f ca="1">B92+Sheet1!$E$3</f>
         <v>10.825106</v>
       </c>
-      <c r="E92" s="49">
+      <c r="E92">
         <v>1.5961395694135116</v>
       </c>
-      <c r="F92" s="50"/>
-      <c r="J92" s="49">
+      <c r="F92" s="16"/>
+      <c r="J92">
         <v>2.7E-2</v>
       </c>
-      <c r="L92" s="49" t="s">
+      <c r="L92" t="s">
         <v>1</v>
       </c>
-      <c r="M92" s="51">
+      <c r="M92" s="12">
         <v>64</v>
       </c>
-      <c r="N92" s="49" t="s">
+      <c r="N92" t="s">
         <v>44</v>
       </c>
-      <c r="O92" s="49" t="s">
+      <c r="O92" t="s">
         <v>254</v>
       </c>
-      <c r="P92" s="49" t="s">
-        <v>248</v>
+      <c r="P92" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93" s="48"/>
-      <c r="B93" s="50">
+      <c r="A93" s="37"/>
+      <c r="B93" s="16">
         <v>11.005421</v>
       </c>
-      <c r="C93" s="50">
+      <c r="C93" s="16">
         <v>11.005421</v>
       </c>
-      <c r="D93" s="50">
+      <c r="D93" s="16">
         <v>11.005421</v>
       </c>
-      <c r="F93" s="50"/>
-      <c r="L93" s="49" t="s">
+      <c r="F93" s="16"/>
+      <c r="L93" t="s">
         <v>209</v>
       </c>
-      <c r="O93" s="49" t="s">
+      <c r="O93" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94" s="48" t="str">
-        <f>O94 &amp; "."  &amp; P94 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C94), C94, F94), "000")</f>
+      <c r="A94" s="37" t="str">
+        <f t="shared" ref="A94:A124" si="13">O94 &amp; "."  &amp; P94 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C94), C94, F94), "000")</f>
         <v>FC1.DPW.111</v>
       </c>
-      <c r="B94" s="50">
+      <c r="B94" s="16">
         <f>B95-I94</f>
         <v>11.099409</v>
       </c>
-      <c r="C94" s="50">
+      <c r="C94" s="16">
         <f>B95-I94/2</f>
         <v>11.104408999999999</v>
       </c>
-      <c r="D94" s="50">
+      <c r="D94" s="16">
         <f>B95</f>
         <v>11.109408999999999</v>
       </c>
-      <c r="F94" s="49">
+      <c r="F94">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="G94" s="54">
+      <c r="G94" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H94" s="49">
+      <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94" s="49">
+      <c r="I94">
         <v>0.01</v>
       </c>
-      <c r="J94" s="49">
-        <f>0.0127</f>
+      <c r="J94">
+        <f t="shared" ref="J94:J99" si="14">0.0127</f>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="K94" s="49" t="s">
+      <c r="K94" t="s">
         <v>345</v>
       </c>
-      <c r="O94" s="49" t="s">
+      <c r="O94" t="s">
         <v>257</v>
       </c>
-      <c r="P94" s="49" t="s">
+      <c r="P94" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95" s="48" t="str">
-        <f>O95 &amp; "."  &amp; P95 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C95), C95, F95), "000")</f>
+      <c r="A95" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC1.DPH.111</v>
       </c>
-      <c r="B95" s="50">
+      <c r="B95" s="16">
         <v>11.109408999999999</v>
       </c>
-      <c r="C95" s="50">
+      <c r="C95" s="16">
         <v>11.1281035</v>
       </c>
-      <c r="D95" s="50">
+      <c r="D95" s="16">
         <v>11.146797999999999</v>
       </c>
-      <c r="F95" s="49">
+      <c r="F95">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="G95" s="54">
+      <c r="G95" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="J95" s="49">
-        <f>0.0127</f>
+      <c r="J95">
+        <f t="shared" si="14"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="L95" s="49" t="s">
+      <c r="L95" t="s">
         <v>210</v>
       </c>
-      <c r="O95" s="49" t="s">
+      <c r="O95" t="s">
         <v>257</v>
       </c>
-      <c r="P95" s="49" t="s">
+      <c r="P95" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A96" s="48" t="str">
-        <f>O96 &amp; "."  &amp; P96 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C96), C96, F96), "000")</f>
+      <c r="A96" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC1.DPW.112</v>
       </c>
-      <c r="B96" s="50">
+      <c r="B96" s="16">
         <f>D95</f>
         <v>11.146797999999999</v>
       </c>
-      <c r="C96" s="50">
+      <c r="C96" s="16">
         <f>D95+I96/2</f>
         <v>11.151797999999999</v>
       </c>
-      <c r="D96" s="50">
+      <c r="D96" s="16">
         <f>D95+I96</f>
         <v>11.156797999999998</v>
       </c>
-      <c r="F96" s="49">
+      <c r="F96">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="G96" s="54">
+      <c r="G96" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H96" s="49">
+      <c r="H96">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="I96" s="49">
+      <c r="I96">
         <v>0.01</v>
       </c>
-      <c r="J96" s="49">
-        <f>0.0127</f>
+      <c r="J96">
+        <f t="shared" si="14"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="O96" s="49" t="s">
+      <c r="O96" t="s">
         <v>257</v>
       </c>
-      <c r="P96" s="49" t="s">
+      <c r="P96" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A97" s="48" t="str">
-        <f>O97 &amp; "."  &amp; P97 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C97), C97, F97), "000")</f>
+      <c r="A97" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC1.DPW.115</v>
       </c>
-      <c r="B97" s="50">
+      <c r="B97" s="16">
         <f>B98-I97</f>
         <v>11.465961999999999</v>
       </c>
-      <c r="C97" s="50">
+      <c r="C97" s="16">
         <f>B98-I97/2</f>
         <v>11.470961999999998</v>
       </c>
-      <c r="D97" s="50">
+      <c r="D97" s="16">
         <f>B98</f>
         <v>11.475961999999999</v>
       </c>
-      <c r="F97" s="49">
+      <c r="F97">
         <f>-11.25</f>
         <v>-11.25</v>
       </c>
-      <c r="G97" s="54">
+      <c r="G97" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H97" s="49">
+      <c r="H97">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="I97" s="49">
+      <c r="I97">
         <v>0.01</v>
       </c>
-      <c r="J97" s="49">
-        <f>0.0127</f>
+      <c r="J97">
+        <f t="shared" si="14"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="K97" s="49" t="s">
+      <c r="K97" t="s">
         <v>345</v>
       </c>
-      <c r="O97" s="49" t="s">
+      <c r="O97" t="s">
         <v>257</v>
       </c>
-      <c r="P97" s="49" t="s">
+      <c r="P97" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A98" s="48" t="str">
-        <f>O98 &amp; "."  &amp; P98 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C98), C98, F98), "000")</f>
+      <c r="A98" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC1.DPH.115</v>
       </c>
-      <c r="B98" s="50">
+      <c r="B98" s="16">
         <v>11.475961999999999</v>
       </c>
-      <c r="C98" s="50">
+      <c r="C98" s="16">
         <v>11.4946565</v>
       </c>
-      <c r="D98" s="50">
+      <c r="D98" s="16">
         <v>11.513350999999998</v>
       </c>
-      <c r="F98" s="49">
+      <c r="F98">
         <f>-11.25</f>
         <v>-11.25</v>
       </c>
-      <c r="G98" s="54">
+      <c r="G98" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="J98" s="49">
-        <f>0.0127</f>
+      <c r="J98">
+        <f t="shared" si="14"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="L98" s="49" t="s">
+      <c r="L98" t="s">
         <v>210</v>
       </c>
-      <c r="O98" s="49" t="s">
+      <c r="O98" t="s">
         <v>257</v>
       </c>
-      <c r="P98" s="49" t="s">
+      <c r="P98" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A99" s="48" t="str">
-        <f>O99 &amp; "."  &amp; P99 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C99), C99, F99), "000")</f>
+      <c r="A99" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC1.DPW.115</v>
       </c>
-      <c r="B99" s="50">
+      <c r="B99" s="16">
         <f>D98</f>
         <v>11.513350999999998</v>
       </c>
-      <c r="C99" s="50">
+      <c r="C99" s="16">
         <f>D98+I99/2</f>
         <v>11.518350999999999</v>
       </c>
-      <c r="D99" s="50">
+      <c r="D99" s="16">
         <f>D98+I99</f>
         <v>11.523350999999998</v>
       </c>
-      <c r="F99" s="49">
+      <c r="F99">
         <f>-11.25</f>
         <v>-11.25</v>
       </c>
-      <c r="G99" s="54">
+      <c r="G99" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H99" s="49">
+      <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99" s="49">
+      <c r="I99">
         <v>0.01</v>
       </c>
-      <c r="J99" s="49">
-        <f>0.0127</f>
+      <c r="J99">
+        <f t="shared" si="14"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="O99" s="49" t="s">
+      <c r="O99" t="s">
         <v>257</v>
       </c>
-      <c r="P99" s="49" t="s">
+      <c r="P99" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A100" s="48" t="str">
-        <f>O100 &amp; "."  &amp; P100 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C100), C100, F100), "000")</f>
+      <c r="A100" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC1.OTR.116</v>
       </c>
-      <c r="B100" s="50">
+      <c r="B100" s="16">
         <v>11.608770999999999</v>
       </c>
-      <c r="C100" s="50">
+      <c r="C100" s="16">
         <v>11.608770999999999</v>
       </c>
-      <c r="D100" s="50">
+      <c r="D100" s="16">
         <v>11.608770999999999</v>
       </c>
-      <c r="F100" s="50"/>
-      <c r="L100" s="49" t="s">
+      <c r="F100" s="16"/>
+      <c r="L100" t="s">
         <v>191</v>
       </c>
-      <c r="O100" s="49" t="s">
+      <c r="O100" t="s">
         <v>257</v>
       </c>
-      <c r="P100" s="49" t="s">
+      <c r="P100" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A101" s="48" t="str">
-        <f>O101 &amp; "."  &amp; P101 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C101), C101, F101), "000")</f>
+      <c r="A101" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC1.DPW.117</v>
       </c>
-      <c r="B101" s="50">
+      <c r="B101" s="16">
         <f>B102-I101</f>
         <v>11.694191</v>
       </c>
-      <c r="C101" s="50">
+      <c r="C101" s="16">
         <f>B102-I101/2</f>
         <v>11.699190999999999</v>
       </c>
-      <c r="D101" s="50">
+      <c r="D101" s="16">
         <f>B102</f>
         <v>11.704191</v>
       </c>
-      <c r="F101" s="49">
+      <c r="F101">
         <f>-11.25</f>
         <v>-11.25</v>
       </c>
-      <c r="G101" s="54">
+      <c r="G101" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H101" s="49">
+      <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101" s="49">
+      <c r="I101">
         <v>0.01</v>
       </c>
-      <c r="J101" s="49">
-        <f>0.0127</f>
+      <c r="J101">
+        <f t="shared" ref="J101:J106" si="15">0.0127</f>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="K101" s="49" t="s">
+      <c r="K101" t="s">
         <v>345</v>
       </c>
-      <c r="O101" s="49" t="s">
+      <c r="O101" t="s">
         <v>257</v>
       </c>
-      <c r="P101" s="49" t="s">
+      <c r="P101" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A102" s="48" t="str">
-        <f>O102 &amp; "."  &amp; P102 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C102), C102, F102), "000")</f>
+      <c r="A102" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC1.DPH.117</v>
       </c>
-      <c r="B102" s="50">
+      <c r="B102" s="16">
         <v>11.704191</v>
       </c>
-      <c r="C102" s="50">
+      <c r="C102" s="16">
         <v>11.7228855</v>
       </c>
-      <c r="D102" s="50">
+      <c r="D102" s="16">
         <v>11.741579999999999</v>
       </c>
-      <c r="F102" s="49">
+      <c r="F102">
         <f>-11.25</f>
         <v>-11.25</v>
       </c>
-      <c r="G102" s="54">
+      <c r="G102" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="J102" s="49">
-        <f>0.0127</f>
+      <c r="J102">
+        <f t="shared" si="15"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="L102" s="49" t="s">
+      <c r="L102" t="s">
         <v>210</v>
       </c>
-      <c r="O102" s="49" t="s">
+      <c r="O102" t="s">
         <v>257</v>
       </c>
-      <c r="P102" s="49" t="s">
+      <c r="P102" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A103" s="48" t="str">
-        <f>O103 &amp; "."  &amp; P103 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C103), C103, F103), "000")</f>
+      <c r="A103" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC1.DPW.117</v>
       </c>
-      <c r="B103" s="50">
+      <c r="B103" s="16">
         <f>D102</f>
         <v>11.741579999999999</v>
       </c>
-      <c r="C103" s="50">
+      <c r="C103" s="16">
         <f>D102+I103/2</f>
         <v>11.74658</v>
       </c>
-      <c r="D103" s="50">
+      <c r="D103" s="16">
         <f>D102+I103</f>
         <v>11.751579999999999</v>
       </c>
-      <c r="F103" s="49">
+      <c r="F103">
         <f>-11.25</f>
         <v>-11.25</v>
       </c>
-      <c r="G103" s="54">
+      <c r="G103" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H103" s="49">
+      <c r="H103">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="I103" s="49">
+      <c r="I103">
         <v>0.01</v>
       </c>
-      <c r="J103" s="49">
-        <f>0.0127</f>
+      <c r="J103">
+        <f t="shared" si="15"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="O103" s="49" t="s">
+      <c r="O103" t="s">
         <v>257</v>
       </c>
-      <c r="P103" s="49" t="s">
+      <c r="P103" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A104" s="48" t="str">
-        <f>O104 &amp; "."  &amp; P104 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C104), C104, F104), "000")</f>
+      <c r="A104" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC1.DPW.121</v>
       </c>
-      <c r="B104" s="50">
+      <c r="B104" s="16">
         <f>B105-I104</f>
         <v>12.060744</v>
       </c>
-      <c r="C104" s="50">
+      <c r="C104" s="16">
         <f>B105-I104/2</f>
         <v>12.065743999999999</v>
       </c>
-      <c r="D104" s="50">
+      <c r="D104" s="16">
         <f>B105</f>
         <v>12.070743999999999</v>
       </c>
-      <c r="F104" s="49">
+      <c r="F104">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="G104" s="54">
+      <c r="G104" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H104" s="49">
+      <c r="H104">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="I104" s="49">
+      <c r="I104">
         <v>0.01</v>
       </c>
-      <c r="J104" s="49">
-        <f>0.0127</f>
+      <c r="J104">
+        <f t="shared" si="15"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="K104" s="49" t="s">
+      <c r="K104" t="s">
         <v>345</v>
       </c>
-      <c r="O104" s="49" t="s">
+      <c r="O104" t="s">
         <v>257</v>
       </c>
-      <c r="P104" s="49" t="s">
+      <c r="P104" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A105" s="48" t="str">
-        <f>O105 &amp; "."  &amp; P105 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C105), C105, F105), "000")</f>
+      <c r="A105" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC1.DPH.121</v>
       </c>
-      <c r="B105" s="50">
+      <c r="B105" s="16">
         <v>12.070743999999999</v>
       </c>
-      <c r="C105" s="50">
+      <c r="C105" s="16">
         <v>12.0894385</v>
       </c>
-      <c r="D105" s="50">
+      <c r="D105" s="16">
         <v>12.108132999999999</v>
       </c>
-      <c r="F105" s="49">
+      <c r="F105">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="G105" s="54">
+      <c r="G105" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="J105" s="49">
-        <f>0.0127</f>
+      <c r="J105">
+        <f t="shared" si="15"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="L105" s="49" t="s">
+      <c r="L105" t="s">
         <v>210</v>
       </c>
-      <c r="O105" s="49" t="s">
+      <c r="O105" t="s">
         <v>257</v>
       </c>
-      <c r="P105" s="49" t="s">
+      <c r="P105" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A106" s="48" t="str">
-        <f>O106 &amp; "."  &amp; P106 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C106), C106, F106), "000")</f>
+      <c r="A106" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC1.DPW.121</v>
       </c>
-      <c r="B106" s="50">
+      <c r="B106" s="16">
         <f>D105</f>
         <v>12.108132999999999</v>
       </c>
-      <c r="C106" s="50">
+      <c r="C106" s="16">
         <f>D105+I106/2</f>
         <v>12.113132999999999</v>
       </c>
-      <c r="D106" s="50">
+      <c r="D106" s="16">
         <f>D105+I106</f>
         <v>12.118132999999998</v>
       </c>
-      <c r="F106" s="49">
+      <c r="F106">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="G106" s="54">
+      <c r="G106" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H106" s="49">
+      <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" s="49">
+      <c r="I106">
         <v>0.01</v>
       </c>
-      <c r="J106" s="49">
-        <f>0.0127</f>
+      <c r="J106">
+        <f t="shared" si="15"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="O106" s="49" t="s">
+      <c r="O106" t="s">
         <v>257</v>
       </c>
-      <c r="P106" s="49" t="s">
+      <c r="P106" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A107" s="48" t="str">
-        <f>O107 &amp; "."  &amp; P107 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C107), C107, F107), "000")</f>
+      <c r="A107" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FEL.OTR.123</v>
       </c>
-      <c r="B107" s="50">
+      <c r="B107" s="16">
         <v>12.319866999999999</v>
       </c>
-      <c r="C107" s="50">
+      <c r="C107" s="16">
         <v>12.319866999999999</v>
       </c>
-      <c r="D107" s="50">
+      <c r="D107" s="16">
         <v>12.319866999999999</v>
       </c>
-      <c r="L107" s="49" t="s">
+      <c r="L107" t="s">
         <v>191</v>
       </c>
-      <c r="O107" s="49" t="s">
+      <c r="O107" t="s">
         <v>256</v>
       </c>
-      <c r="P107" s="49" t="s">
+      <c r="P107" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A108" s="48" t="str">
-        <f>O108 &amp; "."  &amp; P108 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C108), C108, F108), "000")</f>
+      <c r="A108" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FEL.UND.127</v>
       </c>
-      <c r="B108" s="50">
+      <c r="B108" s="16">
         <v>12.388966999999999</v>
       </c>
-      <c r="C108" s="50">
+      <c r="C108" s="16">
         <v>12.659217</v>
       </c>
-      <c r="D108" s="50">
+      <c r="D108" s="16">
         <v>12.929466999999999</v>
       </c>
-      <c r="L108" s="49" t="s">
+      <c r="L108" t="s">
         <v>205</v>
       </c>
-      <c r="O108" s="49" t="s">
+      <c r="O108" t="s">
         <v>256</v>
       </c>
-      <c r="P108" s="49" t="s">
+      <c r="P108" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A109" s="48" t="str">
-        <f>O109 &amp; "."  &amp; P109 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C109), C109, F109), "000")</f>
+      <c r="A109" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FEL.OTR.129</v>
       </c>
-      <c r="B109" s="50">
+      <c r="B109" s="16">
         <v>12.929466999999999</v>
       </c>
-      <c r="C109" s="50">
+      <c r="C109" s="16">
         <v>12.929466999999999</v>
       </c>
-      <c r="D109" s="50">
+      <c r="D109" s="16">
         <v>12.929466999999999</v>
       </c>
-      <c r="L109" s="49" t="s">
+      <c r="L109" t="s">
         <v>191</v>
       </c>
-      <c r="O109" s="49" t="s">
+      <c r="O109" t="s">
         <v>256</v>
       </c>
-      <c r="P109" s="49" t="s">
+      <c r="P109" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A110" s="48" t="str">
-        <f>O110 &amp; "."  &amp; P110 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C110), C110, F110), "000")</f>
+      <c r="A110" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FEL.UND.132</v>
       </c>
-      <c r="B110" s="50">
+      <c r="B110" s="16">
         <v>12.929466999999999</v>
       </c>
-      <c r="C110" s="50">
+      <c r="C110" s="16">
         <v>13.199717</v>
       </c>
-      <c r="D110" s="50">
+      <c r="D110" s="16">
         <v>13.469966999999999</v>
       </c>
-      <c r="L110" s="49" t="s">
+      <c r="L110" t="s">
         <v>205</v>
       </c>
-      <c r="O110" s="49" t="s">
+      <c r="O110" t="s">
         <v>256</v>
       </c>
-      <c r="P110" s="49" t="s">
+      <c r="P110" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A111" s="48" t="str">
-        <f>O111 &amp; "."  &amp; P111 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C111), C111, F111), "000")</f>
+      <c r="A111" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FEL.OTR.135</v>
       </c>
-      <c r="B111" s="50">
+      <c r="B111" s="16">
         <v>13.539066999999999</v>
       </c>
-      <c r="C111" s="50">
+      <c r="C111" s="16">
         <v>13.539066999999999</v>
       </c>
-      <c r="D111" s="50">
+      <c r="D111" s="16">
         <v>13.539066999999999</v>
       </c>
-      <c r="L111" s="49" t="s">
+      <c r="L111" t="s">
         <v>191</v>
       </c>
-      <c r="O111" s="49" t="s">
+      <c r="O111" t="s">
         <v>256</v>
       </c>
-      <c r="P111" s="49" t="s">
+      <c r="P111" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A112" s="48" t="str">
-        <f>O112 &amp; "."  &amp; P112 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C112), C112, F112), "000")</f>
+      <c r="A112" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC2.DPW.137</v>
       </c>
-      <c r="B112" s="50">
+      <c r="B112" s="16">
         <f>B113-I112</f>
         <v>13.741436999999999</v>
       </c>
-      <c r="C112" s="50">
+      <c r="C112" s="16">
         <f>B113-I112/2</f>
         <v>13.746436999999998</v>
       </c>
-      <c r="D112" s="50">
+      <c r="D112" s="16">
         <f>B113</f>
         <v>13.751436999999999</v>
       </c>
-      <c r="F112" s="49">
+      <c r="F112">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="G112" s="54">
+      <c r="G112" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H112" s="49">
+      <c r="H112">
         <v>0</v>
       </c>
-      <c r="I112" s="49">
+      <c r="I112">
         <v>0.01</v>
       </c>
-      <c r="J112" s="49">
-        <f>0.0127</f>
+      <c r="J112">
+        <f t="shared" ref="J112:J117" si="16">0.0127</f>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="K112" s="49" t="s">
+      <c r="K112" t="s">
         <v>345</v>
       </c>
-      <c r="O112" s="49" t="s">
+      <c r="O112" t="s">
         <v>258</v>
       </c>
-      <c r="P112" s="49" t="s">
+      <c r="P112" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A113" s="48" t="str">
-        <f>O113 &amp; "."  &amp; P113 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C113), C113, F113), "000")</f>
+      <c r="A113" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC2.DPH.138</v>
       </c>
-      <c r="B113" s="50">
+      <c r="B113" s="16">
         <v>13.751436999999999</v>
       </c>
-      <c r="C113" s="50">
+      <c r="C113" s="16">
         <v>13.7701315</v>
       </c>
-      <c r="D113" s="50">
+      <c r="D113" s="16">
         <v>13.788825999999998</v>
       </c>
-      <c r="F113" s="49">
+      <c r="F113">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="G113" s="54">
+      <c r="G113" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="J113" s="49">
-        <f>0.0127</f>
+      <c r="J113">
+        <f t="shared" si="16"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="L113" s="49" t="s">
+      <c r="L113" t="s">
         <v>210</v>
       </c>
-      <c r="O113" s="49" t="s">
+      <c r="O113" t="s">
         <v>258</v>
       </c>
-      <c r="P113" s="49" t="s">
+      <c r="P113" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A114" s="48" t="str">
-        <f>O114 &amp; "."  &amp; P114 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C114), C114, F114), "000")</f>
+      <c r="A114" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC2.DPW.138</v>
       </c>
-      <c r="B114" s="50">
+      <c r="B114" s="16">
         <f>D113</f>
         <v>13.788825999999998</v>
       </c>
-      <c r="C114" s="50">
+      <c r="C114" s="16">
         <f>D113+I114/2</f>
         <v>13.793825999999999</v>
       </c>
-      <c r="D114" s="50">
+      <c r="D114" s="16">
         <f>D113+I114</f>
         <v>13.798825999999998</v>
       </c>
-      <c r="F114" s="49">
+      <c r="F114">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="G114" s="54">
+      <c r="G114" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H114" s="49">
+      <c r="H114">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="I114" s="49">
+      <c r="I114">
         <v>0.01</v>
       </c>
-      <c r="J114" s="49">
-        <f>0.0127</f>
+      <c r="J114">
+        <f t="shared" si="16"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="O114" s="49" t="s">
+      <c r="O114" t="s">
         <v>258</v>
       </c>
-      <c r="P114" s="49" t="s">
+      <c r="P114" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A115" s="48" t="str">
-        <f>O115 &amp; "."  &amp; P115 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C115), C115, F115), "000")</f>
+      <c r="A115" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC2.DPW.141</v>
       </c>
-      <c r="B115" s="50">
+      <c r="B115" s="16">
         <f>B116-I115</f>
         <v>14.107989999999999</v>
       </c>
-      <c r="C115" s="50">
+      <c r="C115" s="16">
         <f>B116-I115/2</f>
         <v>14.112989999999998</v>
       </c>
-      <c r="D115" s="50">
+      <c r="D115" s="16">
         <f>B116</f>
         <v>14.117989999999999</v>
       </c>
-      <c r="F115" s="49">
+      <c r="F115">
         <f>-11.25</f>
         <v>-11.25</v>
       </c>
-      <c r="G115" s="54">
+      <c r="G115" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H115" s="49">
+      <c r="H115">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="I115" s="49">
+      <c r="I115">
         <v>0.01</v>
       </c>
-      <c r="J115" s="49">
-        <f>0.0127</f>
+      <c r="J115">
+        <f t="shared" si="16"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="K115" s="49" t="s">
+      <c r="K115" t="s">
         <v>345</v>
       </c>
-      <c r="O115" s="49" t="s">
+      <c r="O115" t="s">
         <v>258</v>
       </c>
-      <c r="P115" s="49" t="s">
+      <c r="P115" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A116" s="48" t="str">
-        <f>O116 &amp; "."  &amp; P116 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C116), C116, F116), "000")</f>
+      <c r="A116" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC2.DPH.141</v>
       </c>
-      <c r="B116" s="50">
+      <c r="B116" s="16">
         <v>14.117989999999999</v>
       </c>
-      <c r="C116" s="50">
+      <c r="C116" s="16">
         <v>14.136684499999999</v>
       </c>
-      <c r="D116" s="50">
+      <c r="D116" s="16">
         <v>14.155378999999998</v>
       </c>
-      <c r="F116" s="49">
+      <c r="F116">
         <f>-11.25</f>
         <v>-11.25</v>
       </c>
-      <c r="G116" s="54">
+      <c r="G116" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="J116" s="49">
-        <f>0.0127</f>
+      <c r="J116">
+        <f t="shared" si="16"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="L116" s="49" t="s">
+      <c r="L116" t="s">
         <v>210</v>
       </c>
-      <c r="O116" s="49" t="s">
+      <c r="O116" t="s">
         <v>258</v>
       </c>
-      <c r="P116" s="49" t="s">
+      <c r="P116" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A117" s="48" t="str">
-        <f>O117 &amp; "."  &amp; P117 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C117), C117, F117), "000")</f>
+      <c r="A117" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC2.DPW.142</v>
       </c>
-      <c r="B117" s="50">
+      <c r="B117" s="16">
         <f>D116</f>
         <v>14.155378999999998</v>
       </c>
-      <c r="C117" s="50">
+      <c r="C117" s="16">
         <f>D116+I117/2</f>
         <v>14.160378999999999</v>
       </c>
-      <c r="D117" s="50">
+      <c r="D117" s="16">
         <f>D116+I117</f>
         <v>14.165378999999998</v>
       </c>
-      <c r="F117" s="49">
+      <c r="F117">
         <f>-11.25</f>
         <v>-11.25</v>
       </c>
-      <c r="G117" s="54">
+      <c r="G117" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H117" s="49">
+      <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117" s="49">
+      <c r="I117">
         <v>0.01</v>
       </c>
-      <c r="J117" s="49">
-        <f>0.0127</f>
+      <c r="J117">
+        <f t="shared" si="16"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="O117" s="49" t="s">
+      <c r="O117" t="s">
         <v>258</v>
       </c>
-      <c r="P117" s="49" t="s">
+      <c r="P117" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A118" s="48" t="str">
-        <f>O118 &amp; "."  &amp; P118 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C118), C118, F118), "000")</f>
+      <c r="A118" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC2.OTR.143</v>
       </c>
-      <c r="B118" s="50">
+      <c r="B118" s="16">
         <v>14.250798999999999</v>
       </c>
-      <c r="C118" s="50">
+      <c r="C118" s="16">
         <v>14.250798999999999</v>
       </c>
-      <c r="D118" s="50">
+      <c r="D118" s="16">
         <v>14.250798999999999</v>
       </c>
-      <c r="L118" s="49" t="s">
+      <c r="L118" t="s">
         <v>191</v>
       </c>
-      <c r="O118" s="49" t="s">
+      <c r="O118" t="s">
         <v>258</v>
       </c>
-      <c r="P118" s="49" t="s">
+      <c r="P118" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A119" s="48" t="str">
-        <f>O119 &amp; "."  &amp; P119 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C119), C119, F119), "000")</f>
+      <c r="A119" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC2.DPW.143</v>
       </c>
-      <c r="B119" s="50">
+      <c r="B119" s="16">
         <f>B120-I119</f>
         <v>14.336219</v>
       </c>
-      <c r="C119" s="50">
+      <c r="C119" s="16">
         <f>B120-I119/2</f>
         <v>14.341218999999999</v>
       </c>
-      <c r="D119" s="50">
+      <c r="D119" s="16">
         <f>B120</f>
         <v>14.346219</v>
       </c>
-      <c r="F119" s="49">
+      <c r="F119">
         <f>-11.25</f>
         <v>-11.25</v>
       </c>
-      <c r="G119" s="54">
+      <c r="G119" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H119" s="49">
+      <c r="H119">
         <v>0</v>
       </c>
-      <c r="I119" s="49">
+      <c r="I119">
         <v>0.01</v>
       </c>
-      <c r="J119" s="49">
-        <f>0.0127</f>
+      <c r="J119">
+        <f t="shared" ref="J119:J124" si="17">0.0127</f>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="K119" s="49" t="s">
+      <c r="K119" t="s">
         <v>345</v>
       </c>
-      <c r="O119" s="49" t="s">
+      <c r="O119" t="s">
         <v>258</v>
       </c>
-      <c r="P119" s="49" t="s">
+      <c r="P119" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A120" s="48" t="str">
-        <f>O120 &amp; "."  &amp; P120 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C120), C120, F120), "000")</f>
+      <c r="A120" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC2.DPH.144</v>
       </c>
-      <c r="B120" s="50">
+      <c r="B120" s="16">
         <v>14.346219</v>
       </c>
-      <c r="C120" s="50">
+      <c r="C120" s="16">
         <v>14.3649135</v>
       </c>
-      <c r="D120" s="50">
+      <c r="D120" s="16">
         <v>14.383607999999999</v>
       </c>
-      <c r="F120" s="49">
+      <c r="F120">
         <f>-11.25</f>
         <v>-11.25</v>
       </c>
-      <c r="G120" s="54">
+      <c r="G120" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="J120" s="49">
-        <f>0.0127</f>
+      <c r="J120">
+        <f t="shared" si="17"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="L120" s="49" t="s">
+      <c r="L120" t="s">
         <v>210</v>
       </c>
-      <c r="O120" s="49" t="s">
+      <c r="O120" t="s">
         <v>258</v>
       </c>
-      <c r="P120" s="49" t="s">
+      <c r="P120" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A121" s="48" t="str">
-        <f>O121 &amp; "."  &amp; P121 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C121), C121, F121), "000")</f>
+      <c r="A121" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC2.DPW.144</v>
       </c>
-      <c r="B121" s="50">
+      <c r="B121" s="16">
         <f>D120</f>
         <v>14.383607999999999</v>
       </c>
-      <c r="C121" s="50">
+      <c r="C121" s="16">
         <f>D120+I121/2</f>
         <v>14.388608</v>
       </c>
-      <c r="D121" s="50">
+      <c r="D121" s="16">
         <f>D120+I121</f>
         <v>14.393607999999999</v>
       </c>
-      <c r="F121" s="49">
+      <c r="F121">
         <f>-11.25</f>
         <v>-11.25</v>
       </c>
-      <c r="G121" s="54">
+      <c r="G121" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H121" s="49">
+      <c r="H121">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="I121" s="49">
+      <c r="I121">
         <v>0.01</v>
       </c>
-      <c r="J121" s="49">
-        <f>0.0127</f>
+      <c r="J121">
+        <f t="shared" si="17"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="O121" s="49" t="s">
+      <c r="O121" t="s">
         <v>258</v>
       </c>
-      <c r="P121" s="49" t="s">
+      <c r="P121" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A122" s="48" t="str">
-        <f>O122 &amp; "."  &amp; P122 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C122), C122, F122), "000")</f>
+      <c r="A122" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC2.DPW.147</v>
       </c>
-      <c r="B122" s="50">
+      <c r="B122" s="16">
         <f>B123-I122</f>
         <v>14.702772</v>
       </c>
-      <c r="C122" s="50">
+      <c r="C122" s="16">
         <f>B123-I122/2</f>
         <v>14.707771999999999</v>
       </c>
-      <c r="D122" s="50">
+      <c r="D122" s="16">
         <f>B123</f>
         <v>14.712771999999999</v>
       </c>
-      <c r="F122" s="49">
+      <c r="F122">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="G122" s="54">
+      <c r="G122" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H122" s="49">
+      <c r="H122">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="I122" s="49">
+      <c r="I122">
         <v>0.01</v>
       </c>
-      <c r="J122" s="49">
-        <f>0.0127</f>
+      <c r="J122">
+        <f t="shared" si="17"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="K122" s="49" t="s">
+      <c r="K122" t="s">
         <v>345</v>
       </c>
-      <c r="O122" s="49" t="s">
+      <c r="O122" t="s">
         <v>258</v>
       </c>
-      <c r="P122" s="49" t="s">
+      <c r="P122" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A123" s="48" t="str">
-        <f>O123 &amp; "."  &amp; P123 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C123), C123, F123), "000")</f>
+      <c r="A123" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC2.DPH.147</v>
       </c>
-      <c r="B123" s="50">
+      <c r="B123" s="16">
         <v>14.712771999999999</v>
       </c>
-      <c r="C123" s="50">
+      <c r="C123" s="16">
         <v>14.7314665</v>
       </c>
-      <c r="D123" s="50">
+      <c r="D123" s="16">
         <v>14.750160999999999</v>
       </c>
-      <c r="F123" s="49">
+      <c r="F123">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="G123" s="54">
+      <c r="G123" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="J123" s="49">
-        <f>0.0127</f>
+      <c r="J123">
+        <f t="shared" si="17"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="L123" s="49" t="s">
+      <c r="L123" t="s">
         <v>210</v>
       </c>
-      <c r="O123" s="49" t="s">
+      <c r="O123" t="s">
         <v>258</v>
       </c>
-      <c r="P123" s="49" t="s">
+      <c r="P123" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A124" s="48" t="str">
-        <f>O124 &amp; "."  &amp; P124 &amp; "." &amp; TEXT(10*IF(ISNUMBER(C124), C124, F124), "000")</f>
+      <c r="A124" s="37" t="str">
+        <f t="shared" si="13"/>
         <v>FC2.DPW.148</v>
       </c>
-      <c r="B124" s="50">
+      <c r="B124" s="16">
         <f>D123</f>
         <v>14.750160999999999</v>
       </c>
-      <c r="C124" s="50">
+      <c r="C124" s="16">
         <f>D123+I124/2</f>
         <v>14.755160999999999</v>
       </c>
-      <c r="D124" s="50">
+      <c r="D124" s="16">
         <f>D123+I124</f>
         <v>14.760160999999998</v>
       </c>
-      <c r="F124" s="49">
+      <c r="F124">
         <f>11.25</f>
         <v>11.25</v>
       </c>
-      <c r="G124" s="54">
+      <c r="G124" s="40">
         <v>3.7388999999999999E-2</v>
       </c>
-      <c r="H124" s="49">
+      <c r="H124">
         <v>0</v>
       </c>
-      <c r="I124" s="49">
+      <c r="I124">
         <v>0.01</v>
       </c>
-      <c r="J124" s="49">
-        <f>0.0127</f>
+      <c r="J124">
+        <f t="shared" si="17"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="O124" s="49" t="s">
+      <c r="O124" t="s">
         <v>258</v>
       </c>
-      <c r="P124" s="49" t="s">
+      <c r="P124" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9464,20 +9451,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="H1" s="40" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="H1" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -10779,11 +10766,11 @@
         <v>2.0179999999999998</v>
       </c>
       <c r="F38" s="10"/>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
       <c r="K38" t="s">
         <v>286</v>
       </c>
